--- a/BackTest/2020-01-16 BackTest XVG.xlsx
+++ b/BackTest/2020-01-16 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.002</v>
+        <v>4.003</v>
       </c>
       <c r="C2" t="n">
-        <v>4.002</v>
+        <v>4.003</v>
       </c>
       <c r="D2" t="n">
-        <v>4.002</v>
+        <v>4.003</v>
       </c>
       <c r="E2" t="n">
-        <v>4.002</v>
+        <v>4.003</v>
       </c>
       <c r="F2" t="n">
-        <v>37449.3351</v>
+        <v>63.9168</v>
       </c>
       <c r="G2" t="n">
-        <v>3.974333333333329</v>
+        <v>3.973966666666663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.985</v>
+        <v>4.002</v>
       </c>
       <c r="C3" t="n">
-        <v>3.985</v>
+        <v>4.002</v>
       </c>
       <c r="D3" t="n">
-        <v>3.985</v>
+        <v>4.002</v>
       </c>
       <c r="E3" t="n">
-        <v>3.985</v>
+        <v>4.002</v>
       </c>
       <c r="F3" t="n">
-        <v>20431.2968</v>
+        <v>37449.3351</v>
       </c>
       <c r="G3" t="n">
-        <v>3.975416666666663</v>
+        <v>3.974333333333329</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.978</v>
+        <v>3.985</v>
       </c>
       <c r="C4" t="n">
-        <v>3.978</v>
+        <v>3.985</v>
       </c>
       <c r="D4" t="n">
-        <v>3.978</v>
+        <v>3.985</v>
       </c>
       <c r="E4" t="n">
-        <v>3.978</v>
+        <v>3.985</v>
       </c>
       <c r="F4" t="n">
-        <v>18119.544</v>
+        <v>20431.2968</v>
       </c>
       <c r="G4" t="n">
-        <v>3.97573333333333</v>
+        <v>3.975416666666663</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.961</v>
+        <v>3.978</v>
       </c>
       <c r="C5" t="n">
-        <v>3.961</v>
+        <v>3.978</v>
       </c>
       <c r="D5" t="n">
-        <v>3.961</v>
+        <v>3.978</v>
       </c>
       <c r="E5" t="n">
-        <v>3.961</v>
+        <v>3.978</v>
       </c>
       <c r="F5" t="n">
-        <v>7692.7912</v>
+        <v>18119.544</v>
       </c>
       <c r="G5" t="n">
-        <v>3.976066666666664</v>
+        <v>3.97573333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>3.961</v>
       </c>
       <c r="C6" t="n">
-        <v>3.941</v>
+        <v>3.961</v>
       </c>
       <c r="D6" t="n">
         <v>3.961</v>
       </c>
       <c r="E6" t="n">
-        <v>3.941</v>
+        <v>3.961</v>
       </c>
       <c r="F6" t="n">
-        <v>131989.5468</v>
+        <v>7692.7912</v>
       </c>
       <c r="G6" t="n">
-        <v>3.976416666666664</v>
+        <v>3.976066666666664</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.951</v>
+        <v>3.961</v>
       </c>
       <c r="C7" t="n">
-        <v>3.93</v>
+        <v>3.941</v>
       </c>
       <c r="D7" t="n">
-        <v>3.951</v>
+        <v>3.961</v>
       </c>
       <c r="E7" t="n">
-        <v>3.93</v>
+        <v>3.941</v>
       </c>
       <c r="F7" t="n">
-        <v>272259.4594</v>
+        <v>131989.5468</v>
       </c>
       <c r="G7" t="n">
-        <v>3.975783333333331</v>
+        <v>3.976416666666664</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.94</v>
+        <v>3.951</v>
       </c>
       <c r="C8" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="D8" t="n">
-        <v>3.94</v>
+        <v>3.951</v>
       </c>
       <c r="E8" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="F8" t="n">
-        <v>42567</v>
+        <v>272259.4594</v>
       </c>
       <c r="G8" t="n">
-        <v>3.975116666666664</v>
+        <v>3.975783333333331</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>3.94</v>
       </c>
       <c r="C9" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="D9" t="n">
         <v>3.94</v>
       </c>
       <c r="E9" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="F9" t="n">
-        <v>105026.0693</v>
+        <v>42567</v>
       </c>
       <c r="G9" t="n">
-        <v>3.974283333333331</v>
+        <v>3.975116666666664</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="C10" t="n">
         <v>3.93</v>
       </c>
       <c r="D10" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="E10" t="n">
         <v>3.93</v>
       </c>
       <c r="F10" t="n">
-        <v>43249.6918</v>
+        <v>105026.0693</v>
       </c>
       <c r="G10" t="n">
-        <v>3.973449999999998</v>
+        <v>3.974283333333331</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>3.93</v>
       </c>
       <c r="F11" t="n">
-        <v>72293.2795</v>
+        <v>43249.6918</v>
       </c>
       <c r="G11" t="n">
-        <v>3.972616666666665</v>
+        <v>3.973449999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="C12" t="n">
-        <v>3.934</v>
+        <v>3.93</v>
       </c>
       <c r="D12" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="E12" t="n">
-        <v>3.934</v>
+        <v>3.93</v>
       </c>
       <c r="F12" t="n">
-        <v>30922.5</v>
+        <v>72293.2795</v>
       </c>
       <c r="G12" t="n">
-        <v>3.971683333333332</v>
+        <v>3.972616666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.989</v>
+        <v>3.96</v>
       </c>
       <c r="C13" t="n">
-        <v>3.989</v>
+        <v>3.934</v>
       </c>
       <c r="D13" t="n">
-        <v>3.989</v>
+        <v>3.96</v>
       </c>
       <c r="E13" t="n">
-        <v>3.989</v>
+        <v>3.934</v>
       </c>
       <c r="F13" t="n">
-        <v>4165.0173</v>
+        <v>30922.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.971666666666665</v>
+        <v>3.971683333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.93</v>
+        <v>3.989</v>
       </c>
       <c r="C14" t="n">
-        <v>3.974</v>
+        <v>3.989</v>
       </c>
       <c r="D14" t="n">
-        <v>3.974</v>
+        <v>3.989</v>
       </c>
       <c r="E14" t="n">
-        <v>3.921</v>
+        <v>3.989</v>
       </c>
       <c r="F14" t="n">
-        <v>17660</v>
+        <v>4165.0173</v>
       </c>
       <c r="G14" t="n">
-        <v>3.971399999999998</v>
+        <v>3.971666666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.921</v>
+        <v>3.93</v>
       </c>
       <c r="C15" t="n">
-        <v>3.921</v>
+        <v>3.974</v>
       </c>
       <c r="D15" t="n">
-        <v>3.921</v>
+        <v>3.974</v>
       </c>
       <c r="E15" t="n">
         <v>3.921</v>
       </c>
       <c r="F15" t="n">
-        <v>231.3694</v>
+        <v>17660</v>
       </c>
       <c r="G15" t="n">
-        <v>3.970249999999998</v>
+        <v>3.971399999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>3.921</v>
       </c>
       <c r="C16" t="n">
-        <v>3.92</v>
+        <v>3.921</v>
       </c>
       <c r="D16" t="n">
         <v>3.921</v>
       </c>
       <c r="E16" t="n">
-        <v>3.92</v>
+        <v>3.921</v>
       </c>
       <c r="F16" t="n">
-        <v>173260.3462</v>
+        <v>231.3694</v>
       </c>
       <c r="G16" t="n">
-        <v>3.969516666666664</v>
+        <v>3.970249999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.92</v>
+        <v>3.921</v>
       </c>
       <c r="C17" t="n">
         <v>3.92</v>
       </c>
       <c r="D17" t="n">
-        <v>3.92</v>
+        <v>3.921</v>
       </c>
       <c r="E17" t="n">
         <v>3.92</v>
       </c>
       <c r="F17" t="n">
-        <v>695.9409000000001</v>
+        <v>173260.3462</v>
       </c>
       <c r="G17" t="n">
-        <v>3.968316666666664</v>
+        <v>3.969516666666664</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>3.92</v>
       </c>
       <c r="F18" t="n">
-        <v>23403</v>
+        <v>695.9409000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>3.967599999999997</v>
+        <v>3.968316666666664</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>3.92</v>
       </c>
       <c r="F19" t="n">
-        <v>117757.7853</v>
+        <v>23403</v>
       </c>
       <c r="G19" t="n">
-        <v>3.967399999999997</v>
+        <v>3.967599999999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>3.92</v>
       </c>
       <c r="F20" t="n">
-        <v>4108.7612</v>
+        <v>117757.7853</v>
       </c>
       <c r="G20" t="n">
-        <v>3.967199999999997</v>
+        <v>3.967399999999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,35 +1098,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.974</v>
+        <v>3.92</v>
       </c>
       <c r="C21" t="n">
-        <v>3.974</v>
+        <v>3.92</v>
       </c>
       <c r="D21" t="n">
-        <v>3.974</v>
+        <v>3.92</v>
       </c>
       <c r="E21" t="n">
-        <v>3.974</v>
+        <v>3.92</v>
       </c>
       <c r="F21" t="n">
-        <v>126</v>
+        <v>4108.7612</v>
       </c>
       <c r="G21" t="n">
-        <v>3.967899999999998</v>
+        <v>3.967199999999997</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.92</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1149,10 +1145,10 @@
         <v>3.974</v>
       </c>
       <c r="F22" t="n">
-        <v>2516.3564</v>
+        <v>126</v>
       </c>
       <c r="G22" t="n">
-        <v>3.968599999999997</v>
+        <v>3.967899999999998</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1161,16 +1157,12 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.974</v>
+        <v>3.92</v>
       </c>
       <c r="K22" t="n">
         <v>3.92</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1192,20 +1184,18 @@
         <v>3.974</v>
       </c>
       <c r="F23" t="n">
-        <v>52703.4066</v>
+        <v>2516.3564</v>
       </c>
       <c r="G23" t="n">
-        <v>3.969299999999997</v>
+        <v>3.968599999999997</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.974</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>3.92</v>
       </c>
@@ -1235,24 +1225,26 @@
         <v>3.974</v>
       </c>
       <c r="F24" t="n">
-        <v>31875.7765</v>
+        <v>52703.4066</v>
       </c>
       <c r="G24" t="n">
-        <v>3.969999999999998</v>
+        <v>3.969299999999997</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.974</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1274,28 +1266,20 @@
         <v>3.974</v>
       </c>
       <c r="F25" t="n">
-        <v>2516.3564</v>
+        <v>31875.7765</v>
       </c>
       <c r="G25" t="n">
-        <v>3.970699999999998</v>
+        <v>3.969999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1305,7 +1289,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.941</v>
+        <v>3.974</v>
       </c>
       <c r="C26" t="n">
         <v>3.974</v>
@@ -1314,13 +1298,13 @@
         <v>3.974</v>
       </c>
       <c r="E26" t="n">
-        <v>3.941</v>
+        <v>3.974</v>
       </c>
       <c r="F26" t="n">
-        <v>330895.5826</v>
+        <v>2516.3564</v>
       </c>
       <c r="G26" t="n">
-        <v>3.971399999999997</v>
+        <v>3.970699999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1329,14 +1313,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.974</v>
+        <v>3.941</v>
       </c>
       <c r="C27" t="n">
         <v>3.974</v>
@@ -1355,13 +1333,13 @@
         <v>3.974</v>
       </c>
       <c r="E27" t="n">
-        <v>3.974</v>
+        <v>3.941</v>
       </c>
       <c r="F27" t="n">
-        <v>52425.3501</v>
+        <v>330895.5826</v>
       </c>
       <c r="G27" t="n">
-        <v>3.972099999999998</v>
+        <v>3.971399999999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1370,14 +1348,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1399,10 +1371,10 @@
         <v>3.974</v>
       </c>
       <c r="F28" t="n">
-        <v>194174.4678</v>
+        <v>52425.3501</v>
       </c>
       <c r="G28" t="n">
-        <v>3.972799999999998</v>
+        <v>3.972099999999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1411,14 +1383,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1428,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.985</v>
+        <v>3.974</v>
       </c>
       <c r="C29" t="n">
-        <v>3.985</v>
+        <v>3.974</v>
       </c>
       <c r="D29" t="n">
-        <v>3.985</v>
+        <v>3.974</v>
       </c>
       <c r="E29" t="n">
-        <v>3.985</v>
+        <v>3.974</v>
       </c>
       <c r="F29" t="n">
-        <v>7800</v>
+        <v>194174.4678</v>
       </c>
       <c r="G29" t="n">
-        <v>3.973683333333331</v>
+        <v>3.972799999999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1452,14 +1418,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1469,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>3.985</v>
       </c>
       <c r="C30" t="n">
-        <v>4.025</v>
+        <v>3.985</v>
       </c>
       <c r="D30" t="n">
-        <v>4.025</v>
+        <v>3.985</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3.985</v>
       </c>
       <c r="F30" t="n">
-        <v>150160.6053</v>
+        <v>7800</v>
       </c>
       <c r="G30" t="n">
-        <v>3.975216666666665</v>
+        <v>3.973683333333331</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1493,14 +1453,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1510,22 +1464,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.034</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>4.034</v>
+        <v>4.025</v>
       </c>
       <c r="D31" t="n">
-        <v>4.034</v>
+        <v>4.025</v>
       </c>
       <c r="E31" t="n">
-        <v>4.034</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>164591.1476</v>
+        <v>150160.6053</v>
       </c>
       <c r="G31" t="n">
-        <v>3.976899999999998</v>
+        <v>3.975216666666665</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1534,14 +1488,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1563,10 +1511,10 @@
         <v>4.034</v>
       </c>
       <c r="F32" t="n">
-        <v>881405.0784999999</v>
+        <v>164591.1476</v>
       </c>
       <c r="G32" t="n">
-        <v>3.978583333333332</v>
+        <v>3.976899999999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1575,14 +1523,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1592,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.044</v>
+        <v>4.034</v>
       </c>
       <c r="C33" t="n">
-        <v>4.061</v>
+        <v>4.034</v>
       </c>
       <c r="D33" t="n">
-        <v>4.061</v>
+        <v>4.034</v>
       </c>
       <c r="E33" t="n">
-        <v>4.044</v>
+        <v>4.034</v>
       </c>
       <c r="F33" t="n">
-        <v>996113.411</v>
+        <v>881405.0784999999</v>
       </c>
       <c r="G33" t="n">
-        <v>3.980716666666665</v>
+        <v>3.978583333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1616,14 +1558,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1633,22 +1569,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.06</v>
+        <v>4.044</v>
       </c>
       <c r="C34" t="n">
-        <v>4.059</v>
+        <v>4.061</v>
       </c>
       <c r="D34" t="n">
-        <v>4.069</v>
+        <v>4.061</v>
       </c>
       <c r="E34" t="n">
-        <v>4.011</v>
+        <v>4.044</v>
       </c>
       <c r="F34" t="n">
-        <v>1655624.2741</v>
+        <v>996113.411</v>
       </c>
       <c r="G34" t="n">
-        <v>3.982533333333332</v>
+        <v>3.980716666666665</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1657,14 +1593,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1674,38 +1604,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C35" t="n">
         <v>4.059</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.025</v>
       </c>
       <c r="D35" t="n">
         <v>4.069</v>
       </c>
       <c r="E35" t="n">
-        <v>4.025</v>
+        <v>4.011</v>
       </c>
       <c r="F35" t="n">
-        <v>140132</v>
+        <v>1655624.2741</v>
       </c>
       <c r="G35" t="n">
-        <v>3.983349999999999</v>
+        <v>3.982533333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1715,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.06</v>
+        <v>4.059</v>
       </c>
       <c r="C36" t="n">
-        <v>4.06</v>
+        <v>4.025</v>
       </c>
       <c r="D36" t="n">
-        <v>4.06</v>
+        <v>4.069</v>
       </c>
       <c r="E36" t="n">
-        <v>4.06</v>
+        <v>4.025</v>
       </c>
       <c r="F36" t="n">
-        <v>87950</v>
+        <v>140132</v>
       </c>
       <c r="G36" t="n">
-        <v>3.984733333333332</v>
+        <v>3.983349999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1739,14 +1663,8 @@
         <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1756,38 +1674,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.059</v>
+        <v>4.06</v>
       </c>
       <c r="C37" t="n">
-        <v>4.069</v>
+        <v>4.06</v>
       </c>
       <c r="D37" t="n">
-        <v>4.069</v>
+        <v>4.06</v>
       </c>
       <c r="E37" t="n">
-        <v>4.059</v>
+        <v>4.06</v>
       </c>
       <c r="F37" t="n">
-        <v>25450</v>
+        <v>87950</v>
       </c>
       <c r="G37" t="n">
-        <v>3.986016666666665</v>
+        <v>3.984733333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1797,38 +1709,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>4.059</v>
+      </c>
+      <c r="C38" t="n">
         <v>4.069</v>
       </c>
-      <c r="C38" t="n">
-        <v>4.07</v>
-      </c>
       <c r="D38" t="n">
-        <v>4.07</v>
+        <v>4.069</v>
       </c>
       <c r="E38" t="n">
-        <v>4.069</v>
+        <v>4.059</v>
       </c>
       <c r="F38" t="n">
-        <v>118000</v>
+        <v>25450</v>
       </c>
       <c r="G38" t="n">
-        <v>3.987199999999999</v>
+        <v>3.986016666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1838,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>4.069</v>
+      </c>
+      <c r="C39" t="n">
         <v>4.07</v>
       </c>
-      <c r="C39" t="n">
-        <v>4.078</v>
-      </c>
       <c r="D39" t="n">
-        <v>4.078</v>
+        <v>4.07</v>
       </c>
       <c r="E39" t="n">
-        <v>4.07</v>
+        <v>4.069</v>
       </c>
       <c r="F39" t="n">
-        <v>55806.6596</v>
+        <v>118000</v>
       </c>
       <c r="G39" t="n">
-        <v>3.988516666666665</v>
+        <v>3.987199999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1862,14 +1768,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1879,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.078</v>
+        <v>4.07</v>
       </c>
       <c r="C40" t="n">
         <v>4.078</v>
@@ -1888,13 +1788,13 @@
         <v>4.078</v>
       </c>
       <c r="E40" t="n">
-        <v>4.078</v>
+        <v>4.07</v>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>55806.6596</v>
       </c>
       <c r="G40" t="n">
-        <v>3.990149999999999</v>
+        <v>3.988516666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1903,14 +1803,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1923,19 +1817,19 @@
         <v>4.078</v>
       </c>
       <c r="C41" t="n">
-        <v>4.083</v>
+        <v>4.078</v>
       </c>
       <c r="D41" t="n">
-        <v>4.083</v>
+        <v>4.078</v>
       </c>
       <c r="E41" t="n">
         <v>4.078</v>
       </c>
       <c r="F41" t="n">
-        <v>260718.6977</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="n">
-        <v>3.991866666666666</v>
+        <v>3.990149999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1944,14 +1838,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1961,7 +1849,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.083</v>
+        <v>4.078</v>
       </c>
       <c r="C42" t="n">
         <v>4.083</v>
@@ -1970,13 +1858,13 @@
         <v>4.083</v>
       </c>
       <c r="E42" t="n">
-        <v>4.083</v>
+        <v>4.078</v>
       </c>
       <c r="F42" t="n">
-        <v>396347.8595</v>
+        <v>260718.6977</v>
       </c>
       <c r="G42" t="n">
-        <v>3.993249999999999</v>
+        <v>3.991866666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1985,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2002,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.085</v>
+        <v>4.083</v>
       </c>
       <c r="C43" t="n">
-        <v>4.095</v>
+        <v>4.083</v>
       </c>
       <c r="D43" t="n">
-        <v>4.095</v>
+        <v>4.083</v>
       </c>
       <c r="E43" t="n">
-        <v>4.085</v>
+        <v>4.083</v>
       </c>
       <c r="F43" t="n">
-        <v>267717.1197</v>
+        <v>396347.8595</v>
       </c>
       <c r="G43" t="n">
-        <v>3.995166666666666</v>
+        <v>3.993249999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2026,14 +1908,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.099</v>
+        <v>4.085</v>
       </c>
       <c r="C44" t="n">
-        <v>4.12</v>
+        <v>4.095</v>
       </c>
       <c r="D44" t="n">
-        <v>4.12</v>
+        <v>4.095</v>
       </c>
       <c r="E44" t="n">
-        <v>4.099</v>
+        <v>4.085</v>
       </c>
       <c r="F44" t="n">
-        <v>286271.57211208</v>
+        <v>267717.1197</v>
       </c>
       <c r="G44" t="n">
-        <v>3.997516666666665</v>
+        <v>3.995166666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2067,14 +1943,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2084,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="C45" t="n">
         <v>4.12</v>
       </c>
-      <c r="C45" t="n">
-        <v>4.125</v>
-      </c>
       <c r="D45" t="n">
-        <v>4.125</v>
+        <v>4.12</v>
       </c>
       <c r="E45" t="n">
-        <v>4.12</v>
+        <v>4.099</v>
       </c>
       <c r="F45" t="n">
-        <v>35000</v>
+        <v>286271.57211208</v>
       </c>
       <c r="G45" t="n">
-        <v>3.999966666666666</v>
+        <v>3.997516666666665</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2108,14 +1978,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2125,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.125</v>
+        <v>4.12</v>
       </c>
       <c r="C46" t="n">
         <v>4.125</v>
       </c>
       <c r="D46" t="n">
-        <v>4.126</v>
+        <v>4.125</v>
       </c>
       <c r="E46" t="n">
-        <v>4.125</v>
+        <v>4.12</v>
       </c>
       <c r="F46" t="n">
-        <v>151121.74438792</v>
+        <v>35000</v>
       </c>
       <c r="G46" t="n">
-        <v>4.002049999999999</v>
+        <v>3.999966666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2149,14 +2013,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2172,34 +2030,28 @@
         <v>4.125</v>
       </c>
       <c r="D47" t="n">
-        <v>4.128</v>
+        <v>4.126</v>
       </c>
       <c r="E47" t="n">
         <v>4.125</v>
       </c>
       <c r="F47" t="n">
-        <v>177056.2762</v>
+        <v>151121.74438792</v>
       </c>
       <c r="G47" t="n">
-        <v>4.004133333333332</v>
+        <v>4.002049999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>1.032996980372421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2207,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.128</v>
+        <v>4.125</v>
       </c>
       <c r="C48" t="n">
         <v>4.125</v>
       </c>
       <c r="D48" t="n">
-        <v>4.13</v>
+        <v>4.128</v>
       </c>
       <c r="E48" t="n">
         <v>4.125</v>
       </c>
       <c r="F48" t="n">
-        <v>534611.683</v>
+        <v>177056.2762</v>
       </c>
       <c r="G48" t="n">
-        <v>4.006166666666666</v>
+        <v>4.004133333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2242,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="C49" t="n">
         <v>4.125</v>
       </c>
-      <c r="C49" t="n">
-        <v>4.095</v>
-      </c>
       <c r="D49" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E49" t="n">
         <v>4.125</v>
       </c>
-      <c r="E49" t="n">
-        <v>4.095</v>
-      </c>
       <c r="F49" t="n">
-        <v>303516.52</v>
+        <v>534611.683</v>
       </c>
       <c r="G49" t="n">
-        <v>4.007516666666666</v>
+        <v>4.006166666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2277,28 +2129,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="C50" t="n">
         <v>4.095</v>
       </c>
-      <c r="C50" t="n">
-        <v>4.093</v>
-      </c>
       <c r="D50" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="E50" t="n">
         <v>4.095</v>
       </c>
-      <c r="E50" t="n">
-        <v>4.093</v>
-      </c>
       <c r="F50" t="n">
-        <v>17814.71</v>
+        <v>303516.52</v>
       </c>
       <c r="G50" t="n">
-        <v>4.008816666666665</v>
+        <v>4.007516666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2312,28 +2164,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="C51" t="n">
         <v>4.093</v>
       </c>
-      <c r="C51" t="n">
-        <v>4.08</v>
-      </c>
       <c r="D51" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="E51" t="n">
         <v>4.093</v>
       </c>
-      <c r="E51" t="n">
-        <v>4.07</v>
-      </c>
       <c r="F51" t="n">
-        <v>425068.5407</v>
+        <v>17814.71</v>
       </c>
       <c r="G51" t="n">
-        <v>4.009649999999999</v>
+        <v>4.008816666666665</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2347,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.08</v>
+        <v>4.093</v>
       </c>
       <c r="C52" t="n">
         <v>4.08</v>
       </c>
       <c r="D52" t="n">
-        <v>4.08</v>
+        <v>4.093</v>
       </c>
       <c r="E52" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="F52" t="n">
-        <v>14665.7382</v>
+        <v>425068.5407</v>
       </c>
       <c r="G52" t="n">
-        <v>4.010733333333333</v>
+        <v>4.009649999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2382,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.075</v>
+        <v>4.08</v>
       </c>
       <c r="C53" t="n">
-        <v>4.075</v>
+        <v>4.08</v>
       </c>
       <c r="D53" t="n">
-        <v>4.075</v>
+        <v>4.08</v>
       </c>
       <c r="E53" t="n">
-        <v>4.065</v>
+        <v>4.08</v>
       </c>
       <c r="F53" t="n">
-        <v>132349.12</v>
+        <v>14665.7382</v>
       </c>
       <c r="G53" t="n">
-        <v>4.011733333333333</v>
+        <v>4.010733333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2417,10 +2269,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.065</v>
+        <v>4.075</v>
       </c>
       <c r="C54" t="n">
-        <v>4.065</v>
+        <v>4.075</v>
       </c>
       <c r="D54" t="n">
         <v>4.075</v>
@@ -2429,10 +2281,10 @@
         <v>4.065</v>
       </c>
       <c r="F54" t="n">
-        <v>7880.83</v>
+        <v>132349.12</v>
       </c>
       <c r="G54" t="n">
-        <v>4.01215</v>
+        <v>4.011733333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2458,16 +2310,16 @@
         <v>4.065</v>
       </c>
       <c r="D55" t="n">
-        <v>4.065</v>
+        <v>4.075</v>
       </c>
       <c r="E55" t="n">
         <v>4.065</v>
       </c>
       <c r="F55" t="n">
-        <v>45876.19285012</v>
+        <v>7880.83</v>
       </c>
       <c r="G55" t="n">
-        <v>4.012983333333334</v>
+        <v>4.01215</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2487,22 +2339,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.05</v>
+        <v>4.065</v>
       </c>
       <c r="C56" t="n">
-        <v>4.011</v>
+        <v>4.065</v>
       </c>
       <c r="D56" t="n">
-        <v>4.05</v>
+        <v>4.065</v>
       </c>
       <c r="E56" t="n">
-        <v>4.011</v>
+        <v>4.065</v>
       </c>
       <c r="F56" t="n">
-        <v>282169.0601</v>
+        <v>45876.19285012</v>
       </c>
       <c r="G56" t="n">
-        <v>4.012916666666666</v>
+        <v>4.012983333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2522,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.011</v>
+        <v>4.05</v>
       </c>
       <c r="C57" t="n">
         <v>4.011</v>
       </c>
       <c r="D57" t="n">
-        <v>4.011</v>
+        <v>4.05</v>
       </c>
       <c r="E57" t="n">
         <v>4.011</v>
       </c>
       <c r="F57" t="n">
-        <v>19404.4996</v>
+        <v>282169.0601</v>
       </c>
       <c r="G57" t="n">
-        <v>4.013050000000001</v>
+        <v>4.012916666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2557,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.01</v>
+        <v>4.011</v>
       </c>
       <c r="C58" t="n">
-        <v>4.01</v>
+        <v>4.011</v>
       </c>
       <c r="D58" t="n">
-        <v>4.01</v>
+        <v>4.011</v>
       </c>
       <c r="E58" t="n">
-        <v>4.01</v>
+        <v>4.011</v>
       </c>
       <c r="F58" t="n">
-        <v>2517.34</v>
+        <v>19404.4996</v>
       </c>
       <c r="G58" t="n">
-        <v>4.013166666666667</v>
+        <v>4.013050000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2592,22 +2444,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.011</v>
+        <v>4.01</v>
       </c>
       <c r="C59" t="n">
-        <v>4.011</v>
+        <v>4.01</v>
       </c>
       <c r="D59" t="n">
-        <v>4.011</v>
+        <v>4.01</v>
       </c>
       <c r="E59" t="n">
-        <v>4.011</v>
+        <v>4.01</v>
       </c>
       <c r="F59" t="n">
-        <v>57726.2442</v>
+        <v>2517.34</v>
       </c>
       <c r="G59" t="n">
-        <v>4.0133</v>
+        <v>4.013166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2639,10 +2491,10 @@
         <v>4.011</v>
       </c>
       <c r="F60" t="n">
-        <v>191329.4574</v>
+        <v>57726.2442</v>
       </c>
       <c r="G60" t="n">
-        <v>4.013433333333333</v>
+        <v>4.0133</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2662,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.01</v>
+        <v>4.011</v>
       </c>
       <c r="C61" t="n">
-        <v>4.01</v>
+        <v>4.011</v>
       </c>
       <c r="D61" t="n">
-        <v>4.01</v>
+        <v>4.011</v>
       </c>
       <c r="E61" t="n">
-        <v>4.01</v>
+        <v>4.011</v>
       </c>
       <c r="F61" t="n">
-        <v>18217.733</v>
+        <v>191329.4574</v>
       </c>
       <c r="G61" t="n">
-        <v>4.01355</v>
+        <v>4.013433333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2697,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="F62" t="n">
-        <v>54827.595</v>
+        <v>18217.733</v>
       </c>
       <c r="G62" t="n">
-        <v>4.013516666666666</v>
+        <v>4.01355</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2744,10 +2596,10 @@
         <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>774674.0736999999</v>
+        <v>54827.595</v>
       </c>
       <c r="G63" t="n">
-        <v>4.013766666666666</v>
+        <v>4.013516666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2779,10 +2631,10 @@
         <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>1500</v>
+        <v>774674.0736999999</v>
       </c>
       <c r="G64" t="n">
-        <v>4.014133333333333</v>
+        <v>4.013766666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2802,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.995</v>
+        <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>3.995</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3.995</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>3.995</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>9120.2876</v>
+        <v>1500</v>
       </c>
       <c r="G65" t="n">
-        <v>4.014699999999999</v>
+        <v>4.014133333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2837,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.994</v>
+        <v>3.995</v>
       </c>
       <c r="C66" t="n">
-        <v>4.054</v>
+        <v>3.995</v>
       </c>
       <c r="D66" t="n">
-        <v>4.054</v>
+        <v>3.995</v>
       </c>
       <c r="E66" t="n">
-        <v>3.994</v>
+        <v>3.995</v>
       </c>
       <c r="F66" t="n">
-        <v>616000</v>
+        <v>9120.2876</v>
       </c>
       <c r="G66" t="n">
-        <v>4.016583333333332</v>
+        <v>4.014699999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2872,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.03</v>
+        <v>3.994</v>
       </c>
       <c r="C67" t="n">
-        <v>4.005</v>
+        <v>4.054</v>
       </c>
       <c r="D67" t="n">
-        <v>4.03</v>
+        <v>4.054</v>
       </c>
       <c r="E67" t="n">
-        <v>4.005</v>
+        <v>3.994</v>
       </c>
       <c r="F67" t="n">
-        <v>5002</v>
+        <v>616000</v>
       </c>
       <c r="G67" t="n">
-        <v>4.017833333333332</v>
+        <v>4.016583333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2907,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.054</v>
+        <v>4.03</v>
       </c>
       <c r="C68" t="n">
-        <v>4.054</v>
+        <v>4.005</v>
       </c>
       <c r="D68" t="n">
-        <v>4.054</v>
+        <v>4.03</v>
       </c>
       <c r="E68" t="n">
-        <v>4.054</v>
+        <v>4.005</v>
       </c>
       <c r="F68" t="n">
-        <v>10000</v>
+        <v>5002</v>
       </c>
       <c r="G68" t="n">
-        <v>4.019733333333332</v>
+        <v>4.017833333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2945,19 +2797,19 @@
         <v>4.054</v>
       </c>
       <c r="C69" t="n">
-        <v>4.09</v>
+        <v>4.054</v>
       </c>
       <c r="D69" t="n">
-        <v>4.09</v>
+        <v>4.054</v>
       </c>
       <c r="E69" t="n">
         <v>4.054</v>
       </c>
       <c r="F69" t="n">
-        <v>172910.1324</v>
+        <v>10000</v>
       </c>
       <c r="G69" t="n">
-        <v>4.022399999999999</v>
+        <v>4.019733333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2977,22 +2829,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>4.054</v>
+      </c>
+      <c r="C70" t="n">
         <v>4.09</v>
       </c>
-      <c r="C70" t="n">
-        <v>4.095</v>
-      </c>
       <c r="D70" t="n">
-        <v>4.095</v>
+        <v>4.09</v>
       </c>
       <c r="E70" t="n">
-        <v>4.09</v>
+        <v>4.054</v>
       </c>
       <c r="F70" t="n">
-        <v>10000</v>
+        <v>172910.1324</v>
       </c>
       <c r="G70" t="n">
-        <v>4.025149999999999</v>
+        <v>4.022399999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3012,7 +2864,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.027</v>
+        <v>4.09</v>
       </c>
       <c r="C71" t="n">
         <v>4.095</v>
@@ -3021,13 +2873,13 @@
         <v>4.095</v>
       </c>
       <c r="E71" t="n">
-        <v>4.027</v>
+        <v>4.09</v>
       </c>
       <c r="F71" t="n">
-        <v>42437.6665</v>
+        <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>4.027899999999999</v>
+        <v>4.025149999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3047,7 +2899,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.095</v>
+        <v>4.027</v>
       </c>
       <c r="C72" t="n">
         <v>4.095</v>
@@ -3056,13 +2908,13 @@
         <v>4.095</v>
       </c>
       <c r="E72" t="n">
-        <v>4.095</v>
+        <v>4.027</v>
       </c>
       <c r="F72" t="n">
-        <v>120443.70384988</v>
+        <v>42437.6665</v>
       </c>
       <c r="G72" t="n">
-        <v>4.030583333333332</v>
+        <v>4.027899999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3082,22 +2934,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.1</v>
+        <v>4.095</v>
       </c>
       <c r="C73" t="n">
-        <v>4.1</v>
+        <v>4.095</v>
       </c>
       <c r="D73" t="n">
-        <v>4.1</v>
+        <v>4.095</v>
       </c>
       <c r="E73" t="n">
-        <v>4.1</v>
+        <v>4.095</v>
       </c>
       <c r="F73" t="n">
-        <v>2555.3124</v>
+        <v>120443.70384988</v>
       </c>
       <c r="G73" t="n">
-        <v>4.032433333333332</v>
+        <v>4.030583333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3120,19 +2972,19 @@
         <v>4.1</v>
       </c>
       <c r="C74" t="n">
-        <v>4.028</v>
+        <v>4.1</v>
       </c>
       <c r="D74" t="n">
         <v>4.1</v>
       </c>
       <c r="E74" t="n">
-        <v>4.028</v>
+        <v>4.1</v>
       </c>
       <c r="F74" t="n">
-        <v>838512.65175012</v>
+        <v>2555.3124</v>
       </c>
       <c r="G74" t="n">
-        <v>4.033333333333332</v>
+        <v>4.032433333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3152,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.028</v>
+        <v>4.1</v>
       </c>
       <c r="C75" t="n">
         <v>4.028</v>
       </c>
       <c r="D75" t="n">
-        <v>4.028</v>
+        <v>4.1</v>
       </c>
       <c r="E75" t="n">
         <v>4.028</v>
       </c>
       <c r="F75" t="n">
-        <v>5069.9507</v>
+        <v>838512.65175012</v>
       </c>
       <c r="G75" t="n">
-        <v>4.035116666666665</v>
+        <v>4.033333333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3187,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.088</v>
+        <v>4.028</v>
       </c>
       <c r="C76" t="n">
-        <v>4.038</v>
+        <v>4.028</v>
       </c>
       <c r="D76" t="n">
-        <v>4.1</v>
+        <v>4.028</v>
       </c>
       <c r="E76" t="n">
-        <v>4.038</v>
+        <v>4.028</v>
       </c>
       <c r="F76" t="n">
-        <v>192720.4297</v>
+        <v>5069.9507</v>
       </c>
       <c r="G76" t="n">
-        <v>4.037083333333332</v>
+        <v>4.035116666666665</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3222,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.09</v>
+        <v>4.088</v>
       </c>
       <c r="C77" t="n">
-        <v>4.09</v>
+        <v>4.038</v>
       </c>
       <c r="D77" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="E77" t="n">
-        <v>4.09</v>
+        <v>4.038</v>
       </c>
       <c r="F77" t="n">
-        <v>13555</v>
+        <v>192720.4297</v>
       </c>
       <c r="G77" t="n">
-        <v>4.039916666666666</v>
+        <v>4.037083333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3257,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C78" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="D78" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="E78" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="F78" t="n">
-        <v>13550</v>
+        <v>13555</v>
       </c>
       <c r="G78" t="n">
-        <v>4.042249999999999</v>
+        <v>4.039916666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3292,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="C79" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="D79" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="E79" t="n">
         <v>4.06</v>
       </c>
       <c r="F79" t="n">
-        <v>685050.97</v>
+        <v>13550</v>
       </c>
       <c r="G79" t="n">
-        <v>4.045416666666666</v>
+        <v>4.042249999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3327,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C80" t="n">
-        <v>4.07</v>
+        <v>4.11</v>
       </c>
       <c r="D80" t="n">
-        <v>4.07</v>
+        <v>4.11</v>
       </c>
       <c r="E80" t="n">
         <v>4.06</v>
       </c>
       <c r="F80" t="n">
-        <v>226924.85</v>
+        <v>685050.97</v>
       </c>
       <c r="G80" t="n">
-        <v>4.047916666666667</v>
+        <v>4.045416666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3362,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.071</v>
+        <v>4.06</v>
       </c>
       <c r="C81" t="n">
-        <v>4.072</v>
+        <v>4.07</v>
       </c>
       <c r="D81" t="n">
-        <v>4.097</v>
+        <v>4.07</v>
       </c>
       <c r="E81" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F81" t="n">
-        <v>160540</v>
+        <v>226924.85</v>
       </c>
       <c r="G81" t="n">
-        <v>4.04955</v>
+        <v>4.047916666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3397,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>4.071</v>
+      </c>
+      <c r="C82" t="n">
         <v>4.072</v>
       </c>
-      <c r="C82" t="n">
-        <v>4.098</v>
-      </c>
       <c r="D82" t="n">
-        <v>4.098</v>
+        <v>4.097</v>
       </c>
       <c r="E82" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F82" t="n">
-        <v>318765.37</v>
+        <v>160540</v>
       </c>
       <c r="G82" t="n">
-        <v>4.051616666666667</v>
+        <v>4.04955</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3432,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.12</v>
+        <v>4.072</v>
       </c>
       <c r="C83" t="n">
-        <v>4.12</v>
+        <v>4.098</v>
       </c>
       <c r="D83" t="n">
-        <v>4.12</v>
+        <v>4.098</v>
       </c>
       <c r="E83" t="n">
-        <v>4.12</v>
+        <v>4.06</v>
       </c>
       <c r="F83" t="n">
-        <v>126953.1914</v>
+        <v>318765.37</v>
       </c>
       <c r="G83" t="n">
-        <v>4.054050000000001</v>
+        <v>4.051616666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3467,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.125</v>
+        <v>4.12</v>
       </c>
       <c r="C84" t="n">
-        <v>4.115</v>
+        <v>4.12</v>
       </c>
       <c r="D84" t="n">
-        <v>4.125</v>
+        <v>4.12</v>
       </c>
       <c r="E84" t="n">
-        <v>4.115</v>
+        <v>4.12</v>
       </c>
       <c r="F84" t="n">
-        <v>103953.5841</v>
+        <v>126953.1914</v>
       </c>
       <c r="G84" t="n">
-        <v>4.056400000000001</v>
+        <v>4.054050000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3502,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.115</v>
+        <v>4.125</v>
       </c>
       <c r="C85" t="n">
         <v>4.115</v>
       </c>
       <c r="D85" t="n">
-        <v>4.115</v>
+        <v>4.125</v>
       </c>
       <c r="E85" t="n">
         <v>4.115</v>
       </c>
       <c r="F85" t="n">
-        <v>540.5925999999999</v>
+        <v>103953.5841</v>
       </c>
       <c r="G85" t="n">
-        <v>4.058750000000002</v>
+        <v>4.056400000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3537,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.125</v>
+        <v>4.115</v>
       </c>
       <c r="C86" t="n">
-        <v>4.125</v>
+        <v>4.115</v>
       </c>
       <c r="D86" t="n">
-        <v>4.125</v>
+        <v>4.115</v>
       </c>
       <c r="E86" t="n">
-        <v>4.125</v>
+        <v>4.115</v>
       </c>
       <c r="F86" t="n">
-        <v>22688.4759</v>
+        <v>540.5925999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>4.061266666666668</v>
+        <v>4.058750000000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3572,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.13</v>
+        <v>4.125</v>
       </c>
       <c r="C87" t="n">
-        <v>4.145</v>
+        <v>4.125</v>
       </c>
       <c r="D87" t="n">
-        <v>4.145</v>
+        <v>4.125</v>
       </c>
       <c r="E87" t="n">
-        <v>4.13</v>
+        <v>4.125</v>
       </c>
       <c r="F87" t="n">
-        <v>115000</v>
+        <v>22688.4759</v>
       </c>
       <c r="G87" t="n">
-        <v>4.064116666666669</v>
+        <v>4.061266666666668</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3607,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.125</v>
+        <v>4.13</v>
       </c>
       <c r="C88" t="n">
-        <v>4.125</v>
+        <v>4.145</v>
       </c>
       <c r="D88" t="n">
-        <v>4.125</v>
+        <v>4.145</v>
       </c>
       <c r="E88" t="n">
-        <v>4.125</v>
+        <v>4.13</v>
       </c>
       <c r="F88" t="n">
-        <v>11355.647</v>
+        <v>115000</v>
       </c>
       <c r="G88" t="n">
-        <v>4.066633333333336</v>
+        <v>4.064116666666669</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3642,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.115</v>
+        <v>4.125</v>
       </c>
       <c r="C89" t="n">
-        <v>4.135</v>
+        <v>4.125</v>
       </c>
       <c r="D89" t="n">
-        <v>4.135</v>
+        <v>4.125</v>
       </c>
       <c r="E89" t="n">
-        <v>4.08</v>
+        <v>4.125</v>
       </c>
       <c r="F89" t="n">
-        <v>69838.4904</v>
+        <v>11355.647</v>
       </c>
       <c r="G89" t="n">
-        <v>4.069133333333335</v>
+        <v>4.066633333333336</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3677,7 +3529,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.135</v>
+        <v>4.115</v>
       </c>
       <c r="C90" t="n">
         <v>4.135</v>
@@ -3686,13 +3538,13 @@
         <v>4.135</v>
       </c>
       <c r="E90" t="n">
-        <v>4.135</v>
+        <v>4.08</v>
       </c>
       <c r="F90" t="n">
-        <v>84059.48916904</v>
+        <v>69838.4904</v>
       </c>
       <c r="G90" t="n">
-        <v>4.070966666666668</v>
+        <v>4.069133333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3715,19 +3567,19 @@
         <v>4.135</v>
       </c>
       <c r="C91" t="n">
-        <v>4.12</v>
+        <v>4.135</v>
       </c>
       <c r="D91" t="n">
         <v>4.135</v>
       </c>
       <c r="E91" t="n">
-        <v>4.12</v>
+        <v>4.135</v>
       </c>
       <c r="F91" t="n">
-        <v>10126.9539</v>
+        <v>84059.48916904</v>
       </c>
       <c r="G91" t="n">
-        <v>4.072400000000002</v>
+        <v>4.070966666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3747,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.12</v>
+        <v>4.135</v>
       </c>
       <c r="C92" t="n">
         <v>4.12</v>
       </c>
       <c r="D92" t="n">
-        <v>4.12</v>
+        <v>4.135</v>
       </c>
       <c r="E92" t="n">
         <v>4.12</v>
       </c>
       <c r="F92" t="n">
-        <v>22688.4759</v>
+        <v>10126.9539</v>
       </c>
       <c r="G92" t="n">
-        <v>4.073833333333336</v>
+        <v>4.072400000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3782,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.1</v>
+        <v>4.12</v>
       </c>
       <c r="C93" t="n">
-        <v>4.096</v>
+        <v>4.12</v>
       </c>
       <c r="D93" t="n">
-        <v>4.1</v>
+        <v>4.12</v>
       </c>
       <c r="E93" t="n">
-        <v>4.096</v>
+        <v>4.12</v>
       </c>
       <c r="F93" t="n">
-        <v>145337.6857</v>
+        <v>22688.4759</v>
       </c>
       <c r="G93" t="n">
-        <v>4.074416666666669</v>
+        <v>4.073833333333336</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3820,19 +3672,19 @@
         <v>4.1</v>
       </c>
       <c r="C94" t="n">
-        <v>4.134</v>
+        <v>4.096</v>
       </c>
       <c r="D94" t="n">
-        <v>4.134</v>
+        <v>4.1</v>
       </c>
       <c r="E94" t="n">
-        <v>4.1</v>
+        <v>4.096</v>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>145337.6857</v>
       </c>
       <c r="G94" t="n">
-        <v>4.075666666666669</v>
+        <v>4.074416666666669</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3852,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.106</v>
+        <v>4.1</v>
       </c>
       <c r="C95" t="n">
-        <v>4.106</v>
+        <v>4.134</v>
       </c>
       <c r="D95" t="n">
-        <v>4.106</v>
+        <v>4.134</v>
       </c>
       <c r="E95" t="n">
-        <v>4.106</v>
+        <v>4.1</v>
       </c>
       <c r="F95" t="n">
-        <v>56753.1777</v>
+        <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>4.077016666666668</v>
+        <v>4.075666666666669</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3899,10 +3751,10 @@
         <v>4.106</v>
       </c>
       <c r="F96" t="n">
-        <v>54206.7523</v>
+        <v>56753.1777</v>
       </c>
       <c r="G96" t="n">
-        <v>4.077783333333334</v>
+        <v>4.077016666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3934,10 +3786,10 @@
         <v>4.106</v>
       </c>
       <c r="F97" t="n">
-        <v>460099.6455</v>
+        <v>54206.7523</v>
       </c>
       <c r="G97" t="n">
-        <v>4.078400000000001</v>
+        <v>4.077783333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3969,10 +3821,10 @@
         <v>4.106</v>
       </c>
       <c r="F98" t="n">
-        <v>41712.0959</v>
+        <v>460099.6455</v>
       </c>
       <c r="G98" t="n">
-        <v>4.079000000000002</v>
+        <v>4.078400000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3992,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.107</v>
+        <v>4.106</v>
       </c>
       <c r="C99" t="n">
         <v>4.106</v>
       </c>
       <c r="D99" t="n">
-        <v>4.107</v>
+        <v>4.106</v>
       </c>
       <c r="E99" t="n">
         <v>4.106</v>
       </c>
       <c r="F99" t="n">
-        <v>39626.4911</v>
+        <v>41712.0959</v>
       </c>
       <c r="G99" t="n">
-        <v>4.079466666666668</v>
+        <v>4.079000000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4027,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.106</v>
+        <v>4.107</v>
       </c>
       <c r="C100" t="n">
         <v>4.106</v>
       </c>
       <c r="D100" t="n">
-        <v>4.106</v>
+        <v>4.107</v>
       </c>
       <c r="E100" t="n">
         <v>4.106</v>
       </c>
       <c r="F100" t="n">
-        <v>41453.554</v>
+        <v>39626.4911</v>
       </c>
       <c r="G100" t="n">
-        <v>4.079933333333335</v>
+        <v>4.079466666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4074,10 +3926,10 @@
         <v>4.106</v>
       </c>
       <c r="F101" t="n">
-        <v>25938.7564</v>
+        <v>41453.554</v>
       </c>
       <c r="G101" t="n">
-        <v>4.080316666666667</v>
+        <v>4.079933333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4109,10 +3961,10 @@
         <v>4.106</v>
       </c>
       <c r="F102" t="n">
-        <v>13635.57</v>
+        <v>25938.7564</v>
       </c>
       <c r="G102" t="n">
-        <v>4.080700000000001</v>
+        <v>4.080316666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4132,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.108</v>
+        <v>4.106</v>
       </c>
       <c r="C103" t="n">
-        <v>4.108</v>
+        <v>4.106</v>
       </c>
       <c r="D103" t="n">
-        <v>4.108</v>
+        <v>4.106</v>
       </c>
       <c r="E103" t="n">
-        <v>4.108</v>
+        <v>4.106</v>
       </c>
       <c r="F103" t="n">
-        <v>8585.1996</v>
+        <v>13635.57</v>
       </c>
       <c r="G103" t="n">
-        <v>4.080916666666668</v>
+        <v>4.080700000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4179,10 +4031,10 @@
         <v>4.108</v>
       </c>
       <c r="F104" t="n">
-        <v>2836.7608</v>
+        <v>8585.1996</v>
       </c>
       <c r="G104" t="n">
-        <v>4.080716666666668</v>
+        <v>4.080916666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4202,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.119</v>
+        <v>4.108</v>
       </c>
       <c r="C105" t="n">
-        <v>4.14</v>
+        <v>4.108</v>
       </c>
       <c r="D105" t="n">
-        <v>4.14</v>
+        <v>4.108</v>
       </c>
       <c r="E105" t="n">
-        <v>4.119</v>
+        <v>4.108</v>
       </c>
       <c r="F105" t="n">
-        <v>138743.243</v>
+        <v>2836.7608</v>
       </c>
       <c r="G105" t="n">
-        <v>4.080966666666668</v>
+        <v>4.080716666666668</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4237,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.145</v>
+        <v>4.119</v>
       </c>
       <c r="C106" t="n">
-        <v>4.151</v>
+        <v>4.14</v>
       </c>
       <c r="D106" t="n">
-        <v>4.151</v>
+        <v>4.14</v>
       </c>
       <c r="E106" t="n">
-        <v>4.145</v>
+        <v>4.119</v>
       </c>
       <c r="F106" t="n">
-        <v>213626.5679</v>
+        <v>138743.243</v>
       </c>
       <c r="G106" t="n">
-        <v>4.081400000000001</v>
+        <v>4.080966666666668</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4272,7 +4124,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.151</v>
+        <v>4.145</v>
       </c>
       <c r="C107" t="n">
         <v>4.151</v>
@@ -4281,13 +4133,13 @@
         <v>4.151</v>
       </c>
       <c r="E107" t="n">
-        <v>4.151</v>
+        <v>4.145</v>
       </c>
       <c r="F107" t="n">
-        <v>720.30835943</v>
+        <v>213626.5679</v>
       </c>
       <c r="G107" t="n">
-        <v>4.081833333333335</v>
+        <v>4.081400000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4310,19 +4162,19 @@
         <v>4.151</v>
       </c>
       <c r="C108" t="n">
-        <v>4.17</v>
+        <v>4.151</v>
       </c>
       <c r="D108" t="n">
-        <v>4.17</v>
+        <v>4.151</v>
       </c>
       <c r="E108" t="n">
         <v>4.151</v>
       </c>
       <c r="F108" t="n">
-        <v>158851.81854057</v>
+        <v>720.30835943</v>
       </c>
       <c r="G108" t="n">
-        <v>4.082583333333335</v>
+        <v>4.081833333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4342,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>4.151</v>
+      </c>
+      <c r="C109" t="n">
         <v>4.17</v>
       </c>
-      <c r="C109" t="n">
-        <v>4.175</v>
-      </c>
       <c r="D109" t="n">
-        <v>4.175</v>
+        <v>4.17</v>
       </c>
       <c r="E109" t="n">
-        <v>4.17</v>
+        <v>4.151</v>
       </c>
       <c r="F109" t="n">
-        <v>47212.1727</v>
+        <v>158851.81854057</v>
       </c>
       <c r="G109" t="n">
-        <v>4.083916666666668</v>
+        <v>4.082583333333335</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4377,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C110" t="n">
         <v>4.175</v>
       </c>
-      <c r="C110" t="n">
-        <v>4.18</v>
-      </c>
       <c r="D110" t="n">
-        <v>4.18</v>
+        <v>4.175</v>
       </c>
       <c r="E110" t="n">
-        <v>4.175</v>
+        <v>4.17</v>
       </c>
       <c r="F110" t="n">
-        <v>54790.419</v>
+        <v>47212.1727</v>
       </c>
       <c r="G110" t="n">
-        <v>4.085366666666668</v>
+        <v>4.083916666666668</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4412,7 +4264,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.18</v>
+        <v>4.175</v>
       </c>
       <c r="C111" t="n">
         <v>4.18</v>
@@ -4421,13 +4273,13 @@
         <v>4.18</v>
       </c>
       <c r="E111" t="n">
-        <v>4.18</v>
+        <v>4.175</v>
       </c>
       <c r="F111" t="n">
-        <v>5000</v>
+        <v>54790.419</v>
       </c>
       <c r="G111" t="n">
-        <v>4.087033333333335</v>
+        <v>4.085366666666668</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4459,10 +4311,10 @@
         <v>4.18</v>
       </c>
       <c r="F112" t="n">
-        <v>8946</v>
+        <v>5000</v>
       </c>
       <c r="G112" t="n">
-        <v>4.088700000000001</v>
+        <v>4.087033333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4485,19 +4337,19 @@
         <v>4.18</v>
       </c>
       <c r="C113" t="n">
-        <v>4.182</v>
+        <v>4.18</v>
       </c>
       <c r="D113" t="n">
-        <v>4.182</v>
+        <v>4.18</v>
       </c>
       <c r="E113" t="n">
         <v>4.18</v>
       </c>
       <c r="F113" t="n">
-        <v>14703</v>
+        <v>8946</v>
       </c>
       <c r="G113" t="n">
-        <v>4.090483333333335</v>
+        <v>4.088700000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4517,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.178</v>
+        <v>4.18</v>
       </c>
       <c r="C114" t="n">
-        <v>4.205</v>
+        <v>4.182</v>
       </c>
       <c r="D114" t="n">
-        <v>4.205</v>
+        <v>4.182</v>
       </c>
       <c r="E114" t="n">
-        <v>4.178</v>
+        <v>4.18</v>
       </c>
       <c r="F114" t="n">
-        <v>388588.2511</v>
+        <v>14703</v>
       </c>
       <c r="G114" t="n">
-        <v>4.092816666666669</v>
+        <v>4.090483333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4552,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.195</v>
+        <v>4.178</v>
       </c>
       <c r="C115" t="n">
-        <v>4.195</v>
+        <v>4.205</v>
       </c>
       <c r="D115" t="n">
-        <v>4.195</v>
+        <v>4.205</v>
       </c>
       <c r="E115" t="n">
-        <v>4.195</v>
+        <v>4.178</v>
       </c>
       <c r="F115" t="n">
-        <v>47038.9971</v>
+        <v>388588.2511</v>
       </c>
       <c r="G115" t="n">
-        <v>4.094983333333335</v>
+        <v>4.092816666666669</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4590,19 +4442,19 @@
         <v>4.195</v>
       </c>
       <c r="C116" t="n">
-        <v>4.21</v>
+        <v>4.195</v>
       </c>
       <c r="D116" t="n">
-        <v>4.21</v>
+        <v>4.195</v>
       </c>
       <c r="E116" t="n">
         <v>4.195</v>
       </c>
       <c r="F116" t="n">
-        <v>163579.3796</v>
+        <v>47038.9971</v>
       </c>
       <c r="G116" t="n">
-        <v>4.098300000000002</v>
+        <v>4.094983333333335</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4622,7 +4474,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.21</v>
+        <v>4.195</v>
       </c>
       <c r="C117" t="n">
         <v>4.21</v>
@@ -4631,13 +4483,13 @@
         <v>4.21</v>
       </c>
       <c r="E117" t="n">
-        <v>4.21</v>
+        <v>4.195</v>
       </c>
       <c r="F117" t="n">
-        <v>71395.2248</v>
+        <v>163579.3796</v>
       </c>
       <c r="G117" t="n">
-        <v>4.101616666666668</v>
+        <v>4.098300000000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4660,19 +4512,19 @@
         <v>4.21</v>
       </c>
       <c r="C118" t="n">
-        <v>4.222</v>
+        <v>4.21</v>
       </c>
       <c r="D118" t="n">
-        <v>4.222</v>
+        <v>4.21</v>
       </c>
       <c r="E118" t="n">
         <v>4.21</v>
       </c>
       <c r="F118" t="n">
-        <v>85560</v>
+        <v>71395.2248</v>
       </c>
       <c r="G118" t="n">
-        <v>4.105150000000003</v>
+        <v>4.101616666666668</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4692,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.192</v>
+        <v>4.21</v>
       </c>
       <c r="C119" t="n">
-        <v>4.192</v>
+        <v>4.222</v>
       </c>
       <c r="D119" t="n">
-        <v>4.192</v>
+        <v>4.222</v>
       </c>
       <c r="E119" t="n">
-        <v>4.192</v>
+        <v>4.21</v>
       </c>
       <c r="F119" t="n">
-        <v>120.366</v>
+        <v>85560</v>
       </c>
       <c r="G119" t="n">
-        <v>4.108166666666669</v>
+        <v>4.105150000000003</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4727,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.215</v>
+        <v>4.192</v>
       </c>
       <c r="C120" t="n">
-        <v>4.215</v>
+        <v>4.192</v>
       </c>
       <c r="D120" t="n">
-        <v>4.215</v>
+        <v>4.192</v>
       </c>
       <c r="E120" t="n">
-        <v>4.215</v>
+        <v>4.192</v>
       </c>
       <c r="F120" t="n">
-        <v>1503.7187</v>
+        <v>120.366</v>
       </c>
       <c r="G120" t="n">
-        <v>4.111566666666669</v>
+        <v>4.108166666666669</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4762,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.195</v>
+        <v>4.215</v>
       </c>
       <c r="C121" t="n">
-        <v>4.195</v>
+        <v>4.215</v>
       </c>
       <c r="D121" t="n">
-        <v>4.195</v>
+        <v>4.215</v>
       </c>
       <c r="E121" t="n">
-        <v>4.195</v>
+        <v>4.215</v>
       </c>
       <c r="F121" t="n">
-        <v>38849.0554</v>
+        <v>1503.7187</v>
       </c>
       <c r="G121" t="n">
-        <v>4.114650000000003</v>
+        <v>4.111566666666669</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4797,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.176</v>
+        <v>4.195</v>
       </c>
       <c r="C122" t="n">
-        <v>4.175</v>
+        <v>4.195</v>
       </c>
       <c r="D122" t="n">
-        <v>4.176</v>
+        <v>4.195</v>
       </c>
       <c r="E122" t="n">
-        <v>4.175</v>
+        <v>4.195</v>
       </c>
       <c r="F122" t="n">
-        <v>250000</v>
+        <v>38849.0554</v>
       </c>
       <c r="G122" t="n">
-        <v>4.117566666666669</v>
+        <v>4.114650000000003</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4832,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.175</v>
+        <v>4.176</v>
       </c>
       <c r="C123" t="n">
         <v>4.175</v>
       </c>
       <c r="D123" t="n">
-        <v>4.175</v>
+        <v>4.176</v>
       </c>
       <c r="E123" t="n">
         <v>4.175</v>
       </c>
       <c r="F123" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="G123" t="n">
-        <v>4.120483333333336</v>
+        <v>4.117566666666669</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4867,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.2</v>
+        <v>4.175</v>
       </c>
       <c r="C124" t="n">
-        <v>4.2</v>
+        <v>4.175</v>
       </c>
       <c r="D124" t="n">
-        <v>4.2</v>
+        <v>4.175</v>
       </c>
       <c r="E124" t="n">
-        <v>4.2</v>
+        <v>4.175</v>
       </c>
       <c r="F124" t="n">
-        <v>8285.230799999999</v>
+        <v>270000</v>
       </c>
       <c r="G124" t="n">
-        <v>4.123816666666669</v>
+        <v>4.120483333333336</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4902,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.185</v>
+        <v>4.2</v>
       </c>
       <c r="C125" t="n">
-        <v>4.185</v>
+        <v>4.2</v>
       </c>
       <c r="D125" t="n">
-        <v>4.185</v>
+        <v>4.2</v>
       </c>
       <c r="E125" t="n">
-        <v>4.185</v>
+        <v>4.2</v>
       </c>
       <c r="F125" t="n">
-        <v>5000</v>
+        <v>8285.230799999999</v>
       </c>
       <c r="G125" t="n">
-        <v>4.126983333333336</v>
+        <v>4.123816666666669</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4937,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.171</v>
+        <v>4.185</v>
       </c>
       <c r="C126" t="n">
-        <v>4.16</v>
+        <v>4.185</v>
       </c>
       <c r="D126" t="n">
-        <v>4.171</v>
+        <v>4.185</v>
       </c>
       <c r="E126" t="n">
-        <v>4.16</v>
+        <v>4.185</v>
       </c>
       <c r="F126" t="n">
-        <v>155000</v>
+        <v>5000</v>
       </c>
       <c r="G126" t="n">
-        <v>4.128750000000003</v>
+        <v>4.126983333333336</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4972,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.15</v>
+        <v>4.171</v>
       </c>
       <c r="C127" t="n">
-        <v>4.15</v>
+        <v>4.16</v>
       </c>
       <c r="D127" t="n">
-        <v>4.15</v>
+        <v>4.171</v>
       </c>
       <c r="E127" t="n">
-        <v>4.15</v>
+        <v>4.16</v>
       </c>
       <c r="F127" t="n">
-        <v>9491.094999999999</v>
+        <v>155000</v>
       </c>
       <c r="G127" t="n">
-        <v>4.13116666666667</v>
+        <v>4.128750000000003</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5019,10 +4871,10 @@
         <v>4.15</v>
       </c>
       <c r="F128" t="n">
-        <v>3877.804</v>
+        <v>9491.094999999999</v>
       </c>
       <c r="G128" t="n">
-        <v>4.13276666666667</v>
+        <v>4.13116666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5054,10 +4906,10 @@
         <v>4.15</v>
       </c>
       <c r="F129" t="n">
-        <v>304.3738</v>
+        <v>3877.804</v>
       </c>
       <c r="G129" t="n">
-        <v>4.13376666666667</v>
+        <v>4.13276666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5089,10 +4941,10 @@
         <v>4.15</v>
       </c>
       <c r="F130" t="n">
-        <v>506.4118</v>
+        <v>304.3738</v>
       </c>
       <c r="G130" t="n">
-        <v>4.134683333333337</v>
+        <v>4.13376666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5112,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.135</v>
+        <v>4.15</v>
       </c>
       <c r="C131" t="n">
-        <v>4.135</v>
+        <v>4.15</v>
       </c>
       <c r="D131" t="n">
-        <v>4.135</v>
+        <v>4.15</v>
       </c>
       <c r="E131" t="n">
-        <v>4.135</v>
+        <v>4.15</v>
       </c>
       <c r="F131" t="n">
-        <v>57359</v>
+        <v>506.4118</v>
       </c>
       <c r="G131" t="n">
-        <v>4.135350000000003</v>
+        <v>4.134683333333337</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5147,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.159</v>
+        <v>4.135</v>
       </c>
       <c r="C132" t="n">
-        <v>4.159</v>
+        <v>4.135</v>
       </c>
       <c r="D132" t="n">
-        <v>4.169</v>
+        <v>4.135</v>
       </c>
       <c r="E132" t="n">
-        <v>4.125</v>
+        <v>4.135</v>
       </c>
       <c r="F132" t="n">
-        <v>251226.5009</v>
+        <v>57359</v>
       </c>
       <c r="G132" t="n">
-        <v>4.13641666666667</v>
+        <v>4.135350000000003</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5182,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.169</v>
+        <v>4.159</v>
       </c>
       <c r="C133" t="n">
-        <v>4.169</v>
+        <v>4.159</v>
       </c>
       <c r="D133" t="n">
         <v>4.169</v>
       </c>
       <c r="E133" t="n">
-        <v>4.169</v>
+        <v>4.125</v>
       </c>
       <c r="F133" t="n">
-        <v>19660.5085</v>
+        <v>251226.5009</v>
       </c>
       <c r="G133" t="n">
-        <v>4.13756666666667</v>
+        <v>4.13641666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5217,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.141</v>
+        <v>4.169</v>
       </c>
       <c r="C134" t="n">
-        <v>4.141</v>
+        <v>4.169</v>
       </c>
       <c r="D134" t="n">
-        <v>4.141</v>
+        <v>4.169</v>
       </c>
       <c r="E134" t="n">
-        <v>4.141</v>
+        <v>4.169</v>
       </c>
       <c r="F134" t="n">
-        <v>3776</v>
+        <v>19660.5085</v>
       </c>
       <c r="G134" t="n">
-        <v>4.139450000000003</v>
+        <v>4.13756666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5255,19 +5107,19 @@
         <v>4.141</v>
       </c>
       <c r="C135" t="n">
-        <v>4.169</v>
+        <v>4.141</v>
       </c>
       <c r="D135" t="n">
-        <v>4.169</v>
+        <v>4.141</v>
       </c>
       <c r="E135" t="n">
         <v>4.141</v>
       </c>
       <c r="F135" t="n">
-        <v>35187.7988</v>
+        <v>3776</v>
       </c>
       <c r="G135" t="n">
-        <v>4.141800000000003</v>
+        <v>4.139450000000003</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5287,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.14</v>
+        <v>4.141</v>
       </c>
       <c r="C136" t="n">
-        <v>4.14</v>
+        <v>4.169</v>
       </c>
       <c r="D136" t="n">
-        <v>4.14</v>
+        <v>4.169</v>
       </c>
       <c r="E136" t="n">
-        <v>4.14</v>
+        <v>4.141</v>
       </c>
       <c r="F136" t="n">
-        <v>126034.189</v>
+        <v>35187.7988</v>
       </c>
       <c r="G136" t="n">
-        <v>4.143500000000003</v>
+        <v>4.141800000000003</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5322,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.169</v>
+        <v>4.14</v>
       </c>
       <c r="C137" t="n">
-        <v>4.169</v>
+        <v>4.14</v>
       </c>
       <c r="D137" t="n">
-        <v>4.169</v>
+        <v>4.14</v>
       </c>
       <c r="E137" t="n">
-        <v>4.159</v>
+        <v>4.14</v>
       </c>
       <c r="F137" t="n">
-        <v>60967.5327</v>
+        <v>126034.189</v>
       </c>
       <c r="G137" t="n">
-        <v>4.14481666666667</v>
+        <v>4.143500000000003</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5366,13 +5218,13 @@
         <v>4.169</v>
       </c>
       <c r="E138" t="n">
-        <v>4.169</v>
+        <v>4.159</v>
       </c>
       <c r="F138" t="n">
-        <v>10025.7138</v>
+        <v>60967.5327</v>
       </c>
       <c r="G138" t="n">
-        <v>4.146633333333337</v>
+        <v>4.14481666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5404,10 +5256,10 @@
         <v>4.169</v>
       </c>
       <c r="F139" t="n">
-        <v>1000</v>
+        <v>10025.7138</v>
       </c>
       <c r="G139" t="n">
-        <v>4.14761666666667</v>
+        <v>4.146633333333337</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5427,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.159</v>
+        <v>4.169</v>
       </c>
       <c r="C140" t="n">
-        <v>4.159</v>
+        <v>4.169</v>
       </c>
       <c r="D140" t="n">
-        <v>4.159</v>
+        <v>4.169</v>
       </c>
       <c r="E140" t="n">
-        <v>4.159</v>
+        <v>4.169</v>
       </c>
       <c r="F140" t="n">
-        <v>143565.4328</v>
+        <v>1000</v>
       </c>
       <c r="G140" t="n">
-        <v>4.149100000000003</v>
+        <v>4.14761666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5462,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.169</v>
+        <v>4.159</v>
       </c>
       <c r="C141" t="n">
-        <v>4.169</v>
+        <v>4.159</v>
       </c>
       <c r="D141" t="n">
-        <v>4.169</v>
+        <v>4.159</v>
       </c>
       <c r="E141" t="n">
-        <v>4.169</v>
+        <v>4.159</v>
       </c>
       <c r="F141" t="n">
-        <v>637.9804</v>
+        <v>143565.4328</v>
       </c>
       <c r="G141" t="n">
-        <v>4.15071666666667</v>
+        <v>4.149100000000003</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5509,10 +5361,10 @@
         <v>4.169</v>
       </c>
       <c r="F142" t="n">
-        <v>184549.05253058</v>
+        <v>637.9804</v>
       </c>
       <c r="G142" t="n">
-        <v>4.151900000000003</v>
+        <v>4.15071666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5532,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.17</v>
+        <v>4.169</v>
       </c>
       <c r="C143" t="n">
-        <v>4.18</v>
+        <v>4.169</v>
       </c>
       <c r="D143" t="n">
-        <v>4.18</v>
+        <v>4.169</v>
       </c>
       <c r="E143" t="n">
-        <v>4.17</v>
+        <v>4.169</v>
       </c>
       <c r="F143" t="n">
-        <v>2485.2648</v>
+        <v>184549.05253058</v>
       </c>
       <c r="G143" t="n">
-        <v>4.152900000000003</v>
+        <v>4.151900000000003</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5570,19 +5422,19 @@
         <v>4.17</v>
       </c>
       <c r="C144" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="D144" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="E144" t="n">
         <v>4.17</v>
       </c>
       <c r="F144" t="n">
-        <v>1370</v>
+        <v>2485.2648</v>
       </c>
       <c r="G144" t="n">
-        <v>4.153816666666669</v>
+        <v>4.152900000000003</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5602,22 +5454,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.159</v>
+        <v>4.17</v>
       </c>
       <c r="C145" t="n">
-        <v>4.159</v>
+        <v>4.17</v>
       </c>
       <c r="D145" t="n">
-        <v>4.159</v>
+        <v>4.17</v>
       </c>
       <c r="E145" t="n">
-        <v>4.159</v>
+        <v>4.17</v>
       </c>
       <c r="F145" t="n">
-        <v>10666.0931</v>
+        <v>1370</v>
       </c>
       <c r="G145" t="n">
-        <v>4.154550000000003</v>
+        <v>4.153816666666669</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5637,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.135</v>
+        <v>4.159</v>
       </c>
       <c r="C146" t="n">
-        <v>4.135</v>
+        <v>4.159</v>
       </c>
       <c r="D146" t="n">
-        <v>4.135</v>
+        <v>4.159</v>
       </c>
       <c r="E146" t="n">
-        <v>4.135</v>
+        <v>4.159</v>
       </c>
       <c r="F146" t="n">
-        <v>28402</v>
+        <v>10666.0931</v>
       </c>
       <c r="G146" t="n">
-        <v>4.154716666666669</v>
+        <v>4.154550000000003</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5672,19 +5524,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.145</v>
+        <v>4.135</v>
       </c>
       <c r="C147" t="n">
-        <v>4.145</v>
+        <v>4.135</v>
       </c>
       <c r="D147" t="n">
-        <v>4.145</v>
+        <v>4.135</v>
       </c>
       <c r="E147" t="n">
-        <v>4.145</v>
+        <v>4.135</v>
       </c>
       <c r="F147" t="n">
-        <v>187009.5905</v>
+        <v>28402</v>
       </c>
       <c r="G147" t="n">
         <v>4.154716666666669</v>
@@ -5710,19 +5562,19 @@
         <v>4.145</v>
       </c>
       <c r="C148" t="n">
-        <v>4.135</v>
+        <v>4.145</v>
       </c>
       <c r="D148" t="n">
         <v>4.145</v>
       </c>
       <c r="E148" t="n">
-        <v>4.135</v>
+        <v>4.145</v>
       </c>
       <c r="F148" t="n">
-        <v>220439</v>
+        <v>187009.5905</v>
       </c>
       <c r="G148" t="n">
-        <v>4.154883333333336</v>
+        <v>4.154716666666669</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5742,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>4.145</v>
+      </c>
+      <c r="C149" t="n">
         <v>4.135</v>
       </c>
-      <c r="C149" t="n">
-        <v>4.1</v>
-      </c>
       <c r="D149" t="n">
+        <v>4.145</v>
+      </c>
+      <c r="E149" t="n">
         <v>4.135</v>
       </c>
-      <c r="E149" t="n">
-        <v>4.1</v>
-      </c>
       <c r="F149" t="n">
-        <v>128706</v>
+        <v>220439</v>
       </c>
       <c r="G149" t="n">
-        <v>4.154300000000003</v>
+        <v>4.154883333333336</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5777,22 +5629,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.1</v>
+        <v>4.135</v>
       </c>
       <c r="C150" t="n">
         <v>4.1</v>
       </c>
       <c r="D150" t="n">
+        <v>4.135</v>
+      </c>
+      <c r="E150" t="n">
         <v>4.1</v>
       </c>
-      <c r="E150" t="n">
-        <v>4.09</v>
-      </c>
       <c r="F150" t="n">
-        <v>80496</v>
+        <v>128706</v>
       </c>
       <c r="G150" t="n">
-        <v>4.15371666666667</v>
+        <v>4.154300000000003</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5821,13 +5673,13 @@
         <v>4.1</v>
       </c>
       <c r="E151" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="F151" t="n">
-        <v>120640.2297</v>
+        <v>80496</v>
       </c>
       <c r="G151" t="n">
-        <v>4.153383333333336</v>
+        <v>4.15371666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5847,22 +5699,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.14</v>
+        <v>4.1</v>
       </c>
       <c r="C152" t="n">
-        <v>4.14</v>
+        <v>4.1</v>
       </c>
       <c r="D152" t="n">
-        <v>4.14</v>
+        <v>4.1</v>
       </c>
       <c r="E152" t="n">
-        <v>4.14</v>
+        <v>4.1</v>
       </c>
       <c r="F152" t="n">
-        <v>1855.3264</v>
+        <v>120640.2297</v>
       </c>
       <c r="G152" t="n">
-        <v>4.153716666666669</v>
+        <v>4.153383333333336</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5894,10 +5746,10 @@
         <v>4.14</v>
       </c>
       <c r="F153" t="n">
-        <v>68676</v>
+        <v>1855.3264</v>
       </c>
       <c r="G153" t="n">
-        <v>4.154450000000002</v>
+        <v>4.153716666666669</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5929,10 +5781,10 @@
         <v>4.14</v>
       </c>
       <c r="F154" t="n">
-        <v>78264.99460000001</v>
+        <v>68676</v>
       </c>
       <c r="G154" t="n">
-        <v>4.154550000000001</v>
+        <v>4.154450000000002</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5955,19 +5807,19 @@
         <v>4.14</v>
       </c>
       <c r="C155" t="n">
-        <v>4.105</v>
+        <v>4.14</v>
       </c>
       <c r="D155" t="n">
         <v>4.14</v>
       </c>
       <c r="E155" t="n">
-        <v>4.105</v>
+        <v>4.14</v>
       </c>
       <c r="F155" t="n">
-        <v>1000</v>
+        <v>78264.99460000001</v>
       </c>
       <c r="G155" t="n">
-        <v>4.154533333333335</v>
+        <v>4.154550000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5987,22 +5839,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.105</v>
+        <v>4.14</v>
       </c>
       <c r="C156" t="n">
         <v>4.105</v>
       </c>
       <c r="D156" t="n">
-        <v>4.105</v>
+        <v>4.14</v>
       </c>
       <c r="E156" t="n">
         <v>4.105</v>
       </c>
       <c r="F156" t="n">
-        <v>25644.6107</v>
+        <v>1000</v>
       </c>
       <c r="G156" t="n">
-        <v>4.154516666666668</v>
+        <v>4.154533333333335</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6022,22 +5874,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.1</v>
+        <v>4.105</v>
       </c>
       <c r="C157" t="n">
-        <v>4.1</v>
+        <v>4.105</v>
       </c>
       <c r="D157" t="n">
-        <v>4.1</v>
+        <v>4.105</v>
       </c>
       <c r="E157" t="n">
-        <v>4.1</v>
+        <v>4.105</v>
       </c>
       <c r="F157" t="n">
-        <v>37136.7805</v>
+        <v>25644.6107</v>
       </c>
       <c r="G157" t="n">
-        <v>4.154416666666668</v>
+        <v>4.154516666666668</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6069,10 +5921,10 @@
         <v>4.1</v>
       </c>
       <c r="F158" t="n">
-        <v>67850.7659</v>
+        <v>37136.7805</v>
       </c>
       <c r="G158" t="n">
-        <v>4.154316666666668</v>
+        <v>4.154416666666668</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6092,22 +5944,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.053</v>
+        <v>4.1</v>
       </c>
       <c r="C159" t="n">
-        <v>4.024</v>
+        <v>4.1</v>
       </c>
       <c r="D159" t="n">
-        <v>4.053</v>
+        <v>4.1</v>
       </c>
       <c r="E159" t="n">
-        <v>4.024</v>
+        <v>4.1</v>
       </c>
       <c r="F159" t="n">
-        <v>157241.2734</v>
+        <v>67850.7659</v>
       </c>
       <c r="G159" t="n">
-        <v>4.152950000000001</v>
+        <v>4.154316666666668</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6127,22 +5979,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.041</v>
+        <v>4.053</v>
       </c>
       <c r="C160" t="n">
-        <v>4.109</v>
+        <v>4.024</v>
       </c>
       <c r="D160" t="n">
-        <v>4.11</v>
+        <v>4.053</v>
       </c>
       <c r="E160" t="n">
-        <v>4.04</v>
+        <v>4.024</v>
       </c>
       <c r="F160" t="n">
-        <v>1301282.5034</v>
+        <v>157241.2734</v>
       </c>
       <c r="G160" t="n">
-        <v>4.153000000000001</v>
+        <v>4.152950000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6162,22 +6014,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.046</v>
+        <v>4.041</v>
       </c>
       <c r="C161" t="n">
-        <v>4.046</v>
+        <v>4.109</v>
       </c>
       <c r="D161" t="n">
-        <v>4.046</v>
+        <v>4.11</v>
       </c>
       <c r="E161" t="n">
-        <v>4.046</v>
+        <v>4.04</v>
       </c>
       <c r="F161" t="n">
-        <v>963345.7201</v>
+        <v>1301282.5034</v>
       </c>
       <c r="G161" t="n">
-        <v>4.152000000000002</v>
+        <v>4.153000000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6197,22 +6049,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.104</v>
+        <v>4.046</v>
       </c>
       <c r="C162" t="n">
-        <v>4.042</v>
+        <v>4.046</v>
       </c>
       <c r="D162" t="n">
-        <v>4.104</v>
+        <v>4.046</v>
       </c>
       <c r="E162" t="n">
-        <v>4.042</v>
+        <v>4.046</v>
       </c>
       <c r="F162" t="n">
-        <v>101579.7179</v>
+        <v>963345.7201</v>
       </c>
       <c r="G162" t="n">
-        <v>4.150933333333335</v>
+        <v>4.152000000000002</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6232,22 +6084,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="C163" t="n">
         <v>4.042</v>
       </c>
-      <c r="C163" t="n">
-        <v>4.037</v>
-      </c>
       <c r="D163" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="E163" t="n">
         <v>4.042</v>
       </c>
-      <c r="E163" t="n">
-        <v>4.037</v>
-      </c>
       <c r="F163" t="n">
-        <v>135297.0169</v>
+        <v>101579.7179</v>
       </c>
       <c r="G163" t="n">
-        <v>4.149750000000002</v>
+        <v>4.150933333333335</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6267,22 +6119,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.104</v>
+        <v>4.042</v>
       </c>
       <c r="C164" t="n">
-        <v>4.104</v>
+        <v>4.037</v>
       </c>
       <c r="D164" t="n">
-        <v>4.104</v>
+        <v>4.042</v>
       </c>
       <c r="E164" t="n">
-        <v>4.104</v>
+        <v>4.037</v>
       </c>
       <c r="F164" t="n">
-        <v>2500</v>
+        <v>135297.0169</v>
       </c>
       <c r="G164" t="n">
-        <v>4.149683333333335</v>
+        <v>4.149750000000002</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6302,22 +6154,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.087</v>
+        <v>4.104</v>
       </c>
       <c r="C165" t="n">
-        <v>4.087</v>
+        <v>4.104</v>
       </c>
       <c r="D165" t="n">
-        <v>4.087</v>
+        <v>4.104</v>
       </c>
       <c r="E165" t="n">
-        <v>4.087</v>
+        <v>4.104</v>
       </c>
       <c r="F165" t="n">
-        <v>123526.686</v>
+        <v>2500</v>
       </c>
       <c r="G165" t="n">
-        <v>4.148800000000002</v>
+        <v>4.149683333333335</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6337,22 +6189,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.055</v>
+        <v>4.087</v>
       </c>
       <c r="C166" t="n">
-        <v>4.013</v>
+        <v>4.087</v>
       </c>
       <c r="D166" t="n">
-        <v>4.055</v>
+        <v>4.087</v>
       </c>
       <c r="E166" t="n">
-        <v>4.013</v>
+        <v>4.087</v>
       </c>
       <c r="F166" t="n">
-        <v>191329.4574</v>
+        <v>123526.686</v>
       </c>
       <c r="G166" t="n">
-        <v>4.146500000000001</v>
+        <v>4.148800000000002</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6372,22 +6224,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.007</v>
+        <v>4.055</v>
       </c>
       <c r="C167" t="n">
-        <v>4.058</v>
+        <v>4.013</v>
       </c>
       <c r="D167" t="n">
-        <v>4.059</v>
+        <v>4.055</v>
       </c>
       <c r="E167" t="n">
-        <v>3.985</v>
+        <v>4.013</v>
       </c>
       <c r="F167" t="n">
-        <v>864042.4631000001</v>
+        <v>191329.4574</v>
       </c>
       <c r="G167" t="n">
-        <v>4.144950000000001</v>
+        <v>4.146500000000001</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6407,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.049</v>
+        <v>4.007</v>
       </c>
       <c r="C168" t="n">
-        <v>4.049</v>
+        <v>4.058</v>
       </c>
       <c r="D168" t="n">
-        <v>4.049</v>
+        <v>4.059</v>
       </c>
       <c r="E168" t="n">
-        <v>4.049</v>
+        <v>3.985</v>
       </c>
       <c r="F168" t="n">
-        <v>208980</v>
+        <v>864042.4631000001</v>
       </c>
       <c r="G168" t="n">
-        <v>4.142933333333335</v>
+        <v>4.144950000000001</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6442,22 +6294,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.044</v>
+        <v>4.049</v>
       </c>
       <c r="C169" t="n">
-        <v>4.044</v>
+        <v>4.049</v>
       </c>
       <c r="D169" t="n">
-        <v>4.044</v>
+        <v>4.049</v>
       </c>
       <c r="E169" t="n">
-        <v>4.044</v>
+        <v>4.049</v>
       </c>
       <c r="F169" t="n">
-        <v>117109.1942</v>
+        <v>208980</v>
       </c>
       <c r="G169" t="n">
-        <v>4.140750000000001</v>
+        <v>4.142933333333335</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6477,22 +6329,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.06</v>
+        <v>4.044</v>
       </c>
       <c r="C170" t="n">
-        <v>4.06</v>
+        <v>4.044</v>
       </c>
       <c r="D170" t="n">
-        <v>4.06</v>
+        <v>4.044</v>
       </c>
       <c r="E170" t="n">
-        <v>4.06</v>
+        <v>4.044</v>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>117109.1942</v>
       </c>
       <c r="G170" t="n">
-        <v>4.138750000000002</v>
+        <v>4.140750000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6512,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.045</v>
+        <v>4.06</v>
       </c>
       <c r="C171" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="D171" t="n">
-        <v>4.045</v>
+        <v>4.06</v>
       </c>
       <c r="E171" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="F171" t="n">
-        <v>3130</v>
+        <v>200</v>
       </c>
       <c r="G171" t="n">
-        <v>4.136250000000001</v>
+        <v>4.138750000000002</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6547,22 +6399,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.034</v>
+        <v>4.045</v>
       </c>
       <c r="C172" t="n">
-        <v>4.034</v>
+        <v>4.03</v>
       </c>
       <c r="D172" t="n">
-        <v>4.034</v>
+        <v>4.045</v>
       </c>
       <c r="E172" t="n">
-        <v>4.034</v>
+        <v>4.03</v>
       </c>
       <c r="F172" t="n">
-        <v>402.8403</v>
+        <v>3130</v>
       </c>
       <c r="G172" t="n">
-        <v>4.133816666666668</v>
+        <v>4.136250000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6594,10 +6446,10 @@
         <v>4.034</v>
       </c>
       <c r="F173" t="n">
-        <v>57519.7677</v>
+        <v>402.8403</v>
       </c>
       <c r="G173" t="n">
-        <v>4.131350000000001</v>
+        <v>4.133816666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6617,22 +6469,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.035</v>
+        <v>4.034</v>
       </c>
       <c r="C174" t="n">
-        <v>4.035</v>
+        <v>4.034</v>
       </c>
       <c r="D174" t="n">
-        <v>4.035</v>
+        <v>4.034</v>
       </c>
       <c r="E174" t="n">
-        <v>4.035</v>
+        <v>4.034</v>
       </c>
       <c r="F174" t="n">
-        <v>118925.7672</v>
+        <v>57519.7677</v>
       </c>
       <c r="G174" t="n">
-        <v>4.128516666666668</v>
+        <v>4.131350000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6652,22 +6504,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.037</v>
+        <v>4.035</v>
       </c>
       <c r="C175" t="n">
-        <v>4.033</v>
+        <v>4.035</v>
       </c>
       <c r="D175" t="n">
-        <v>4.037</v>
+        <v>4.035</v>
       </c>
       <c r="E175" t="n">
-        <v>4.033</v>
+        <v>4.035</v>
       </c>
       <c r="F175" t="n">
-        <v>1340258.6655</v>
+        <v>118925.7672</v>
       </c>
       <c r="G175" t="n">
-        <v>4.125816666666668</v>
+        <v>4.128516666666668</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6687,22 +6539,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.057</v>
+        <v>4.037</v>
       </c>
       <c r="C176" t="n">
-        <v>4.081</v>
+        <v>4.033</v>
       </c>
       <c r="D176" t="n">
-        <v>4.081</v>
+        <v>4.037</v>
       </c>
       <c r="E176" t="n">
-        <v>4.057</v>
+        <v>4.033</v>
       </c>
       <c r="F176" t="n">
-        <v>115908.05488561</v>
+        <v>1340258.6655</v>
       </c>
       <c r="G176" t="n">
-        <v>4.123666666666668</v>
+        <v>4.125816666666668</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6722,7 +6574,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.081</v>
+        <v>4.057</v>
       </c>
       <c r="C177" t="n">
         <v>4.081</v>
@@ -6731,13 +6583,13 @@
         <v>4.081</v>
       </c>
       <c r="E177" t="n">
-        <v>4.081</v>
+        <v>4.057</v>
       </c>
       <c r="F177" t="n">
-        <v>88867.65021439</v>
+        <v>115908.05488561</v>
       </c>
       <c r="G177" t="n">
-        <v>4.121516666666667</v>
+        <v>4.123666666666668</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6757,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.095</v>
+        <v>4.081</v>
       </c>
       <c r="C178" t="n">
-        <v>4.095</v>
+        <v>4.081</v>
       </c>
       <c r="D178" t="n">
-        <v>4.095</v>
+        <v>4.081</v>
       </c>
       <c r="E178" t="n">
-        <v>4.095</v>
+        <v>4.081</v>
       </c>
       <c r="F178" t="n">
-        <v>2355.3165</v>
+        <v>88867.65021439</v>
       </c>
       <c r="G178" t="n">
-        <v>4.119400000000001</v>
+        <v>4.121516666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6792,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.081</v>
+        <v>4.095</v>
       </c>
       <c r="C179" t="n">
-        <v>4.081</v>
+        <v>4.095</v>
       </c>
       <c r="D179" t="n">
-        <v>4.081</v>
+        <v>4.095</v>
       </c>
       <c r="E179" t="n">
-        <v>4.081</v>
+        <v>4.095</v>
       </c>
       <c r="F179" t="n">
-        <v>73833.8118</v>
+        <v>2355.3165</v>
       </c>
       <c r="G179" t="n">
-        <v>4.11755</v>
+        <v>4.119400000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6839,10 +6691,10 @@
         <v>4.081</v>
       </c>
       <c r="F180" t="n">
-        <v>75054.26360000001</v>
+        <v>73833.8118</v>
       </c>
       <c r="G180" t="n">
-        <v>4.115316666666667</v>
+        <v>4.11755</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6874,10 +6726,10 @@
         <v>4.081</v>
       </c>
       <c r="F181" t="n">
-        <v>82344.38508561</v>
+        <v>75054.26360000001</v>
       </c>
       <c r="G181" t="n">
-        <v>4.113416666666667</v>
+        <v>4.115316666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6897,22 +6749,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.04</v>
+        <v>4.081</v>
       </c>
       <c r="C182" t="n">
-        <v>4.04</v>
+        <v>4.081</v>
       </c>
       <c r="D182" t="n">
-        <v>4.04</v>
+        <v>4.081</v>
       </c>
       <c r="E182" t="n">
-        <v>4.04</v>
+        <v>4.081</v>
       </c>
       <c r="F182" t="n">
-        <v>4301</v>
+        <v>82344.38508561</v>
       </c>
       <c r="G182" t="n">
-        <v>4.111166666666666</v>
+        <v>4.113416666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6935,19 +6787,19 @@
         <v>4.04</v>
       </c>
       <c r="C183" t="n">
-        <v>4.078</v>
+        <v>4.04</v>
       </c>
       <c r="D183" t="n">
-        <v>4.078</v>
+        <v>4.04</v>
       </c>
       <c r="E183" t="n">
         <v>4.04</v>
       </c>
       <c r="F183" t="n">
-        <v>27883.7662</v>
+        <v>4301</v>
       </c>
       <c r="G183" t="n">
-        <v>4.10955</v>
+        <v>4.111166666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6967,22 +6819,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.039</v>
+        <v>4.04</v>
       </c>
       <c r="C184" t="n">
-        <v>4.039</v>
+        <v>4.078</v>
       </c>
       <c r="D184" t="n">
-        <v>4.039</v>
+        <v>4.078</v>
       </c>
       <c r="E184" t="n">
-        <v>4.039</v>
+        <v>4.04</v>
       </c>
       <c r="F184" t="n">
-        <v>450585.2813</v>
+        <v>27883.7662</v>
       </c>
       <c r="G184" t="n">
-        <v>4.106866666666666</v>
+        <v>4.10955</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7005,19 +6857,19 @@
         <v>4.039</v>
       </c>
       <c r="C185" t="n">
-        <v>4.096</v>
+        <v>4.039</v>
       </c>
       <c r="D185" t="n">
-        <v>4.096</v>
+        <v>4.039</v>
       </c>
       <c r="E185" t="n">
         <v>4.039</v>
       </c>
       <c r="F185" t="n">
-        <v>150870.1905</v>
+        <v>450585.2813</v>
       </c>
       <c r="G185" t="n">
-        <v>4.105383333333332</v>
+        <v>4.106866666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7037,22 +6889,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.049</v>
+        <v>4.039</v>
       </c>
       <c r="C186" t="n">
-        <v>4.049</v>
+        <v>4.096</v>
       </c>
       <c r="D186" t="n">
-        <v>4.049</v>
+        <v>4.096</v>
       </c>
       <c r="E186" t="n">
-        <v>4.049</v>
+        <v>4.039</v>
       </c>
       <c r="F186" t="n">
-        <v>188.5263</v>
+        <v>150870.1905</v>
       </c>
       <c r="G186" t="n">
-        <v>4.103533333333333</v>
+        <v>4.105383333333332</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7072,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.059</v>
+        <v>4.049</v>
       </c>
       <c r="C187" t="n">
-        <v>4.059</v>
+        <v>4.049</v>
       </c>
       <c r="D187" t="n">
-        <v>4.059</v>
+        <v>4.049</v>
       </c>
       <c r="E187" t="n">
-        <v>4.059</v>
+        <v>4.049</v>
       </c>
       <c r="F187" t="n">
-        <v>18520</v>
+        <v>188.5263</v>
       </c>
       <c r="G187" t="n">
-        <v>4.102016666666666</v>
+        <v>4.103533333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7107,22 +6959,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.049</v>
+        <v>4.059</v>
       </c>
       <c r="C188" t="n">
-        <v>4.049</v>
+        <v>4.059</v>
       </c>
       <c r="D188" t="n">
-        <v>4.049</v>
+        <v>4.059</v>
       </c>
       <c r="E188" t="n">
-        <v>4.049</v>
+        <v>4.059</v>
       </c>
       <c r="F188" t="n">
-        <v>1032.4294</v>
+        <v>18520</v>
       </c>
       <c r="G188" t="n">
-        <v>4.100333333333332</v>
+        <v>4.102016666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7154,10 +7006,10 @@
         <v>4.049</v>
       </c>
       <c r="F189" t="n">
-        <v>17334.2002</v>
+        <v>1032.4294</v>
       </c>
       <c r="G189" t="n">
-        <v>4.098649999999999</v>
+        <v>4.100333333333332</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7180,19 +7032,19 @@
         <v>4.049</v>
       </c>
       <c r="C190" t="n">
-        <v>4.03</v>
+        <v>4.049</v>
       </c>
       <c r="D190" t="n">
         <v>4.049</v>
       </c>
       <c r="E190" t="n">
-        <v>4.03</v>
+        <v>4.049</v>
       </c>
       <c r="F190" t="n">
-        <v>112370.5127</v>
+        <v>17334.2002</v>
       </c>
       <c r="G190" t="n">
-        <v>4.096649999999999</v>
+        <v>4.098649999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7215,19 +7067,19 @@
         <v>4.049</v>
       </c>
       <c r="C191" t="n">
-        <v>4.049</v>
+        <v>4.03</v>
       </c>
       <c r="D191" t="n">
         <v>4.049</v>
       </c>
       <c r="E191" t="n">
-        <v>4.049</v>
+        <v>4.03</v>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>112370.5127</v>
       </c>
       <c r="G191" t="n">
-        <v>4.095216666666667</v>
+        <v>4.096649999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7247,22 +7099,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4.04</v>
+        <v>4.049</v>
       </c>
       <c r="C192" t="n">
-        <v>4.04</v>
+        <v>4.049</v>
       </c>
       <c r="D192" t="n">
-        <v>4.04</v>
+        <v>4.049</v>
       </c>
       <c r="E192" t="n">
-        <v>4.04</v>
+        <v>4.049</v>
       </c>
       <c r="F192" t="n">
-        <v>11815.7186</v>
+        <v>200</v>
       </c>
       <c r="G192" t="n">
-        <v>4.093233333333333</v>
+        <v>4.095216666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7282,22 +7134,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.032</v>
+        <v>4.04</v>
       </c>
       <c r="C193" t="n">
-        <v>4.032</v>
+        <v>4.04</v>
       </c>
       <c r="D193" t="n">
-        <v>4.032</v>
+        <v>4.04</v>
       </c>
       <c r="E193" t="n">
-        <v>4.032</v>
+        <v>4.04</v>
       </c>
       <c r="F193" t="n">
-        <v>50000</v>
+        <v>11815.7186</v>
       </c>
       <c r="G193" t="n">
-        <v>4.090949999999999</v>
+        <v>4.093233333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7317,22 +7169,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4.031</v>
+        <v>4.032</v>
       </c>
       <c r="C194" t="n">
-        <v>4.049</v>
+        <v>4.032</v>
       </c>
       <c r="D194" t="n">
-        <v>4.049</v>
+        <v>4.032</v>
       </c>
       <c r="E194" t="n">
-        <v>4.03</v>
+        <v>4.032</v>
       </c>
       <c r="F194" t="n">
-        <v>124044.6807</v>
+        <v>50000</v>
       </c>
       <c r="G194" t="n">
-        <v>4.089416666666667</v>
+        <v>4.090949999999999</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7352,7 +7204,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.049</v>
+        <v>4.031</v>
       </c>
       <c r="C195" t="n">
         <v>4.049</v>
@@ -7361,13 +7213,13 @@
         <v>4.049</v>
       </c>
       <c r="E195" t="n">
-        <v>4.049</v>
+        <v>4.03</v>
       </c>
       <c r="F195" t="n">
-        <v>7915</v>
+        <v>124044.6807</v>
       </c>
       <c r="G195" t="n">
-        <v>4.087416666666666</v>
+        <v>4.089416666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7387,22 +7239,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.032</v>
+        <v>4.049</v>
       </c>
       <c r="C196" t="n">
-        <v>4.032</v>
+        <v>4.049</v>
       </c>
       <c r="D196" t="n">
-        <v>4.032</v>
+        <v>4.049</v>
       </c>
       <c r="E196" t="n">
-        <v>4.032</v>
+        <v>4.049</v>
       </c>
       <c r="F196" t="n">
-        <v>97295.26270000001</v>
+        <v>7915</v>
       </c>
       <c r="G196" t="n">
-        <v>4.085616666666667</v>
+        <v>4.087416666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7425,19 +7277,19 @@
         <v>4.032</v>
       </c>
       <c r="C197" t="n">
-        <v>4.049</v>
+        <v>4.032</v>
       </c>
       <c r="D197" t="n">
-        <v>4.049</v>
+        <v>4.032</v>
       </c>
       <c r="E197" t="n">
         <v>4.032</v>
       </c>
       <c r="F197" t="n">
-        <v>27000</v>
+        <v>97295.26270000001</v>
       </c>
       <c r="G197" t="n">
-        <v>4.083616666666667</v>
+        <v>4.085616666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7457,7 +7309,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.049</v>
+        <v>4.032</v>
       </c>
       <c r="C198" t="n">
         <v>4.049</v>
@@ -7466,13 +7318,13 @@
         <v>4.049</v>
       </c>
       <c r="E198" t="n">
-        <v>4.049</v>
+        <v>4.032</v>
       </c>
       <c r="F198" t="n">
-        <v>1497</v>
+        <v>27000</v>
       </c>
       <c r="G198" t="n">
-        <v>4.081616666666666</v>
+        <v>4.083616666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7492,22 +7344,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.031</v>
+        <v>4.049</v>
       </c>
       <c r="C199" t="n">
-        <v>4.031</v>
+        <v>4.049</v>
       </c>
       <c r="D199" t="n">
-        <v>4.031</v>
+        <v>4.049</v>
       </c>
       <c r="E199" t="n">
-        <v>4.031</v>
+        <v>4.049</v>
       </c>
       <c r="F199" t="n">
-        <v>2054.2264</v>
+        <v>1497</v>
       </c>
       <c r="G199" t="n">
-        <v>4.079316666666666</v>
+        <v>4.081616666666666</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7527,22 +7379,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.026</v>
+        <v>4.031</v>
       </c>
       <c r="C200" t="n">
-        <v>4.026</v>
+        <v>4.031</v>
       </c>
       <c r="D200" t="n">
-        <v>4.026</v>
+        <v>4.031</v>
       </c>
       <c r="E200" t="n">
-        <v>4.026</v>
+        <v>4.031</v>
       </c>
       <c r="F200" t="n">
-        <v>50000</v>
+        <v>2054.2264</v>
       </c>
       <c r="G200" t="n">
-        <v>4.0771</v>
+        <v>4.079316666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7562,22 +7414,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.023</v>
+        <v>4.026</v>
       </c>
       <c r="C201" t="n">
-        <v>4.049</v>
+        <v>4.026</v>
       </c>
       <c r="D201" t="n">
-        <v>4.049</v>
+        <v>4.026</v>
       </c>
       <c r="E201" t="n">
-        <v>4.022</v>
+        <v>4.026</v>
       </c>
       <c r="F201" t="n">
-        <v>305906.8413</v>
+        <v>50000</v>
       </c>
       <c r="G201" t="n">
-        <v>4.0751</v>
+        <v>4.0771</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7597,7 +7449,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.049</v>
+        <v>4.023</v>
       </c>
       <c r="C202" t="n">
         <v>4.049</v>
@@ -7606,13 +7458,13 @@
         <v>4.049</v>
       </c>
       <c r="E202" t="n">
-        <v>4.049</v>
+        <v>4.022</v>
       </c>
       <c r="F202" t="n">
-        <v>133517.4486</v>
+        <v>305906.8413</v>
       </c>
       <c r="G202" t="n">
-        <v>4.0731</v>
+        <v>4.0751</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7632,22 +7484,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4.023</v>
+        <v>4.049</v>
       </c>
       <c r="C203" t="n">
-        <v>4.023</v>
+        <v>4.049</v>
       </c>
       <c r="D203" t="n">
-        <v>4.023</v>
+        <v>4.049</v>
       </c>
       <c r="E203" t="n">
-        <v>4.023</v>
+        <v>4.049</v>
       </c>
       <c r="F203" t="n">
         <v>133517.4486</v>
       </c>
       <c r="G203" t="n">
-        <v>4.070483333333333</v>
+        <v>4.0731</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7670,19 +7522,19 @@
         <v>4.023</v>
       </c>
       <c r="C204" t="n">
-        <v>4.022</v>
+        <v>4.023</v>
       </c>
       <c r="D204" t="n">
         <v>4.023</v>
       </c>
       <c r="E204" t="n">
-        <v>4.022</v>
+        <v>4.023</v>
       </c>
       <c r="F204" t="n">
-        <v>118653.6968</v>
+        <v>133517.4486</v>
       </c>
       <c r="G204" t="n">
-        <v>4.068016666666667</v>
+        <v>4.070483333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7702,22 +7554,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4.049</v>
+        <v>4.023</v>
       </c>
       <c r="C205" t="n">
-        <v>4.049</v>
+        <v>4.022</v>
       </c>
       <c r="D205" t="n">
-        <v>4.049</v>
+        <v>4.023</v>
       </c>
       <c r="E205" t="n">
-        <v>4.049</v>
+        <v>4.022</v>
       </c>
       <c r="F205" t="n">
-        <v>400</v>
+        <v>118653.6968</v>
       </c>
       <c r="G205" t="n">
-        <v>4.066183333333333</v>
+        <v>4.068016666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7737,7 +7589,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>4.032</v>
+        <v>4.049</v>
       </c>
       <c r="C206" t="n">
         <v>4.049</v>
@@ -7746,13 +7598,13 @@
         <v>4.049</v>
       </c>
       <c r="E206" t="n">
-        <v>4.032</v>
+        <v>4.049</v>
       </c>
       <c r="F206" t="n">
-        <v>66708</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
-        <v>4.06475</v>
+        <v>4.066183333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7772,22 +7624,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4.034</v>
+        <v>4.032</v>
       </c>
       <c r="C207" t="n">
-        <v>4.034</v>
+        <v>4.049</v>
       </c>
       <c r="D207" t="n">
-        <v>4.034</v>
+        <v>4.049</v>
       </c>
       <c r="E207" t="n">
-        <v>4.034</v>
+        <v>4.032</v>
       </c>
       <c r="F207" t="n">
-        <v>333.3728</v>
+        <v>66708</v>
       </c>
       <c r="G207" t="n">
-        <v>4.0629</v>
+        <v>4.06475</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7807,22 +7659,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4.049</v>
+        <v>4.034</v>
       </c>
       <c r="C208" t="n">
-        <v>4.049</v>
+        <v>4.034</v>
       </c>
       <c r="D208" t="n">
-        <v>4.049</v>
+        <v>4.034</v>
       </c>
       <c r="E208" t="n">
-        <v>4.049</v>
+        <v>4.034</v>
       </c>
       <c r="F208" t="n">
-        <v>18755</v>
+        <v>333.3728</v>
       </c>
       <c r="G208" t="n">
-        <v>4.061466666666667</v>
+        <v>4.0629</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7845,19 +7697,19 @@
         <v>4.049</v>
       </c>
       <c r="C209" t="n">
-        <v>4.073</v>
+        <v>4.049</v>
       </c>
       <c r="D209" t="n">
-        <v>4.073</v>
+        <v>4.049</v>
       </c>
       <c r="E209" t="n">
         <v>4.049</v>
       </c>
       <c r="F209" t="n">
-        <v>425755</v>
+        <v>18755</v>
       </c>
       <c r="G209" t="n">
-        <v>4.061016666666667</v>
+        <v>4.061466666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7877,22 +7729,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
+        <v>4.049</v>
+      </c>
+      <c r="C210" t="n">
         <v>4.073</v>
-      </c>
-      <c r="C210" t="n">
-        <v>4.039</v>
       </c>
       <c r="D210" t="n">
         <v>4.073</v>
       </c>
       <c r="E210" t="n">
-        <v>4.039</v>
+        <v>4.049</v>
       </c>
       <c r="F210" t="n">
-        <v>557098.59677488</v>
+        <v>425755</v>
       </c>
       <c r="G210" t="n">
-        <v>4.06</v>
+        <v>4.061016666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7915,19 +7767,19 @@
         <v>4.073</v>
       </c>
       <c r="C211" t="n">
-        <v>4.073</v>
+        <v>4.039</v>
       </c>
       <c r="D211" t="n">
         <v>4.073</v>
       </c>
       <c r="E211" t="n">
-        <v>4.073</v>
+        <v>4.039</v>
       </c>
       <c r="F211" t="n">
-        <v>90020</v>
+        <v>557098.59677488</v>
       </c>
       <c r="G211" t="n">
-        <v>4.059550000000001</v>
+        <v>4.06</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7959,10 +7811,10 @@
         <v>4.073</v>
       </c>
       <c r="F212" t="n">
-        <v>75020</v>
+        <v>90020</v>
       </c>
       <c r="G212" t="n">
-        <v>4.058433333333334</v>
+        <v>4.059550000000001</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7994,10 +7846,10 @@
         <v>4.073</v>
       </c>
       <c r="F213" t="n">
-        <v>160040</v>
+        <v>75020</v>
       </c>
       <c r="G213" t="n">
-        <v>4.057316666666668</v>
+        <v>4.058433333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8029,10 +7881,10 @@
         <v>4.073</v>
       </c>
       <c r="F214" t="n">
-        <v>82212</v>
+        <v>160040</v>
       </c>
       <c r="G214" t="n">
-        <v>4.056200000000001</v>
+        <v>4.057316666666668</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8064,10 +7916,10 @@
         <v>4.073</v>
       </c>
       <c r="F215" t="n">
-        <v>4590</v>
+        <v>82212</v>
       </c>
       <c r="G215" t="n">
-        <v>4.055666666666669</v>
+        <v>4.056200000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8099,10 +7951,10 @@
         <v>4.073</v>
       </c>
       <c r="F216" t="n">
-        <v>146195</v>
+        <v>4590</v>
       </c>
       <c r="G216" t="n">
-        <v>4.055133333333336</v>
+        <v>4.055666666666669</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8125,19 +7977,19 @@
         <v>4.073</v>
       </c>
       <c r="C217" t="n">
-        <v>4.089</v>
+        <v>4.073</v>
       </c>
       <c r="D217" t="n">
-        <v>4.089</v>
+        <v>4.073</v>
       </c>
       <c r="E217" t="n">
         <v>4.073</v>
       </c>
       <c r="F217" t="n">
-        <v>58147</v>
+        <v>146195</v>
       </c>
       <c r="G217" t="n">
-        <v>4.054950000000002</v>
+        <v>4.055133333333336</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8157,7 +8009,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4.089</v>
+        <v>4.073</v>
       </c>
       <c r="C218" t="n">
         <v>4.089</v>
@@ -8166,13 +8018,13 @@
         <v>4.089</v>
       </c>
       <c r="E218" t="n">
-        <v>4.089</v>
+        <v>4.073</v>
       </c>
       <c r="F218" t="n">
-        <v>29104</v>
+        <v>58147</v>
       </c>
       <c r="G218" t="n">
-        <v>4.054766666666669</v>
+        <v>4.054950000000002</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8204,10 +8056,10 @@
         <v>4.089</v>
       </c>
       <c r="F219" t="n">
-        <v>15000</v>
+        <v>29104</v>
       </c>
       <c r="G219" t="n">
-        <v>4.055850000000002</v>
+        <v>4.054766666666669</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8239,10 +8091,10 @@
         <v>4.089</v>
       </c>
       <c r="F220" t="n">
-        <v>6820</v>
+        <v>15000</v>
       </c>
       <c r="G220" t="n">
-        <v>4.055516666666668</v>
+        <v>4.055850000000002</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8274,10 +8126,10 @@
         <v>4.089</v>
       </c>
       <c r="F221" t="n">
-        <v>347157.84222512</v>
+        <v>6820</v>
       </c>
       <c r="G221" t="n">
-        <v>4.056233333333336</v>
+        <v>4.055516666666668</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8297,22 +8149,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4.09</v>
+        <v>4.089</v>
       </c>
       <c r="C222" t="n">
-        <v>4.09</v>
+        <v>4.089</v>
       </c>
       <c r="D222" t="n">
-        <v>4.09</v>
+        <v>4.089</v>
       </c>
       <c r="E222" t="n">
-        <v>4.09</v>
+        <v>4.089</v>
       </c>
       <c r="F222" t="n">
-        <v>45000</v>
+        <v>347157.84222512</v>
       </c>
       <c r="G222" t="n">
-        <v>4.057033333333336</v>
+        <v>4.056233333333336</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8335,19 +8187,19 @@
         <v>4.09</v>
       </c>
       <c r="C223" t="n">
-        <v>4.098</v>
+        <v>4.09</v>
       </c>
       <c r="D223" t="n">
-        <v>4.098</v>
+        <v>4.09</v>
       </c>
       <c r="E223" t="n">
         <v>4.09</v>
       </c>
       <c r="F223" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="G223" t="n">
-        <v>4.058050000000002</v>
+        <v>4.057033333333336</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8367,7 +8219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4.098</v>
+        <v>4.09</v>
       </c>
       <c r="C224" t="n">
         <v>4.098</v>
@@ -8376,13 +8228,13 @@
         <v>4.098</v>
       </c>
       <c r="E224" t="n">
-        <v>4.098</v>
+        <v>4.09</v>
       </c>
       <c r="F224" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G224" t="n">
-        <v>4.057950000000003</v>
+        <v>4.058050000000002</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8402,22 +8254,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4.093</v>
+        <v>4.098</v>
       </c>
       <c r="C225" t="n">
-        <v>4.093</v>
+        <v>4.098</v>
       </c>
       <c r="D225" t="n">
-        <v>4.093</v>
+        <v>4.098</v>
       </c>
       <c r="E225" t="n">
-        <v>4.093</v>
+        <v>4.098</v>
       </c>
       <c r="F225" t="n">
-        <v>14873.1839</v>
+        <v>5000</v>
       </c>
       <c r="G225" t="n">
-        <v>4.058050000000002</v>
+        <v>4.057950000000003</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8437,22 +8289,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>4.098</v>
+        <v>4.093</v>
       </c>
       <c r="C226" t="n">
-        <v>4.1</v>
+        <v>4.093</v>
       </c>
       <c r="D226" t="n">
-        <v>4.1</v>
+        <v>4.093</v>
       </c>
       <c r="E226" t="n">
-        <v>4.098</v>
+        <v>4.093</v>
       </c>
       <c r="F226" t="n">
-        <v>21000</v>
+        <v>14873.1839</v>
       </c>
       <c r="G226" t="n">
-        <v>4.059500000000003</v>
+        <v>4.058050000000002</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8472,22 +8324,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>4.096</v>
+        <v>4.098</v>
       </c>
       <c r="C227" t="n">
-        <v>4.097</v>
+        <v>4.1</v>
       </c>
       <c r="D227" t="n">
-        <v>4.097</v>
+        <v>4.1</v>
       </c>
       <c r="E227" t="n">
-        <v>4.096</v>
+        <v>4.098</v>
       </c>
       <c r="F227" t="n">
-        <v>51588.274</v>
+        <v>21000</v>
       </c>
       <c r="G227" t="n">
-        <v>4.060150000000003</v>
+        <v>4.059500000000003</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8507,7 +8359,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4.097</v>
+        <v>4.096</v>
       </c>
       <c r="C228" t="n">
         <v>4.097</v>
@@ -8516,13 +8368,13 @@
         <v>4.097</v>
       </c>
       <c r="E228" t="n">
-        <v>4.097</v>
+        <v>4.096</v>
       </c>
       <c r="F228" t="n">
-        <v>3202.4959</v>
+        <v>51588.274</v>
       </c>
       <c r="G228" t="n">
-        <v>4.060950000000003</v>
+        <v>4.060150000000003</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8554,10 +8406,10 @@
         <v>4.097</v>
       </c>
       <c r="F229" t="n">
-        <v>4881.62069807</v>
+        <v>3202.4959</v>
       </c>
       <c r="G229" t="n">
-        <v>4.061833333333336</v>
+        <v>4.060950000000003</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8577,22 +8429,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4.087</v>
+        <v>4.097</v>
       </c>
       <c r="C230" t="n">
-        <v>4.087</v>
+        <v>4.097</v>
       </c>
       <c r="D230" t="n">
-        <v>4.087</v>
+        <v>4.097</v>
       </c>
       <c r="E230" t="n">
-        <v>4.087</v>
+        <v>4.097</v>
       </c>
       <c r="F230" t="n">
-        <v>132439</v>
+        <v>4881.62069807</v>
       </c>
       <c r="G230" t="n">
-        <v>4.062283333333336</v>
+        <v>4.061833333333336</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8624,10 +8476,10 @@
         <v>4.087</v>
       </c>
       <c r="F231" t="n">
-        <v>18755</v>
+        <v>132439</v>
       </c>
       <c r="G231" t="n">
-        <v>4.063233333333335</v>
+        <v>4.062283333333336</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8650,19 +8502,19 @@
         <v>4.087</v>
       </c>
       <c r="C232" t="n">
-        <v>4.099</v>
+        <v>4.087</v>
       </c>
       <c r="D232" t="n">
-        <v>4.099</v>
+        <v>4.087</v>
       </c>
       <c r="E232" t="n">
         <v>4.087</v>
       </c>
       <c r="F232" t="n">
-        <v>503871</v>
+        <v>18755</v>
       </c>
       <c r="G232" t="n">
-        <v>4.064316666666668</v>
+        <v>4.063233333333335</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8682,22 +8534,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>4.087</v>
+      </c>
+      <c r="C233" t="n">
         <v>4.099</v>
       </c>
-      <c r="C233" t="n">
-        <v>4.107</v>
-      </c>
       <c r="D233" t="n">
-        <v>4.107</v>
+        <v>4.099</v>
       </c>
       <c r="E233" t="n">
-        <v>4.099</v>
+        <v>4.087</v>
       </c>
       <c r="F233" t="n">
-        <v>100000</v>
+        <v>503871</v>
       </c>
       <c r="G233" t="n">
-        <v>4.065533333333335</v>
+        <v>4.064316666666668</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8717,7 +8569,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>4.107</v>
+        <v>4.099</v>
       </c>
       <c r="C234" t="n">
         <v>4.107</v>
@@ -8726,13 +8578,13 @@
         <v>4.107</v>
       </c>
       <c r="E234" t="n">
-        <v>4.107</v>
+        <v>4.099</v>
       </c>
       <c r="F234" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="G234" t="n">
-        <v>4.066733333333335</v>
+        <v>4.065533333333335</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8764,10 +8616,10 @@
         <v>4.107</v>
       </c>
       <c r="F235" t="n">
-        <v>580.7055</v>
+        <v>5000</v>
       </c>
       <c r="G235" t="n">
-        <v>4.067966666666669</v>
+        <v>4.066733333333335</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8799,10 +8651,10 @@
         <v>4.107</v>
       </c>
       <c r="F236" t="n">
-        <v>75376.50109999999</v>
+        <v>580.7055</v>
       </c>
       <c r="G236" t="n">
-        <v>4.068400000000002</v>
+        <v>4.067966666666669</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8822,22 +8674,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4.12</v>
+        <v>4.107</v>
       </c>
       <c r="C237" t="n">
-        <v>4.125</v>
+        <v>4.107</v>
       </c>
       <c r="D237" t="n">
-        <v>4.125</v>
+        <v>4.107</v>
       </c>
       <c r="E237" t="n">
-        <v>4.12</v>
+        <v>4.107</v>
       </c>
       <c r="F237" t="n">
-        <v>2500</v>
+        <v>75376.50109999999</v>
       </c>
       <c r="G237" t="n">
-        <v>4.069133333333336</v>
+        <v>4.068400000000002</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8857,22 +8709,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C238" t="n">
         <v>4.125</v>
       </c>
-      <c r="C238" t="n">
-        <v>4.145</v>
-      </c>
       <c r="D238" t="n">
-        <v>4.145</v>
+        <v>4.125</v>
       </c>
       <c r="E238" t="n">
-        <v>4.125</v>
+        <v>4.12</v>
       </c>
       <c r="F238" t="n">
         <v>2500</v>
       </c>
       <c r="G238" t="n">
-        <v>4.069966666666669</v>
+        <v>4.069133333333336</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8887,6 +8739,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.145</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4.145</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G239" t="n">
+        <v>4.069966666666669</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest XVG.xlsx
+++ b/BackTest/2020-01-16 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:N249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>63.9168</v>
       </c>
       <c r="G2" t="n">
+        <v>4.011799999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.973966666666663</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>37449.3351</v>
       </c>
       <c r="G3" t="n">
+        <v>4.011933333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.974333333333329</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>20431.2968</v>
       </c>
       <c r="G4" t="n">
+        <v>4.010733333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.975416666666663</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>18119.544</v>
       </c>
       <c r="G5" t="n">
+        <v>4.008333333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.97573333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7692.7912</v>
       </c>
       <c r="G6" t="n">
+        <v>4.004733333333332</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.976066666666664</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>131989.5468</v>
       </c>
       <c r="G7" t="n">
+        <v>3.998799999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.976416666666664</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>272259.4594</v>
       </c>
       <c r="G8" t="n">
+        <v>3.993133333333332</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.975783333333331</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>42567</v>
       </c>
       <c r="G9" t="n">
+        <v>3.988133333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.975116666666664</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>105026.0693</v>
       </c>
       <c r="G10" t="n">
+        <v>3.980799999999999</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.974283333333331</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>43249.6918</v>
       </c>
       <c r="G11" t="n">
+        <v>3.975133333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.973449999999998</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>72293.2795</v>
       </c>
       <c r="G12" t="n">
+        <v>3.969466666666665</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.972616666666665</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>30922.5</v>
       </c>
       <c r="G13" t="n">
+        <v>3.964866666666665</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.971683333333332</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>4165.0173</v>
       </c>
       <c r="G14" t="n">
+        <v>3.963933333333332</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.971666666666665</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>17660</v>
       </c>
       <c r="G15" t="n">
+        <v>3.961999999999998</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.971399999999998</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>231.3694</v>
       </c>
       <c r="G16" t="n">
+        <v>3.956533333333332</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.970249999999998</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>173260.3462</v>
       </c>
       <c r="G17" t="n">
+        <v>3.950999999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.969516666666664</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>695.9409000000001</v>
       </c>
       <c r="G18" t="n">
+        <v>3.945533333333332</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.968316666666664</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>23403</v>
       </c>
       <c r="G19" t="n">
+        <v>3.941199999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.967599999999997</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,25 @@
         <v>117757.7853</v>
       </c>
       <c r="G20" t="n">
+        <v>3.937333333333332</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.967399999999997</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1179,29 @@
         <v>4108.7612</v>
       </c>
       <c r="G21" t="n">
+        <v>3.934599999999999</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.967199999999997</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,22 +1225,29 @@
         <v>126</v>
       </c>
       <c r="G22" t="n">
+        <v>3.936799999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.967899999999998</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>3.92</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1187,24 +1271,25 @@
         <v>2516.3564</v>
       </c>
       <c r="G23" t="n">
+        <v>3.939733333333332</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.968599999999997</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,24 +1313,29 @@
         <v>52703.4066</v>
       </c>
       <c r="G24" t="n">
+        <v>3.941999999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.969299999999997</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>3.974</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1359,29 @@
         <v>31875.7765</v>
       </c>
       <c r="G25" t="n">
+        <v>3.944933333333332</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.969999999999998</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1405,25 @@
         <v>2516.3564</v>
       </c>
       <c r="G26" t="n">
+        <v>3.947866666666665</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.970699999999998</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1447,27 @@
         <v>330895.5826</v>
       </c>
       <c r="G27" t="n">
+        <v>3.950799999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>3.971399999999997</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1491,27 @@
         <v>52425.3501</v>
       </c>
       <c r="G28" t="n">
+        <v>3.953466666666665</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.972099999999998</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1535,27 @@
         <v>194174.4678</v>
       </c>
       <c r="G29" t="n">
+        <v>3.952466666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.972799999999998</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1579,27 @@
         <v>7800</v>
       </c>
       <c r="G30" t="n">
+        <v>3.953199999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.973683333333331</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1623,27 @@
         <v>150160.6053</v>
       </c>
       <c r="G31" t="n">
+        <v>3.960133333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.975216666666665</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1667,27 @@
         <v>164591.1476</v>
       </c>
       <c r="G32" t="n">
+        <v>3.967733333333332</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.976899999999998</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1711,27 @@
         <v>881405.0784999999</v>
       </c>
       <c r="G33" t="n">
+        <v>3.975333333333332</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.978583333333332</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1755,27 @@
         <v>996113.411</v>
       </c>
       <c r="G34" t="n">
+        <v>3.984733333333332</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.980716666666665</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1799,27 @@
         <v>1655624.2741</v>
       </c>
       <c r="G35" t="n">
+        <v>3.993999999999998</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.982533333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1843,27 @@
         <v>140132</v>
       </c>
       <c r="G36" t="n">
+        <v>4.000999999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>3.983349999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1887,27 @@
         <v>87950</v>
       </c>
       <c r="G37" t="n">
+        <v>4.006733333333331</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.984733333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1931,27 @@
         <v>25450</v>
       </c>
       <c r="G38" t="n">
+        <v>4.013066666666664</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.986016666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1975,27 @@
         <v>118000</v>
       </c>
       <c r="G39" t="n">
+        <v>4.019466666666664</v>
+      </c>
+      <c r="H39" t="n">
         <v>3.987199999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +2019,27 @@
         <v>55806.6596</v>
       </c>
       <c r="G40" t="n">
+        <v>4.026399999999997</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.988516666666665</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2063,27 @@
         <v>5000</v>
       </c>
       <c r="G41" t="n">
+        <v>4.033333333333331</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.990149999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2107,27 @@
         <v>260718.6977</v>
       </c>
       <c r="G42" t="n">
+        <v>4.040599999999997</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.991866666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2151,27 @@
         <v>396347.8595</v>
       </c>
       <c r="G43" t="n">
+        <v>4.047866666666663</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.993249999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2195,27 @@
         <v>267717.1197</v>
       </c>
       <c r="G44" t="n">
+        <v>4.055933333333329</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.995166666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2239,27 @@
         <v>286271.57211208</v>
       </c>
       <c r="G45" t="n">
+        <v>4.06493333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.997516666666665</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2283,27 @@
         <v>35000</v>
       </c>
       <c r="G46" t="n">
+        <v>4.071599999999997</v>
+      </c>
+      <c r="H46" t="n">
         <v>3.999966666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2327,27 @@
         <v>151121.74438792</v>
       </c>
       <c r="G47" t="n">
+        <v>4.077666666666664</v>
+      </c>
+      <c r="H47" t="n">
         <v>4.002049999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2371,27 @@
         <v>177056.2762</v>
       </c>
       <c r="G48" t="n">
+        <v>4.083733333333331</v>
+      </c>
+      <c r="H48" t="n">
         <v>4.004133333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2415,27 @@
         <v>534611.683</v>
       </c>
       <c r="G49" t="n">
+        <v>4.087999999999998</v>
+      </c>
+      <c r="H49" t="n">
         <v>4.006166666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2459,27 @@
         <v>303516.52</v>
       </c>
       <c r="G50" t="n">
+        <v>4.090399999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>4.007516666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2503,27 @@
         <v>17814.71</v>
       </c>
       <c r="G51" t="n">
+        <v>4.094933333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>4.008816666666665</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2547,27 @@
         <v>425068.5407</v>
       </c>
       <c r="G52" t="n">
+        <v>4.096266666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>4.009649999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2591,27 @@
         <v>14665.7382</v>
       </c>
       <c r="G53" t="n">
+        <v>4.096999999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>4.010733333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2635,27 @@
         <v>132349.12</v>
       </c>
       <c r="G54" t="n">
+        <v>4.097333333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>4.011733333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2679,27 @@
         <v>7880.83</v>
       </c>
       <c r="G55" t="n">
+        <v>4.096466666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>4.01215</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2723,27 @@
         <v>45876.19285012</v>
       </c>
       <c r="G56" t="n">
+        <v>4.095599999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>4.012983333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2767,27 @@
         <v>282169.0601</v>
       </c>
       <c r="G57" t="n">
+        <v>4.090799999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>4.012916666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2811,27 @@
         <v>19404.4996</v>
       </c>
       <c r="G58" t="n">
+        <v>4.085999999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>4.013050000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2855,27 @@
         <v>2517.34</v>
       </c>
       <c r="G59" t="n">
+        <v>4.080333333333332</v>
+      </c>
+      <c r="H59" t="n">
         <v>4.013166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2899,27 @@
         <v>57726.2442</v>
       </c>
       <c r="G60" t="n">
+        <v>4.073066666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>4.0133</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2943,27 @@
         <v>191329.4574</v>
       </c>
       <c r="G61" t="n">
+        <v>4.065466666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>4.013433333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2987,27 @@
         <v>18217.733</v>
       </c>
       <c r="G62" t="n">
+        <v>4.057799999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>4.01355</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +3031,27 @@
         <v>54827.595</v>
       </c>
       <c r="G63" t="n">
+        <v>4.049466666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>4.013516666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +3075,27 @@
         <v>774674.0736999999</v>
       </c>
       <c r="G64" t="n">
+        <v>4.041133333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>4.013766666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +3119,27 @@
         <v>1500</v>
       </c>
       <c r="G65" t="n">
+        <v>4.0348</v>
+      </c>
+      <c r="H65" t="n">
         <v>4.014133333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3163,27 @@
         <v>9120.2876</v>
       </c>
       <c r="G66" t="n">
+        <v>4.028266666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>4.014699999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3207,27 @@
         <v>616000</v>
       </c>
       <c r="G67" t="n">
+        <v>4.026533333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>4.016583333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3251,27 @@
         <v>5002</v>
       </c>
       <c r="G68" t="n">
+        <v>4.021533333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>4.017833333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3295,27 @@
         <v>10000</v>
       </c>
       <c r="G69" t="n">
+        <v>4.020133333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>4.019733333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3339,27 @@
         <v>172910.1324</v>
       </c>
       <c r="G70" t="n">
+        <v>4.0218</v>
+      </c>
+      <c r="H70" t="n">
         <v>4.022399999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3383,27 @@
         <v>10000</v>
       </c>
       <c r="G71" t="n">
+        <v>4.0238</v>
+      </c>
+      <c r="H71" t="n">
         <v>4.025149999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3427,27 @@
         <v>42437.6665</v>
       </c>
       <c r="G72" t="n">
+        <v>4.0294</v>
+      </c>
+      <c r="H72" t="n">
         <v>4.027899999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3471,27 @@
         <v>120443.70384988</v>
       </c>
       <c r="G73" t="n">
+        <v>4.035</v>
+      </c>
+      <c r="H73" t="n">
         <v>4.030583333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3515,27 @@
         <v>2555.3124</v>
       </c>
       <c r="G74" t="n">
+        <v>4.041</v>
+      </c>
+      <c r="H74" t="n">
         <v>4.032433333333332</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3559,27 @@
         <v>838512.65175012</v>
       </c>
       <c r="G75" t="n">
+        <v>4.042133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>4.033333333333332</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3603,27 @@
         <v>5069.9507</v>
       </c>
       <c r="G76" t="n">
+        <v>4.043266666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>4.035116666666665</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3647,27 @@
         <v>192720.4297</v>
       </c>
       <c r="G77" t="n">
+        <v>4.045133333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>4.037083333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3691,27 @@
         <v>13555</v>
       </c>
       <c r="G78" t="n">
+        <v>4.051133333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>4.039916666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3735,27 @@
         <v>13550</v>
       </c>
       <c r="G79" t="n">
+        <v>4.055133333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>4.042249999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3779,27 @@
         <v>685050.97</v>
       </c>
       <c r="G80" t="n">
+        <v>4.062466666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>4.045416666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3823,27 @@
         <v>226924.85</v>
       </c>
       <c r="G81" t="n">
+        <v>4.067466666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>4.047916666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3867,27 @@
         <v>160540</v>
       </c>
       <c r="G82" t="n">
+        <v>4.068666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>4.04955</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3911,27 @@
         <v>318765.37</v>
       </c>
       <c r="G83" t="n">
+        <v>4.074866666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>4.051616666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3955,27 @@
         <v>126953.1914</v>
       </c>
       <c r="G84" t="n">
+        <v>4.079266666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>4.054050000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3999,27 @@
         <v>103953.5841</v>
       </c>
       <c r="G85" t="n">
+        <v>4.080933333333332</v>
+      </c>
+      <c r="H85" t="n">
         <v>4.056400000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +4043,27 @@
         <v>540.5925999999999</v>
       </c>
       <c r="G86" t="n">
+        <v>4.082266666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>4.058750000000002</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +4087,27 @@
         <v>22688.4759</v>
       </c>
       <c r="G87" t="n">
+        <v>4.084266666666665</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.061266666666668</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +4131,27 @@
         <v>115000</v>
       </c>
       <c r="G88" t="n">
+        <v>4.087599999999998</v>
+      </c>
+      <c r="H88" t="n">
         <v>4.064116666666669</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +4175,27 @@
         <v>11355.647</v>
       </c>
       <c r="G89" t="n">
+        <v>4.089266666666665</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.066633333333336</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4219,27 @@
         <v>69838.4904</v>
       </c>
       <c r="G90" t="n">
+        <v>4.096399999999998</v>
+      </c>
+      <c r="H90" t="n">
         <v>4.069133333333335</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4263,27 @@
         <v>84059.48916904</v>
       </c>
       <c r="G91" t="n">
+        <v>4.103533333333332</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.070966666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4307,27 @@
         <v>10126.9539</v>
       </c>
       <c r="G92" t="n">
+        <v>4.108999999999998</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.072400000000002</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4351,27 @@
         <v>22688.4759</v>
       </c>
       <c r="G93" t="n">
+        <v>4.110999999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>4.073833333333336</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4395,27 @@
         <v>145337.6857</v>
       </c>
       <c r="G94" t="n">
+        <v>4.113399999999999</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.074416666666669</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4439,27 @@
         <v>200</v>
       </c>
       <c r="G95" t="n">
+        <v>4.114999999999998</v>
+      </c>
+      <c r="H95" t="n">
         <v>4.075666666666669</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4483,27 @@
         <v>56753.1777</v>
       </c>
       <c r="G96" t="n">
+        <v>4.117399999999998</v>
+      </c>
+      <c r="H96" t="n">
         <v>4.077016666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4527,27 @@
         <v>54206.7523</v>
       </c>
       <c r="G97" t="n">
+        <v>4.119666666666665</v>
+      </c>
+      <c r="H97" t="n">
         <v>4.077783333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4571,27 @@
         <v>460099.6455</v>
       </c>
       <c r="G98" t="n">
+        <v>4.120199999999998</v>
+      </c>
+      <c r="H98" t="n">
         <v>4.078400000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4615,27 @@
         <v>41712.0959</v>
       </c>
       <c r="G99" t="n">
+        <v>4.119266666666665</v>
+      </c>
+      <c r="H99" t="n">
         <v>4.079000000000002</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4659,27 @@
         <v>39626.4911</v>
       </c>
       <c r="G100" t="n">
+        <v>4.118666666666664</v>
+      </c>
+      <c r="H100" t="n">
         <v>4.079466666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4703,27 @@
         <v>41453.554</v>
       </c>
       <c r="G101" t="n">
+        <v>4.118066666666665</v>
+      </c>
+      <c r="H101" t="n">
         <v>4.079933333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4747,27 @@
         <v>25938.7564</v>
       </c>
       <c r="G102" t="n">
+        <v>4.116799999999998</v>
+      </c>
+      <c r="H102" t="n">
         <v>4.080316666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4791,27 @@
         <v>13635.57</v>
       </c>
       <c r="G103" t="n">
+        <v>4.114199999999998</v>
+      </c>
+      <c r="H103" t="n">
         <v>4.080700000000001</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4835,27 @@
         <v>8585.1996</v>
       </c>
       <c r="G104" t="n">
+        <v>4.113066666666665</v>
+      </c>
+      <c r="H104" t="n">
         <v>4.080916666666668</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4879,27 @@
         <v>2836.7608</v>
       </c>
       <c r="G105" t="n">
+        <v>4.111266666666665</v>
+      </c>
+      <c r="H105" t="n">
         <v>4.080716666666668</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4923,27 @@
         <v>138743.243</v>
       </c>
       <c r="G106" t="n">
+        <v>4.111599999999998</v>
+      </c>
+      <c r="H106" t="n">
         <v>4.080966666666668</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4967,27 @@
         <v>213626.5679</v>
       </c>
       <c r="G107" t="n">
+        <v>4.113666666666665</v>
+      </c>
+      <c r="H107" t="n">
         <v>4.081400000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +5011,27 @@
         <v>720.30835943</v>
       </c>
       <c r="G108" t="n">
+        <v>4.115733333333332</v>
+      </c>
+      <c r="H108" t="n">
         <v>4.081833333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +5055,27 @@
         <v>158851.81854057</v>
       </c>
       <c r="G109" t="n">
+        <v>4.120666666666665</v>
+      </c>
+      <c r="H109" t="n">
         <v>4.082583333333335</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +5099,27 @@
         <v>47212.1727</v>
       </c>
       <c r="G110" t="n">
+        <v>4.123399999999998</v>
+      </c>
+      <c r="H110" t="n">
         <v>4.083916666666668</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +5143,27 @@
         <v>54790.419</v>
       </c>
       <c r="G111" t="n">
+        <v>4.128333333333332</v>
+      </c>
+      <c r="H111" t="n">
         <v>4.085366666666668</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +5187,27 @@
         <v>5000</v>
       </c>
       <c r="G112" t="n">
+        <v>4.133266666666665</v>
+      </c>
+      <c r="H112" t="n">
         <v>4.087033333333335</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +5231,27 @@
         <v>8946</v>
       </c>
       <c r="G113" t="n">
+        <v>4.138199999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>4.088700000000001</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +5275,27 @@
         <v>14703</v>
       </c>
       <c r="G114" t="n">
+        <v>4.143266666666665</v>
+      </c>
+      <c r="H114" t="n">
         <v>4.090483333333335</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +5319,27 @@
         <v>388588.2511</v>
       </c>
       <c r="G115" t="n">
+        <v>4.149866666666664</v>
+      </c>
+      <c r="H115" t="n">
         <v>4.092816666666669</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +5363,27 @@
         <v>47038.9971</v>
       </c>
       <c r="G116" t="n">
+        <v>4.155799999999997</v>
+      </c>
+      <c r="H116" t="n">
         <v>4.094983333333335</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5407,27 @@
         <v>163579.3796</v>
       </c>
       <c r="G117" t="n">
+        <v>4.162733333333331</v>
+      </c>
+      <c r="H117" t="n">
         <v>4.098300000000002</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5451,27 @@
         <v>71395.2248</v>
       </c>
       <c r="G118" t="n">
+        <v>4.169666666666664</v>
+      </c>
+      <c r="H118" t="n">
         <v>4.101616666666668</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,19 +5495,28 @@
         <v>85560</v>
       </c>
       <c r="G119" t="n">
+        <v>4.177266666666664</v>
+      </c>
+      <c r="H119" t="n">
         <v>4.105150000000003</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
+      <c r="L119" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1.057405636638148</v>
       </c>
     </row>
     <row r="120">
@@ -4594,18 +5539,21 @@
         <v>120.366</v>
       </c>
       <c r="G120" t="n">
+        <v>4.182866666666665</v>
+      </c>
+      <c r="H120" t="n">
         <v>4.108166666666669</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5577,21 @@
         <v>1503.7187</v>
       </c>
       <c r="G121" t="n">
+        <v>4.187866666666665</v>
+      </c>
+      <c r="H121" t="n">
         <v>4.111566666666669</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5615,21 @@
         <v>38849.0554</v>
       </c>
       <c r="G122" t="n">
+        <v>4.190799999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>4.114650000000003</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5653,21 @@
         <v>250000</v>
       </c>
       <c r="G123" t="n">
+        <v>4.192399999999998</v>
+      </c>
+      <c r="H123" t="n">
         <v>4.117566666666669</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5691,21 @@
         <v>270000</v>
       </c>
       <c r="G124" t="n">
+        <v>4.192733333333332</v>
+      </c>
+      <c r="H124" t="n">
         <v>4.120483333333336</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5729,21 @@
         <v>8285.230799999999</v>
       </c>
       <c r="G125" t="n">
+        <v>4.194399999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>4.123816666666669</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5767,21 @@
         <v>5000</v>
       </c>
       <c r="G126" t="n">
+        <v>4.194733333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>4.126983333333336</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5805,21 @@
         <v>155000</v>
       </c>
       <c r="G127" t="n">
+        <v>4.1934</v>
+      </c>
+      <c r="H127" t="n">
         <v>4.128750000000003</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5843,21 @@
         <v>9491.094999999999</v>
       </c>
       <c r="G128" t="n">
+        <v>4.191399999999999</v>
+      </c>
+      <c r="H128" t="n">
         <v>4.13116666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5881,21 @@
         <v>3877.804</v>
       </c>
       <c r="G129" t="n">
+        <v>4.189266666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>4.13276666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5919,21 @@
         <v>304.3738</v>
       </c>
       <c r="G130" t="n">
+        <v>4.185599999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>4.13376666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5957,21 @@
         <v>506.4118</v>
       </c>
       <c r="G131" t="n">
+        <v>4.1826</v>
+      </c>
+      <c r="H131" t="n">
         <v>4.134683333333337</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5995,21 @@
         <v>57359</v>
       </c>
       <c r="G132" t="n">
+        <v>4.1776</v>
+      </c>
+      <c r="H132" t="n">
         <v>4.135350000000003</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +6033,21 @@
         <v>251226.5009</v>
       </c>
       <c r="G133" t="n">
+        <v>4.1742</v>
+      </c>
+      <c r="H133" t="n">
         <v>4.13641666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +6071,21 @@
         <v>19660.5085</v>
       </c>
       <c r="G134" t="n">
+        <v>4.170666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>4.13756666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +6109,21 @@
         <v>3776</v>
       </c>
       <c r="G135" t="n">
+        <v>4.167266666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>4.139450000000003</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +6147,21 @@
         <v>35187.7988</v>
       </c>
       <c r="G136" t="n">
+        <v>4.164199999999999</v>
+      </c>
+      <c r="H136" t="n">
         <v>4.141800000000003</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +6185,21 @@
         <v>126034.189</v>
       </c>
       <c r="G137" t="n">
+        <v>4.160533333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>4.143500000000003</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +6223,21 @@
         <v>60967.5327</v>
       </c>
       <c r="G138" t="n">
+        <v>4.160133333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>4.14481666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +6261,21 @@
         <v>10025.7138</v>
       </c>
       <c r="G139" t="n">
+        <v>4.159733333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>4.146633333333337</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +6299,21 @@
         <v>1000</v>
       </c>
       <c r="G140" t="n">
+        <v>4.157666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>4.14761666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +6337,21 @@
         <v>143565.4328</v>
       </c>
       <c r="G141" t="n">
+        <v>4.155933333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>4.149100000000003</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +6375,21 @@
         <v>637.9804</v>
       </c>
       <c r="G142" t="n">
+        <v>4.156533333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>4.15071666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +6413,21 @@
         <v>184549.05253058</v>
       </c>
       <c r="G143" t="n">
+        <v>4.1578</v>
+      </c>
+      <c r="H143" t="n">
         <v>4.151900000000003</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6451,21 @@
         <v>2485.2648</v>
       </c>
       <c r="G144" t="n">
+        <v>4.1598</v>
+      </c>
+      <c r="H144" t="n">
         <v>4.152900000000003</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6489,21 @@
         <v>1370</v>
       </c>
       <c r="G145" t="n">
+        <v>4.161133333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>4.153816666666669</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6527,21 @@
         <v>10666.0931</v>
       </c>
       <c r="G146" t="n">
+        <v>4.161733333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>4.154550000000003</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6565,21 @@
         <v>28402</v>
       </c>
       <c r="G147" t="n">
+        <v>4.161733333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>4.154716666666669</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6603,21 @@
         <v>187009.5905</v>
       </c>
       <c r="G148" t="n">
+        <v>4.1608</v>
+      </c>
+      <c r="H148" t="n">
         <v>4.154716666666669</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6641,21 @@
         <v>220439</v>
       </c>
       <c r="G149" t="n">
+        <v>4.158533333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>4.154883333333336</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6679,21 @@
         <v>128706</v>
       </c>
       <c r="G150" t="n">
+        <v>4.1558</v>
+      </c>
+      <c r="H150" t="n">
         <v>4.154300000000003</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6717,21 @@
         <v>80496</v>
       </c>
       <c r="G151" t="n">
+        <v>4.1512</v>
+      </c>
+      <c r="H151" t="n">
         <v>4.15371666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6755,21 @@
         <v>120640.2297</v>
       </c>
       <c r="G152" t="n">
+        <v>4.148533333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>4.153383333333336</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6793,21 @@
         <v>1855.3264</v>
       </c>
       <c r="G153" t="n">
+        <v>4.1466</v>
+      </c>
+      <c r="H153" t="n">
         <v>4.153716666666669</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6831,21 @@
         <v>68676</v>
       </c>
       <c r="G154" t="n">
+        <v>4.144666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>4.154450000000002</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6869,21 @@
         <v>78264.99460000001</v>
       </c>
       <c r="G155" t="n">
+        <v>4.142733333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>4.154550000000001</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6907,21 @@
         <v>1000</v>
       </c>
       <c r="G156" t="n">
+        <v>4.139133333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>4.154533333333335</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6945,21 @@
         <v>25644.6107</v>
       </c>
       <c r="G157" t="n">
+        <v>4.134866666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>4.154516666666668</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6983,21 @@
         <v>37136.7805</v>
       </c>
       <c r="G158" t="n">
+        <v>4.130266666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>4.154416666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +7021,21 @@
         <v>67850.7659</v>
       </c>
       <c r="G159" t="n">
+        <v>4.124933333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>4.154316666666668</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +7059,21 @@
         <v>157241.2734</v>
       </c>
       <c r="G160" t="n">
+        <v>4.1152</v>
+      </c>
+      <c r="H160" t="n">
         <v>4.152950000000001</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +7097,21 @@
         <v>1301282.5034</v>
       </c>
       <c r="G161" t="n">
+        <v>4.111866666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>4.153000000000001</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +7135,21 @@
         <v>963345.7201</v>
       </c>
       <c r="G162" t="n">
+        <v>4.105933333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>4.152000000000002</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +7173,21 @@
         <v>101579.7179</v>
       </c>
       <c r="G163" t="n">
+        <v>4.099066666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>4.150933333333335</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +7211,21 @@
         <v>135297.0169</v>
       </c>
       <c r="G164" t="n">
+        <v>4.092533333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>4.149750000000002</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +7249,21 @@
         <v>2500</v>
       </c>
       <c r="G165" t="n">
+        <v>4.0928</v>
+      </c>
+      <c r="H165" t="n">
         <v>4.149683333333335</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +7287,21 @@
         <v>123526.686</v>
       </c>
       <c r="G166" t="n">
+        <v>4.091933333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>4.148800000000002</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +7325,21 @@
         <v>191329.4574</v>
       </c>
       <c r="G167" t="n">
+        <v>4.086133333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>4.146500000000001</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +7363,21 @@
         <v>864042.4631000001</v>
       </c>
       <c r="G168" t="n">
+        <v>4.080666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>4.144950000000001</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +7401,21 @@
         <v>208980</v>
       </c>
       <c r="G169" t="n">
+        <v>4.0746</v>
+      </c>
+      <c r="H169" t="n">
         <v>4.142933333333335</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +7439,21 @@
         <v>117109.1942</v>
       </c>
       <c r="G170" t="n">
+        <v>4.0682</v>
+      </c>
+      <c r="H170" t="n">
         <v>4.140750000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7477,21 @@
         <v>200</v>
       </c>
       <c r="G171" t="n">
+        <v>4.0652</v>
+      </c>
+      <c r="H171" t="n">
         <v>4.138750000000002</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7515,21 @@
         <v>3130</v>
       </c>
       <c r="G172" t="n">
+        <v>4.060199999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>4.136250000000001</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7553,21 @@
         <v>402.8403</v>
       </c>
       <c r="G173" t="n">
+        <v>4.0558</v>
+      </c>
+      <c r="H173" t="n">
         <v>4.133816666666668</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +7591,21 @@
         <v>57519.7677</v>
       </c>
       <c r="G174" t="n">
+        <v>4.051399999999999</v>
+      </c>
+      <c r="H174" t="n">
         <v>4.131350000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7629,21 @@
         <v>118925.7672</v>
       </c>
       <c r="G175" t="n">
+        <v>4.052133333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>4.128516666666668</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7667,21 @@
         <v>1340258.6655</v>
       </c>
       <c r="G176" t="n">
+        <v>4.047066666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>4.125816666666668</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7705,21 @@
         <v>115908.05488561</v>
       </c>
       <c r="G177" t="n">
+        <v>4.049399999999999</v>
+      </c>
+      <c r="H177" t="n">
         <v>4.123666666666668</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +7743,21 @@
         <v>88867.65021439</v>
       </c>
       <c r="G178" t="n">
+        <v>4.051999999999999</v>
+      </c>
+      <c r="H178" t="n">
         <v>4.121516666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +7781,21 @@
         <v>2355.3165</v>
       </c>
       <c r="G179" t="n">
+        <v>4.055866666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>4.119400000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7819,21 @@
         <v>73833.8118</v>
       </c>
       <c r="G180" t="n">
+        <v>4.054333333333332</v>
+      </c>
+      <c r="H180" t="n">
         <v>4.11755</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7857,21 @@
         <v>75054.26360000001</v>
       </c>
       <c r="G181" t="n">
+        <v>4.053933333333332</v>
+      </c>
+      <c r="H181" t="n">
         <v>4.115316666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +7895,21 @@
         <v>82344.38508561</v>
       </c>
       <c r="G182" t="n">
+        <v>4.058466666666666</v>
+      </c>
+      <c r="H182" t="n">
         <v>4.113416666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +7933,21 @@
         <v>4301</v>
       </c>
       <c r="G183" t="n">
+        <v>4.057266666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>4.111166666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +7971,21 @@
         <v>27883.7662</v>
       </c>
       <c r="G184" t="n">
+        <v>4.059199999999999</v>
+      </c>
+      <c r="H184" t="n">
         <v>4.10955</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +8009,21 @@
         <v>450585.2813</v>
       </c>
       <c r="G185" t="n">
+        <v>4.058866666666665</v>
+      </c>
+      <c r="H185" t="n">
         <v>4.106866666666666</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +8047,21 @@
         <v>150870.1905</v>
       </c>
       <c r="G186" t="n">
+        <v>4.061266666666666</v>
+      </c>
+      <c r="H186" t="n">
         <v>4.105383333333332</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +8085,21 @@
         <v>188.5263</v>
       </c>
       <c r="G187" t="n">
+        <v>4.062533333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>4.103533333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +8123,21 @@
         <v>18520</v>
       </c>
       <c r="G188" t="n">
+        <v>4.064199999999999</v>
+      </c>
+      <c r="H188" t="n">
         <v>4.102016666666666</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +8161,21 @@
         <v>1032.4294</v>
       </c>
       <c r="G189" t="n">
+        <v>4.065199999999999</v>
+      </c>
+      <c r="H189" t="n">
         <v>4.100333333333332</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,18 +8199,21 @@
         <v>17334.2002</v>
       </c>
       <c r="G190" t="n">
+        <v>4.066133333333332</v>
+      </c>
+      <c r="H190" t="n">
         <v>4.098649999999999</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7079,18 +8237,21 @@
         <v>112370.5127</v>
       </c>
       <c r="G191" t="n">
+        <v>4.065933333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>4.096649999999999</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,18 +8275,21 @@
         <v>200</v>
       </c>
       <c r="G192" t="n">
+        <v>4.0638</v>
+      </c>
+      <c r="H192" t="n">
         <v>4.095216666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7149,18 +8313,21 @@
         <v>11815.7186</v>
       </c>
       <c r="G193" t="n">
+        <v>4.061066666666666</v>
+      </c>
+      <c r="H193" t="n">
         <v>4.093233333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,18 +8351,21 @@
         <v>50000</v>
       </c>
       <c r="G194" t="n">
+        <v>4.056866666666666</v>
+      </c>
+      <c r="H194" t="n">
         <v>4.090949999999999</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,18 +8389,21 @@
         <v>124044.6807</v>
       </c>
       <c r="G195" t="n">
+        <v>4.054733333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>4.089416666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,18 +8427,21 @@
         <v>7915</v>
       </c>
       <c r="G196" t="n">
+        <v>4.0526</v>
+      </c>
+      <c r="H196" t="n">
         <v>4.087416666666666</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,18 +8465,21 @@
         <v>97295.26270000001</v>
       </c>
       <c r="G197" t="n">
+        <v>4.049333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>4.085616666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,18 +8503,21 @@
         <v>27000</v>
       </c>
       <c r="G198" t="n">
+        <v>4.049933333333334</v>
+      </c>
+      <c r="H198" t="n">
         <v>4.083616666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7359,18 +8541,21 @@
         <v>1497</v>
       </c>
       <c r="G199" t="n">
+        <v>4.048</v>
+      </c>
+      <c r="H199" t="n">
         <v>4.081616666666666</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,18 +8579,21 @@
         <v>2054.2264</v>
       </c>
       <c r="G200" t="n">
+        <v>4.047466666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>4.079316666666666</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,18 +8617,21 @@
         <v>50000</v>
       </c>
       <c r="G201" t="n">
+        <v>4.0428</v>
+      </c>
+      <c r="H201" t="n">
         <v>4.0771</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7464,18 +8655,21 @@
         <v>305906.8413</v>
       </c>
       <c r="G202" t="n">
+        <v>4.042800000000001</v>
+      </c>
+      <c r="H202" t="n">
         <v>4.0751</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,18 +8693,21 @@
         <v>133517.4486</v>
       </c>
       <c r="G203" t="n">
+        <v>4.042133333333334</v>
+      </c>
+      <c r="H203" t="n">
         <v>4.0731</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,18 +8731,21 @@
         <v>133517.4486</v>
       </c>
       <c r="G204" t="n">
+        <v>4.0404</v>
+      </c>
+      <c r="H204" t="n">
         <v>4.070483333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,18 +8769,21 @@
         <v>118653.6968</v>
       </c>
       <c r="G205" t="n">
+        <v>4.0386</v>
+      </c>
+      <c r="H205" t="n">
         <v>4.068016666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7604,18 +8807,21 @@
         <v>400</v>
       </c>
       <c r="G206" t="n">
+        <v>4.039866666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>4.066183333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,18 +8845,21 @@
         <v>66708</v>
       </c>
       <c r="G207" t="n">
+        <v>4.039866666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>4.06475</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7674,18 +8883,21 @@
         <v>333.3728</v>
       </c>
       <c r="G208" t="n">
+        <v>4.039466666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>4.0629</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,18 +8921,21 @@
         <v>18755</v>
       </c>
       <c r="G209" t="n">
+        <v>4.0406</v>
+      </c>
+      <c r="H209" t="n">
         <v>4.061466666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7744,18 +8959,21 @@
         <v>425755</v>
       </c>
       <c r="G210" t="n">
+        <v>4.042200000000001</v>
+      </c>
+      <c r="H210" t="n">
         <v>4.061016666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7779,18 +8997,21 @@
         <v>557098.59677488</v>
       </c>
       <c r="G211" t="n">
+        <v>4.041533333333335</v>
+      </c>
+      <c r="H211" t="n">
         <v>4.06</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,18 +9035,21 @@
         <v>90020</v>
       </c>
       <c r="G212" t="n">
+        <v>4.044266666666668</v>
+      </c>
+      <c r="H212" t="n">
         <v>4.059550000000001</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7849,18 +9073,21 @@
         <v>75020</v>
       </c>
       <c r="G213" t="n">
+        <v>4.045866666666668</v>
+      </c>
+      <c r="H213" t="n">
         <v>4.058433333333334</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7884,18 +9111,21 @@
         <v>160040</v>
       </c>
       <c r="G214" t="n">
+        <v>4.047466666666669</v>
+      </c>
+      <c r="H214" t="n">
         <v>4.057316666666668</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,18 +9149,21 @@
         <v>82212</v>
       </c>
       <c r="G215" t="n">
+        <v>4.050266666666668</v>
+      </c>
+      <c r="H215" t="n">
         <v>4.056200000000001</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7954,18 +9187,21 @@
         <v>4590</v>
       </c>
       <c r="G216" t="n">
+        <v>4.053400000000002</v>
+      </c>
+      <c r="H216" t="n">
         <v>4.055666666666669</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7989,18 +9225,21 @@
         <v>146195</v>
       </c>
       <c r="G217" t="n">
+        <v>4.055000000000001</v>
+      </c>
+      <c r="H217" t="n">
         <v>4.055133333333336</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8024,18 +9263,21 @@
         <v>58147</v>
       </c>
       <c r="G218" t="n">
+        <v>4.057666666666669</v>
+      </c>
+      <c r="H218" t="n">
         <v>4.054950000000002</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,18 +9301,21 @@
         <v>29104</v>
       </c>
       <c r="G219" t="n">
+        <v>4.062066666666669</v>
+      </c>
+      <c r="H219" t="n">
         <v>4.054766666666669</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,18 +9339,21 @@
         <v>15000</v>
       </c>
       <c r="G220" t="n">
+        <v>4.066533333333336</v>
+      </c>
+      <c r="H220" t="n">
         <v>4.055850000000002</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8129,18 +9377,21 @@
         <v>6820</v>
       </c>
       <c r="G221" t="n">
+        <v>4.069200000000003</v>
+      </c>
+      <c r="H221" t="n">
         <v>4.055516666666668</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8164,18 +9415,21 @@
         <v>347157.84222512</v>
       </c>
       <c r="G222" t="n">
+        <v>4.07186666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>4.056233333333336</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8199,18 +9453,21 @@
         <v>45000</v>
       </c>
       <c r="G223" t="n">
+        <v>4.075600000000003</v>
+      </c>
+      <c r="H223" t="n">
         <v>4.057033333333336</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8234,18 +9491,21 @@
         <v>10000</v>
       </c>
       <c r="G224" t="n">
+        <v>4.078866666666671</v>
+      </c>
+      <c r="H224" t="n">
         <v>4.058050000000002</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8269,18 +9529,21 @@
         <v>5000</v>
       </c>
       <c r="G225" t="n">
+        <v>4.080533333333338</v>
+      </c>
+      <c r="H225" t="n">
         <v>4.057950000000003</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8304,18 +9567,21 @@
         <v>14873.1839</v>
       </c>
       <c r="G226" t="n">
+        <v>4.084133333333337</v>
+      </c>
+      <c r="H226" t="n">
         <v>4.058050000000002</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8339,18 +9605,21 @@
         <v>21000</v>
       </c>
       <c r="G227" t="n">
+        <v>4.085933333333337</v>
+      </c>
+      <c r="H227" t="n">
         <v>4.059500000000003</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8374,18 +9643,21 @@
         <v>51588.274</v>
       </c>
       <c r="G228" t="n">
+        <v>4.087533333333337</v>
+      </c>
+      <c r="H228" t="n">
         <v>4.060150000000003</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8409,18 +9681,21 @@
         <v>3202.4959</v>
       </c>
       <c r="G229" t="n">
+        <v>4.089133333333337</v>
+      </c>
+      <c r="H229" t="n">
         <v>4.060950000000003</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8444,18 +9719,21 @@
         <v>4881.62069807</v>
       </c>
       <c r="G230" t="n">
+        <v>4.090733333333337</v>
+      </c>
+      <c r="H230" t="n">
         <v>4.061833333333336</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8479,18 +9757,21 @@
         <v>132439</v>
       </c>
       <c r="G231" t="n">
+        <v>4.09166666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>4.062283333333336</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8514,18 +9795,21 @@
         <v>18755</v>
       </c>
       <c r="G232" t="n">
+        <v>4.092600000000003</v>
+      </c>
+      <c r="H232" t="n">
         <v>4.063233333333335</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8549,18 +9833,21 @@
         <v>503871</v>
       </c>
       <c r="G233" t="n">
+        <v>4.093266666666669</v>
+      </c>
+      <c r="H233" t="n">
         <v>4.064316666666668</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8584,18 +9871,21 @@
         <v>100000</v>
       </c>
       <c r="G234" t="n">
+        <v>4.09446666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>4.065533333333335</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8619,18 +9909,21 @@
         <v>5000</v>
       </c>
       <c r="G235" t="n">
+        <v>4.09566666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>4.066733333333335</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8654,18 +9947,21 @@
         <v>580.7055</v>
       </c>
       <c r="G236" t="n">
+        <v>4.09686666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>4.067966666666669</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8689,18 +9985,21 @@
         <v>75376.50109999999</v>
       </c>
       <c r="G237" t="n">
+        <v>4.09806666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>4.068400000000002</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8724,18 +10023,21 @@
         <v>2500</v>
       </c>
       <c r="G238" t="n">
+        <v>4.100400000000003</v>
+      </c>
+      <c r="H238" t="n">
         <v>4.069133333333336</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8759,18 +10061,401 @@
         <v>2500</v>
       </c>
       <c r="G239" t="n">
+        <v>4.103533333333336</v>
+      </c>
+      <c r="H239" t="n">
         <v>4.069966666666669</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.084</v>
+      </c>
+      <c r="D240" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4.084</v>
+      </c>
+      <c r="F240" t="n">
+        <v>22322.1814</v>
+      </c>
+      <c r="G240" t="n">
+        <v>4.102600000000003</v>
+      </c>
+      <c r="H240" t="n">
+        <v>4.07001666666667</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4.087</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4.087</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4.087</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4.087</v>
+      </c>
+      <c r="F241" t="n">
+        <v>11689.941</v>
+      </c>
+      <c r="G241" t="n">
+        <v>4.102200000000003</v>
+      </c>
+      <c r="H241" t="n">
+        <v>4.07011666666667</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="F242" t="n">
+        <v>385.6821</v>
+      </c>
+      <c r="G242" t="n">
+        <v>4.102800000000003</v>
+      </c>
+      <c r="H242" t="n">
+        <v>4.070583333333337</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="F243" t="n">
+        <v>37755.6163</v>
+      </c>
+      <c r="G243" t="n">
+        <v>4.103600000000003</v>
+      </c>
+      <c r="H243" t="n">
+        <v>4.071733333333337</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="F244" t="n">
+        <v>35249.8962</v>
+      </c>
+      <c r="G244" t="n">
+        <v>4.104400000000003</v>
+      </c>
+      <c r="H244" t="n">
+        <v>4.072250000000004</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4.144</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4.144</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4.144</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4.144</v>
+      </c>
+      <c r="F245" t="n">
+        <v>185.3265</v>
+      </c>
+      <c r="G245" t="n">
+        <v>4.107533333333335</v>
+      </c>
+      <c r="H245" t="n">
+        <v>4.074000000000004</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="F246" t="n">
+        <v>408.2735</v>
+      </c>
+      <c r="G246" t="n">
+        <v>4.109000000000003</v>
+      </c>
+      <c r="H246" t="n">
+        <v>4.074216666666671</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4.134</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.134</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="F247" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G247" t="n">
+        <v>4.112133333333335</v>
+      </c>
+      <c r="H247" t="n">
+        <v>4.075633333333338</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="F248" t="n">
+        <v>8903.0604</v>
+      </c>
+      <c r="G248" t="n">
+        <v>4.114133333333336</v>
+      </c>
+      <c r="H248" t="n">
+        <v>4.076800000000004</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F249" t="n">
+        <v>38639.6255</v>
+      </c>
+      <c r="G249" t="n">
+        <v>4.115600000000002</v>
+      </c>
+      <c r="H249" t="n">
+        <v>4.078133333333337</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest XVG.xlsx
+++ b/BackTest/2020-01-16 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N307"/>
+  <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1151912.90627787</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-1081504.90627787</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="J3" t="n">
         <v>3.92</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-1210619.30087787</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.959</v>
       </c>
       <c r="J4" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-1214719.30087787</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.941</v>
       </c>
       <c r="J5" t="n">
-        <v>3.941</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>-1203724.065877869</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="J6" t="n">
         <v>3.92</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>-1203569.065877869</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.968</v>
       </c>
       <c r="J7" t="n">
-        <v>3.968</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>-1203569.065877869</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="J8" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>-1203569.065877869</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="J9" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,21 @@
         <v>-1203569.065877869</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +806,21 @@
         <v>-1203431.479577869</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -886,22 +847,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,22 +886,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -970,22 +925,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1012,22 +964,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1054,22 +1003,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1096,22 +1042,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1138,22 +1081,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1180,22 +1120,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1222,22 +1159,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1264,22 +1198,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1306,22 +1237,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1348,22 +1276,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1390,22 +1315,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1432,22 +1354,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1474,22 +1393,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1516,22 +1432,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1558,22 +1471,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1600,22 +1510,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1642,22 +1549,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1684,22 +1588,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1726,22 +1627,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1768,22 +1666,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1810,22 +1705,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1852,22 +1744,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1894,22 +1783,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1936,22 +1822,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1978,22 +1861,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2020,22 +1900,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2062,22 +1939,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2104,22 +1978,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2146,22 +2017,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2188,22 +2056,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2230,22 +2095,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2272,22 +2134,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2314,22 +2173,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2356,22 +2212,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2398,22 +2251,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2440,22 +2290,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2482,22 +2329,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2524,22 +2368,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2566,22 +2407,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2608,22 +2446,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2650,22 +2485,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2692,22 +2524,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2734,22 +2563,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2776,22 +2602,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2818,22 +2641,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2860,22 +2680,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2902,22 +2719,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2944,22 +2758,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2986,22 +2797,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3028,22 +2836,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3070,22 +2875,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3112,22 +2914,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3154,22 +2953,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3196,22 +2992,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3238,22 +3031,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3278,26 +3068,21 @@
         <v>-2061011.10697787</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L69" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3322,26 +3107,21 @@
         <v>-2061011.10697787</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L70" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3366,26 +3146,21 @@
         <v>-2030088.60697787</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L71" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3410,26 +3185,21 @@
         <v>-2025923.58967787</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L72" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3454,26 +3224,21 @@
         <v>-2043583.58967787</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L73" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3498,26 +3263,21 @@
         <v>-2043814.95907787</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L74" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3542,26 +3302,21 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="K75" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3586,26 +3341,21 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>3.92</v>
       </c>
-      <c r="K76" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3630,26 +3380,21 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>3.92</v>
       </c>
-      <c r="K77" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3674,26 +3419,21 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>3.92</v>
       </c>
-      <c r="K78" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3718,26 +3458,21 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>3.92</v>
       </c>
-      <c r="K79" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3762,26 +3497,21 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>3.92</v>
       </c>
-      <c r="K80" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3806,26 +3536,21 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="K81" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3850,26 +3575,21 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="K82" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3894,26 +3614,21 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="K83" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3938,26 +3653,21 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="K84" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L84" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3982,26 +3692,21 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="K85" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L85" t="inlineStr">
+        <v>3.92</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4028,22 +3733,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4070,22 +3772,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4112,22 +3811,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4154,22 +3850,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4196,22 +3889,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4238,22 +3928,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4280,22 +3967,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4322,22 +4006,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4364,22 +4045,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4404,24 +4082,21 @@
         <v>-2606090.41547787</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L95" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1.030714285714286</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4448,22 +4123,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4490,22 +4156,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4532,22 +4189,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4574,22 +4222,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4616,22 +4255,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4658,22 +4288,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4700,22 +4321,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4742,22 +4354,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4784,22 +4387,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4826,22 +4420,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4868,22 +4453,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4910,22 +4486,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4952,22 +4519,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4994,22 +4552,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5036,22 +4585,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5078,22 +4618,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5118,24 +4649,15 @@
         <v>-2435875.25706579</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5162,22 +4684,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5204,22 +4717,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5244,24 +4748,15 @@
         <v>-2725925.14716579</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5288,22 +4783,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5330,22 +4816,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5372,22 +4849,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5414,22 +4882,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5456,22 +4915,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5496,24 +4946,15 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5540,22 +4981,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5580,24 +5012,15 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5624,22 +5047,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5666,22 +5080,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5708,22 +5113,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5750,22 +5146,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5792,22 +5179,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5834,22 +5212,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5876,22 +5245,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5918,22 +5278,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5960,22 +5311,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6002,22 +5344,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6044,22 +5377,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6086,22 +5410,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6128,22 +5443,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6170,22 +5476,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6212,22 +5509,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6254,22 +5542,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6296,22 +5575,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6338,22 +5608,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6380,22 +5641,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6422,22 +5674,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6464,22 +5707,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6506,22 +5740,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6548,22 +5773,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6590,22 +5806,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6632,22 +5839,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6674,22 +5872,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6716,22 +5905,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6758,22 +5938,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6800,22 +5971,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6842,22 +6004,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6884,22 +6037,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6926,22 +6070,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6968,22 +6103,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7010,22 +6136,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7052,22 +6169,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7094,22 +6202,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7136,22 +6235,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7178,22 +6268,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7220,22 +6301,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7262,22 +6334,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7304,22 +6367,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7346,22 +6400,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7388,22 +6433,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7430,22 +6466,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7472,22 +6499,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7514,22 +6532,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7554,24 +6563,15 @@
         <v>-1025811.61577534</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7596,24 +6596,15 @@
         <v>-1025811.61577534</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7640,22 +6631,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7682,24 +6664,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1.067704081632653</v>
-      </c>
-      <c r="N173" t="n">
-        <v>1.009948979591837</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7726,16 +6697,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7762,16 +6730,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7798,16 +6763,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7834,16 +6796,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7868,18 +6827,15 @@
         <v>-420540.3481753398</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7904,18 +6860,15 @@
         <v>-419036.6294753398</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7940,18 +6893,15 @@
         <v>-457885.6848753398</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7976,18 +6926,15 @@
         <v>-707885.6848753397</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8012,18 +6959,15 @@
         <v>-707885.6848753397</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8048,18 +6992,15 @@
         <v>-699600.4540753397</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8084,18 +7025,15 @@
         <v>-704600.4540753397</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8120,18 +7058,15 @@
         <v>-859600.4540753397</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8156,18 +7091,15 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8192,18 +7124,15 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8228,18 +7157,15 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8264,18 +7190,15 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8300,18 +7223,15 @@
         <v>-926450.5490753397</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8336,18 +7256,15 @@
         <v>-675224.0481753397</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8372,18 +7289,15 @@
         <v>-655563.5396753397</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8408,18 +7322,15 @@
         <v>-659339.5396753397</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8444,18 +7355,15 @@
         <v>-624151.7408753397</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8482,16 +7390,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8516,18 +7421,15 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8554,16 +7456,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8590,16 +7489,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8626,16 +7522,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8662,16 +7555,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8698,16 +7588,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8734,16 +7621,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8770,16 +7654,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8806,16 +7687,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8842,16 +7720,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8878,16 +7753,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8914,16 +7786,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8950,16 +7819,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8986,16 +7852,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9022,16 +7885,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9056,18 +7916,15 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9092,18 +7949,15 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9130,16 +7984,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9166,16 +8017,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9202,16 +8050,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9238,16 +8083,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9274,16 +8116,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9308,18 +8147,15 @@
         <v>-1225756.81487534</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9344,18 +8180,15 @@
         <v>75525.68852466019</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9380,18 +8213,15 @@
         <v>-887820.0315753398</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9416,18 +8246,15 @@
         <v>-989399.7494753399</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9452,18 +8279,15 @@
         <v>-1124696.76637534</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9488,18 +8312,15 @@
         <v>-1122196.76637534</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9524,18 +8345,15 @@
         <v>-1245723.45237534</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9560,18 +8378,15 @@
         <v>-1437052.90977534</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9596,18 +8411,15 @@
         <v>-573010.4466753397</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9634,16 +8446,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9668,18 +8477,15 @@
         <v>-899099.6408753397</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9706,16 +8512,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9742,16 +8545,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9776,18 +8576,15 @@
         <v>-901626.8005753397</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9812,18 +8609,15 @@
         <v>-901626.8005753397</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9850,16 +8644,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9884,18 +8675,15 @@
         <v>-2122959.69887534</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9922,16 +8710,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9958,16 +8743,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9994,16 +8776,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10030,16 +8809,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10066,16 +8842,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10102,16 +8875,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10138,16 +8908,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10174,16 +8941,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10210,16 +8974,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10246,16 +9007,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10282,16 +9040,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10318,16 +9073,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10354,16 +9106,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10390,16 +9139,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10426,16 +9172,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10462,16 +9205,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10498,16 +9238,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10534,16 +9271,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10570,16 +9304,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10606,16 +9337,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10642,16 +9370,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10678,16 +9403,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10714,16 +9436,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10750,16 +9469,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10786,16 +9502,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10822,16 +9535,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10858,16 +9568,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10894,16 +9601,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10930,16 +9634,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10966,16 +9667,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11002,16 +9700,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -11038,16 +9733,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11074,16 +9766,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11110,16 +9799,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11146,16 +9832,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11182,16 +9865,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11218,16 +9898,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11254,16 +9931,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11290,16 +9964,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11326,16 +9997,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11362,16 +10030,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11398,16 +10063,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11434,16 +10096,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11470,16 +10129,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11506,16 +10162,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11542,16 +10195,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11578,16 +10228,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11614,16 +10261,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11650,16 +10294,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11686,16 +10327,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11722,16 +10360,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11758,16 +10393,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11794,16 +10426,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11830,16 +10459,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11866,16 +10492,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11902,16 +10525,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11938,16 +10558,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11974,16 +10591,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -12010,16 +10624,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -12044,18 +10655,15 @@
         <v>-1939303.190864609</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -12080,18 +10688,15 @@
         <v>-1939303.190864609</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -12118,16 +10723,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -12154,16 +10756,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -12190,16 +10789,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -12226,16 +10822,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12262,16 +10855,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12296,18 +10886,15 @@
         <v>-1944549.749164609</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12332,18 +10919,15 @@
         <v>-1944549.749164609</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12368,18 +10952,15 @@
         <v>-1944364.422664609</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12406,16 +10987,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12442,16 +11020,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12478,16 +11053,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12514,18 +11086,15 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XVG.xlsx
+++ b/BackTest/2020-01-16 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1151912.90627787</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-1081504.90627787</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-1210619.30087787</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-1214719.30087787</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.941</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-1203724.065877869</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-1203569.065877869</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.968</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-1203569.065877869</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>-1203569.065877869</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -770,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -809,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -848,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -887,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -926,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -965,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1004,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1043,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1121,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1160,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1199,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1238,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1277,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1316,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1355,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1394,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1433,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1472,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1511,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1550,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1589,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1628,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1667,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1706,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1745,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1784,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1823,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1862,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1901,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1940,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1979,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2018,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2057,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2135,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2174,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2213,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2291,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2330,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2369,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2408,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2447,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2486,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2525,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2564,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2603,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2642,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2681,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2720,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2759,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2798,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2837,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2876,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2915,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2954,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2993,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3110,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3149,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3185,17 +2761,15 @@
         <v>-2025923.58967787</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.934</v>
+      </c>
       <c r="J72" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.934</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3224,15 +2798,17 @@
         <v>-2043583.58967787</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.989</v>
+      </c>
       <c r="J73" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -3263,11 +2839,13 @@
         <v>-2043814.95907787</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.974</v>
+      </c>
       <c r="J74" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3302,11 +2880,13 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.921</v>
+      </c>
       <c r="J75" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3341,11 +2921,13 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.92</v>
+      </c>
       <c r="J76" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3380,11 +2962,13 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.92</v>
+      </c>
       <c r="J77" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3419,11 +3003,13 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.92</v>
+      </c>
       <c r="J78" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3458,11 +3044,13 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.92</v>
+      </c>
       <c r="J79" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3497,11 +3085,13 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.92</v>
+      </c>
       <c r="J80" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3536,11 +3126,13 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.974</v>
+      </c>
       <c r="J81" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3575,11 +3167,13 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.974</v>
+      </c>
       <c r="J82" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3614,11 +3208,13 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.974</v>
+      </c>
       <c r="J83" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3653,11 +3249,13 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.974</v>
+      </c>
       <c r="J84" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3692,11 +3290,13 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.974</v>
+      </c>
       <c r="J85" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3731,11 +3331,13 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.974</v>
+      </c>
       <c r="J86" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3770,11 +3372,13 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.974</v>
+      </c>
       <c r="J87" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3809,11 +3413,13 @@
         <v>-2209149.30527787</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.974</v>
+      </c>
       <c r="J88" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3852,7 +3458,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3891,7 +3497,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3930,7 +3536,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3969,7 +3575,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4008,7 +3614,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4047,7 +3653,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4082,19 +3688,19 @@
         <v>-2606090.41547787</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>3.92</v>
+        <v>3.934</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.030714285714286</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -4124,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4157,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4190,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4223,8 +3847,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4256,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4289,8 +3925,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4322,8 +3964,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4355,8 +4003,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4388,8 +4042,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4421,8 +4081,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4454,8 +4120,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4487,8 +4159,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4520,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4553,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4586,8 +4276,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4619,8 +4315,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4649,11 +4351,17 @@
         <v>-2435875.25706579</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4685,8 +4393,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4718,8 +4432,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4748,11 +4468,17 @@
         <v>-2725925.14716579</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4784,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4817,8 +4549,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4850,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4883,8 +4627,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +4663,19 @@
         <v>-2688933.97596579</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>4.011</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4948,9 +4706,17 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4979,11 +4745,19 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5012,11 +4786,17 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5048,8 +4828,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5081,8 +4867,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5114,8 +4906,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +4945,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5180,8 +4984,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5213,8 +5023,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5246,8 +5062,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5279,8 +5101,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5312,8 +5140,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5345,8 +5179,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5378,8 +5218,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5411,8 +5257,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5444,8 +5296,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5477,8 +5335,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5510,8 +5374,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5543,8 +5413,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5576,8 +5452,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5609,8 +5491,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5642,8 +5530,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5675,8 +5569,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5708,8 +5608,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5741,8 +5647,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5774,8 +5686,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5807,8 +5725,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5840,8 +5764,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5873,8 +5803,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5906,8 +5842,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5939,8 +5881,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5972,8 +5920,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6005,8 +5959,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6038,8 +5998,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6071,8 +6037,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6104,8 +6076,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6137,8 +6115,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6170,8 +6154,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6203,8 +6193,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6236,8 +6232,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6269,8 +6271,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6310,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6335,8 +6349,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6368,8 +6388,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6401,8 +6427,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6434,8 +6466,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6467,8 +6505,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6500,8 +6544,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6533,8 +6583,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6563,11 +6619,17 @@
         <v>-1025811.61577534</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6596,11 +6658,17 @@
         <v>-1025811.61577534</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6632,8 +6700,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6665,8 +6739,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6698,8 +6778,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6731,8 +6817,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6764,8 +6856,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6797,8 +6895,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6827,11 +6931,17 @@
         <v>-420540.3481753398</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6860,11 +6970,17 @@
         <v>-419036.6294753398</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6893,11 +7009,17 @@
         <v>-457885.6848753398</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6926,11 +7048,17 @@
         <v>-707885.6848753397</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6959,11 +7087,17 @@
         <v>-707885.6848753397</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6992,11 +7126,17 @@
         <v>-699600.4540753397</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7025,15 +7165,23 @@
         <v>-704600.4540753397</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>1.058802745297407</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1.030612244897959</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7058,7 +7206,7 @@
         <v>-859600.4540753397</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7091,7 +7239,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7124,7 +7272,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7157,7 +7305,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7190,7 +7338,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7223,7 +7371,7 @@
         <v>-926450.5490753397</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7256,7 +7404,7 @@
         <v>-675224.0481753397</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7289,7 +7437,7 @@
         <v>-655563.5396753397</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7322,7 +7470,7 @@
         <v>-659339.5396753397</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7355,7 +7503,7 @@
         <v>-624151.7408753397</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7388,7 +7536,7 @@
         <v>-750185.9298753397</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7421,7 +7569,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7454,7 +7602,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7487,7 +7635,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7520,7 +7668,7 @@
         <v>-832783.8299753398</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7553,7 +7701,7 @@
         <v>-832145.8495753398</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7586,7 +7734,7 @@
         <v>-832145.8495753398</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7619,7 +7767,7 @@
         <v>-829660.5847753398</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7652,7 +7800,7 @@
         <v>-831030.5847753398</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7685,7 +7833,7 @@
         <v>-841696.6778753399</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7718,7 +7866,7 @@
         <v>-870098.6778753399</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7751,7 +7899,7 @@
         <v>-683089.0873753398</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7784,7 +7932,7 @@
         <v>-903528.0873753398</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7817,7 +7965,7 @@
         <v>-1032234.08737534</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7850,7 +7998,7 @@
         <v>-1032234.08737534</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7883,7 +8031,7 @@
         <v>-1032234.08737534</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7916,7 +8064,7 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7949,7 +8097,7 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7982,7 +8130,7 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8015,7 +8163,7 @@
         <v>-1031378.76097534</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8048,7 +8196,7 @@
         <v>-1031378.76097534</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8081,7 +8229,7 @@
         <v>-1068515.54147534</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8114,7 +8262,7 @@
         <v>-1068515.54147534</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8147,7 +8295,7 @@
         <v>-1225756.81487534</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8180,7 +8328,7 @@
         <v>75525.68852466019</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8213,7 +8361,7 @@
         <v>-887820.0315753398</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8246,7 +8394,7 @@
         <v>-989399.7494753399</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8279,7 +8427,7 @@
         <v>-1124696.76637534</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8312,7 +8460,7 @@
         <v>-1122196.76637534</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8345,7 +8493,7 @@
         <v>-1245723.45237534</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8378,7 +8526,7 @@
         <v>-1437052.90977534</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8411,7 +8559,7 @@
         <v>-573010.4466753397</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8444,7 +8592,7 @@
         <v>-781990.4466753397</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8477,7 +8625,7 @@
         <v>-899099.6408753397</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8576,7 +8724,7 @@
         <v>-901626.8005753397</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8609,7 +8757,7 @@
         <v>-901626.8005753397</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8675,7 +8823,7 @@
         <v>-2122959.69887534</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -10655,7 +10803,7 @@
         <v>-1939303.190864609</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10688,7 +10836,7 @@
         <v>-1939303.190864609</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10886,7 +11034,7 @@
         <v>-1944549.749164609</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10919,7 +11067,7 @@
         <v>-1944549.749164609</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10952,7 +11100,7 @@
         <v>-1944364.422664609</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11095,6 +11243,6 @@
       <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XVG.xlsx
+++ b/BackTest/2020-01-16 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2761,14 +2761,10 @@
         <v>-2025923.58967787</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2798,101 +2794,83 @@
         <v>-2043583.58967787</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="F74" t="n">
+        <v>231.3694</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-2043814.95907787</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F75" t="n">
+        <v>173260.3462</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-2217075.30527787</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="D74" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="E74" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="F74" t="n">
-        <v>231.3694</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-2043814.95907787</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="C75" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="D75" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="E75" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="F75" t="n">
-        <v>173260.3462</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-2217075.30527787</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2921,14 +2899,10 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2967,9 +2941,7 @@
       <c r="I77" t="n">
         <v>3.92</v>
       </c>
-      <c r="J77" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3008,9 +2980,7 @@
       <c r="I78" t="n">
         <v>3.92</v>
       </c>
-      <c r="J78" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3049,9 +3019,7 @@
       <c r="I79" t="n">
         <v>3.92</v>
       </c>
-      <c r="J79" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,9 +3058,7 @@
       <c r="I80" t="n">
         <v>3.92</v>
       </c>
-      <c r="J80" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,14 +3092,10 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,14 +3129,10 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3208,14 +3166,10 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,14 +3203,10 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,14 +3240,10 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3331,14 +3277,10 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,14 +3314,10 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3413,14 +3351,10 @@
         <v>-2209149.30527787</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,9 +3391,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3496,9 +3428,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,9 +3465,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,9 +3502,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3613,9 +3539,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,9 +3576,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3691,9 +3613,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,9 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3769,9 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3808,9 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3847,9 +3761,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3886,9 +3798,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3925,9 +3835,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3964,9 +3872,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4003,9 +3909,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4042,9 +3946,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4081,9 +3983,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,9 +4020,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,9 +4057,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,9 +4094,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4237,9 +4131,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4276,9 +4168,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4315,9 +4205,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4354,9 +4242,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4393,9 +4279,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4429,20 +4313,16 @@
         <v>-2443756.08706579</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.934</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4468,17 +4348,11 @@
         <v>-2725925.14716579</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4507,17 +4381,11 @@
         <v>-2725925.14716579</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4546,17 +4414,11 @@
         <v>-2728442.48716579</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4585,17 +4447,11 @@
         <v>-2670716.24296579</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4624,17 +4480,11 @@
         <v>-2670716.24296579</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4663,19 +4513,11 @@
         <v>-2688933.97596579</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4704,19 +4546,11 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="J121" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4745,19 +4579,11 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>4</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4789,14 +4615,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4828,14 +4648,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4864,17 +4678,11 @@
         <v>-2136881.85856579</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4903,17 +4711,11 @@
         <v>-2141883.85856579</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4942,17 +4744,11 @@
         <v>-2131883.85856579</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4981,17 +4777,11 @@
         <v>-1958973.72616579</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5023,14 +4813,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5062,14 +4846,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5101,14 +4879,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5140,14 +4912,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5176,17 +4942,11 @@
         <v>-2784931.06551591</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5215,17 +4975,11 @@
         <v>-2784931.06551591</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5254,17 +5008,11 @@
         <v>-2592210.63581591</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5293,17 +5041,11 @@
         <v>-2578655.63581591</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5332,17 +5074,11 @@
         <v>-2592205.63581591</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5374,14 +5110,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5413,14 +5143,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5452,14 +5176,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5491,14 +5209,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5530,14 +5242,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5569,14 +5275,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5608,14 +5308,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5647,14 +5341,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5686,14 +5374,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5725,14 +5407,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5764,14 +5440,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5803,14 +5473,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5842,14 +5506,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5881,14 +5539,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5920,14 +5572,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5959,14 +5605,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5638,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6037,14 +5671,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6076,14 +5704,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6115,14 +5737,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6154,14 +5770,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6193,14 +5803,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6232,14 +5836,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6271,14 +5869,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6310,14 +5902,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6349,14 +5935,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6388,14 +5968,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6427,14 +6001,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6466,14 +6034,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6505,14 +6067,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6544,14 +6100,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6583,14 +6133,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6622,14 +6166,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6661,14 +6199,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6700,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6739,14 +6265,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6778,14 +6298,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6817,14 +6331,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6856,14 +6364,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6895,14 +6397,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6934,14 +6430,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6973,14 +6463,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7012,14 +6496,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7051,14 +6529,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7090,14 +6562,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7129,14 +6595,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7165,23 +6625,15 @@
         <v>-704600.4540753397</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3.934</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>1.058802745297407</v>
-      </c>
-      <c r="M184" t="n">
-        <v>1.030612244897959</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7272,7 +6724,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7305,7 +6757,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7338,7 +6790,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7371,7 +6823,7 @@
         <v>-926450.5490753397</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7404,7 +6856,7 @@
         <v>-675224.0481753397</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7437,7 +6889,7 @@
         <v>-655563.5396753397</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7470,7 +6922,7 @@
         <v>-659339.5396753397</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7503,7 +6955,7 @@
         <v>-624151.7408753397</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7536,7 +6988,7 @@
         <v>-750185.9298753397</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7569,7 +7021,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7602,7 +7054,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7635,7 +7087,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7668,7 +7120,7 @@
         <v>-832783.8299753398</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7701,7 +7153,7 @@
         <v>-832145.8495753398</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7734,7 +7186,7 @@
         <v>-832145.8495753398</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7767,7 +7219,7 @@
         <v>-829660.5847753398</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7800,7 +7252,7 @@
         <v>-831030.5847753398</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7833,7 +7285,7 @@
         <v>-841696.6778753399</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7866,7 +7318,7 @@
         <v>-870098.6778753399</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7899,7 +7351,7 @@
         <v>-683089.0873753398</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7932,7 +7384,7 @@
         <v>-903528.0873753398</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7965,7 +7417,7 @@
         <v>-1032234.08737534</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7998,7 +7450,7 @@
         <v>-1032234.08737534</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8031,7 +7483,7 @@
         <v>-1032234.08737534</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8064,7 +7516,7 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8097,7 +7549,7 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8130,7 +7582,7 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8163,7 +7615,7 @@
         <v>-1031378.76097534</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8196,7 +7648,7 @@
         <v>-1031378.76097534</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8229,7 +7681,7 @@
         <v>-1068515.54147534</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8262,7 +7714,7 @@
         <v>-1068515.54147534</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8295,7 +7747,7 @@
         <v>-1225756.81487534</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8328,7 +7780,7 @@
         <v>75525.68852466019</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8361,7 +7813,7 @@
         <v>-887820.0315753398</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8394,7 +7846,7 @@
         <v>-989399.7494753399</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8427,7 +7879,7 @@
         <v>-1124696.76637534</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8460,7 +7912,7 @@
         <v>-1122196.76637534</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8493,7 +7945,7 @@
         <v>-1245723.45237534</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8526,7 +7978,7 @@
         <v>-1437052.90977534</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8592,7 +8044,7 @@
         <v>-781990.4466753397</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -10605,10 +10057,14 @@
         <v>-2410735.190864609</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="J288" t="n">
+        <v>4.097</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
@@ -10638,11 +10094,19 @@
         <v>-2543174.190864609</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="J289" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10674,8 +10138,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11243,6 +10713,6 @@
       <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XVG.xlsx
+++ b/BackTest/2020-01-16 BackTest XVG.xlsx
@@ -2728,10 +2728,14 @@
         <v>-2030088.60697787</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2761,11 +2765,19 @@
         <v>-2025923.58967787</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2806,19 @@
         <v>-2043583.58967787</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2847,19 @@
         <v>-2043814.95907787</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2865,10 +2893,12 @@
       <c r="I75" t="n">
         <v>3.921</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2899,10 +2929,14 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2941,7 +2975,9 @@
       <c r="I77" t="n">
         <v>3.92</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2980,7 +3016,9 @@
       <c r="I78" t="n">
         <v>3.92</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3019,7 +3057,9 @@
       <c r="I79" t="n">
         <v>3.92</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,7 +3098,9 @@
       <c r="I80" t="n">
         <v>3.92</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3092,10 +3134,14 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,10 +3175,14 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3166,10 +3216,14 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3203,10 +3257,14 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,10 +3298,14 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,10 +3339,14 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3314,10 +3380,14 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,10 +3421,14 @@
         <v>-2209149.30527787</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3391,7 +3465,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,7 +3504,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3465,7 +3543,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3502,7 +3582,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,7 +3621,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3576,7 +3660,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3613,7 +3699,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3650,7 +3738,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3687,7 +3777,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3724,7 +3816,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3761,7 +3855,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,7 +3894,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,7 +3933,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,7 +3972,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,7 +4011,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3946,7 +4050,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3983,7 +4089,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,7 +4128,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,7 +4167,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4094,7 +4206,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4131,7 +4245,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4168,7 +4284,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4205,7 +4323,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4242,7 +4362,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4279,7 +4401,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4313,16 +4437,20 @@
         <v>-2443756.08706579</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4348,11 +4476,17 @@
         <v>-2725925.14716579</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4381,11 +4515,17 @@
         <v>-2725925.14716579</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +4554,19 @@
         <v>-2728442.48716579</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4.011</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4447,11 +4595,19 @@
         <v>-2670716.24296579</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4480,11 +4636,19 @@
         <v>-2670716.24296579</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4.011</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4513,11 +4677,19 @@
         <v>-2688933.97596579</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>4.011</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4546,11 +4718,19 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4579,11 +4759,19 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +4800,19 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4648,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +4880,19 @@
         <v>-2136881.85856579</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.995</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +4921,17 @@
         <v>-2141883.85856579</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4744,11 +4960,17 @@
         <v>-2131883.85856579</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +4999,17 @@
         <v>-1958973.72616579</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4813,8 +5041,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4846,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4879,8 +5119,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4912,8 +5158,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4942,11 +5194,17 @@
         <v>-2784931.06551591</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +5233,17 @@
         <v>-2784931.06551591</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5008,11 +5272,17 @@
         <v>-2592210.63581591</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +5311,17 @@
         <v>-2578655.63581591</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5074,11 +5350,17 @@
         <v>-2592205.63581591</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5110,8 +5392,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5143,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5176,8 +5470,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5209,8 +5509,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5242,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +5587,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5308,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5341,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +5704,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5407,8 +5743,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5440,8 +5782,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5473,8 +5821,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5506,8 +5860,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5539,8 +5899,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +5938,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5605,8 +5977,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +6016,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +6055,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5704,8 +6094,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5737,8 +6133,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +6172,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +6211,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +6250,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6289,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5902,8 +6328,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +6367,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5968,8 +6406,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6001,8 +6445,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6034,8 +6484,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6067,8 +6523,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6100,8 +6562,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6133,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6166,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6718,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6265,8 +6757,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6298,8 +6796,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6331,8 +6835,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6364,8 +6874,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6394,15 +6910,23 @@
         <v>-420419.9821753398</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>1.069300254452926</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1.030612244897959</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6427,7 +6951,7 @@
         <v>-420540.3481753398</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6460,7 +6984,7 @@
         <v>-419036.6294753398</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6493,7 +7017,7 @@
         <v>-457885.6848753398</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6526,7 +7050,7 @@
         <v>-707885.6848753397</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6559,7 +7083,7 @@
         <v>-707885.6848753397</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6592,7 +7116,7 @@
         <v>-699600.4540753397</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6625,7 +7149,7 @@
         <v>-704600.4540753397</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6658,7 +7182,7 @@
         <v>-859600.4540753397</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6691,7 +7215,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6724,7 +7248,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6790,7 +7314,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6823,7 +7347,7 @@
         <v>-926450.5490753397</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6856,7 +7380,7 @@
         <v>-675224.0481753397</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6889,7 +7413,7 @@
         <v>-655563.5396753397</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6922,7 +7446,7 @@
         <v>-659339.5396753397</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6955,7 +7479,7 @@
         <v>-624151.7408753397</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6988,7 +7512,7 @@
         <v>-750185.9298753397</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7021,7 +7545,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7054,7 +7578,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7087,7 +7611,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7120,7 +7644,7 @@
         <v>-832783.8299753398</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7153,7 +7677,7 @@
         <v>-832145.8495753398</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7186,7 +7710,7 @@
         <v>-832145.8495753398</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7219,7 +7743,7 @@
         <v>-829660.5847753398</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7252,7 +7776,7 @@
         <v>-831030.5847753398</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7285,7 +7809,7 @@
         <v>-841696.6778753399</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7318,7 +7842,7 @@
         <v>-870098.6778753399</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7351,7 +7875,7 @@
         <v>-683089.0873753398</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7384,7 +7908,7 @@
         <v>-903528.0873753398</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7417,7 +7941,7 @@
         <v>-1032234.08737534</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -10057,14 +10581,10 @@
         <v>-2410735.190864609</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="J288" t="n">
-        <v>4.097</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
@@ -10102,11 +10622,7 @@
       <c r="J289" t="n">
         <v>4.097</v>
       </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10135,9 +10651,11 @@
         <v>-2543174.190864609</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>4.087</v>
+      </c>
       <c r="J290" t="n">
         <v>4.097</v>
       </c>
@@ -10174,11 +10692,19 @@
         <v>-2039303.190864609</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>4.087</v>
+      </c>
+      <c r="J291" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10210,8 +10736,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10243,8 +10775,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10276,8 +10814,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10306,11 +10850,19 @@
         <v>-1939303.190864609</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="J295" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10342,8 +10894,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10375,8 +10933,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10408,8 +10972,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10438,11 +11008,19 @@
         <v>-1944935.431264609</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>4.084</v>
+      </c>
+      <c r="J299" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10474,8 +11052,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10507,8 +11091,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10540,8 +11130,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10573,8 +11169,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10606,8 +11208,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10639,8 +11247,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10672,8 +11286,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10705,8 +11325,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest XVG.xlsx
+++ b/BackTest/2020-01-16 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M307"/>
+  <dimension ref="A1:L307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>207663.2029</v>
       </c>
       <c r="G2" t="n">
-        <v>-1151912.90627787</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>70408</v>
       </c>
       <c r="G3" t="n">
-        <v>-1081504.90627787</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>129114.3946</v>
       </c>
       <c r="G4" t="n">
-        <v>-1210619.30087787</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,21 @@
         <v>4100</v>
       </c>
       <c r="G5" t="n">
-        <v>-1214719.30087787</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.941</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +569,19 @@
         <v>10995.235</v>
       </c>
       <c r="G6" t="n">
-        <v>-1203724.065877869</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +603,19 @@
         <v>155</v>
       </c>
       <c r="G7" t="n">
-        <v>-1203569.065877869</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +637,19 @@
         <v>194295</v>
       </c>
       <c r="G8" t="n">
-        <v>-1203569.065877869</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +671,19 @@
         <v>8948</v>
       </c>
       <c r="G9" t="n">
-        <v>-1203569.065877869</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +705,19 @@
         <v>1529.5088</v>
       </c>
       <c r="G10" t="n">
-        <v>-1203569.065877869</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +739,19 @@
         <v>137.5863</v>
       </c>
       <c r="G11" t="n">
-        <v>-1203431.479577869</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +773,19 @@
         <v>33732.1196</v>
       </c>
       <c r="G12" t="n">
-        <v>-1203431.479577869</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +807,19 @@
         <v>13921</v>
       </c>
       <c r="G13" t="n">
-        <v>-1203431.479577869</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +841,19 @@
         <v>38768.6305</v>
       </c>
       <c r="G14" t="n">
-        <v>-1203431.479577869</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +875,19 @@
         <v>127</v>
       </c>
       <c r="G15" t="n">
-        <v>-1203558.479577869</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +909,19 @@
         <v>7937.1686</v>
       </c>
       <c r="G16" t="n">
-        <v>-1195621.310977869</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +943,19 @@
         <v>26506.7628</v>
       </c>
       <c r="G17" t="n">
-        <v>-1222128.073777869</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +977,19 @@
         <v>674632.14</v>
       </c>
       <c r="G18" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1011,19 @@
         <v>32610</v>
       </c>
       <c r="G19" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1045,19 @@
         <v>32610</v>
       </c>
       <c r="G20" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1079,19 @@
         <v>12887</v>
       </c>
       <c r="G21" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1113,19 @@
         <v>56196</v>
       </c>
       <c r="G22" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1147,19 @@
         <v>48915</v>
       </c>
       <c r="G23" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1181,19 @@
         <v>48915</v>
       </c>
       <c r="G24" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1215,19 @@
         <v>15231</v>
       </c>
       <c r="G25" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1249,19 @@
         <v>67315</v>
       </c>
       <c r="G26" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1283,19 @@
         <v>751529.4442</v>
       </c>
       <c r="G27" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1317,19 @@
         <v>179096.7402</v>
       </c>
       <c r="G28" t="n">
-        <v>-1896760.213777869</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1351,19 @@
         <v>11234</v>
       </c>
       <c r="G29" t="n">
-        <v>-1885526.213777869</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1385,19 @@
         <v>59597.14</v>
       </c>
       <c r="G30" t="n">
-        <v>-1885526.213777869</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1419,19 @@
         <v>471.65</v>
       </c>
       <c r="G31" t="n">
-        <v>-1885526.213777869</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1453,19 @@
         <v>102324.7679</v>
       </c>
       <c r="G32" t="n">
-        <v>-1885526.213777869</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1487,19 @@
         <v>44441.6305</v>
       </c>
       <c r="G33" t="n">
-        <v>-1841084.58327787</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1521,19 @@
         <v>15338.737</v>
       </c>
       <c r="G34" t="n">
-        <v>-1825745.84627787</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1555,19 @@
         <v>251627.3685</v>
       </c>
       <c r="G35" t="n">
-        <v>-1574118.477777869</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1589,19 @@
         <v>33587.3323</v>
       </c>
       <c r="G36" t="n">
-        <v>-1540531.14547787</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1623,19 @@
         <v>1500</v>
       </c>
       <c r="G37" t="n">
-        <v>-1539031.14547787</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1657,19 @@
         <v>7685.3881</v>
       </c>
       <c r="G38" t="n">
-        <v>-1539031.14547787</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1691,19 @@
         <v>41401.6836</v>
       </c>
       <c r="G39" t="n">
-        <v>-1580432.82907787</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1725,19 @@
         <v>16398.3679</v>
       </c>
       <c r="G40" t="n">
-        <v>-1580432.82907787</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1759,19 @@
         <v>900</v>
       </c>
       <c r="G41" t="n">
-        <v>-1579532.82907787</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1793,19 @@
         <v>7196.6661</v>
       </c>
       <c r="G42" t="n">
-        <v>-1586729.49517787</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1827,19 @@
         <v>75071.05130000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-1661800.54647787</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1861,19 @@
         <v>9044.117099999999</v>
       </c>
       <c r="G44" t="n">
-        <v>-1670844.66357787</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1895,19 @@
         <v>2500</v>
       </c>
       <c r="G45" t="n">
-        <v>-1668344.66357787</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1929,19 @@
         <v>41344.718</v>
       </c>
       <c r="G46" t="n">
-        <v>-1668344.66357787</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1963,19 @@
         <v>42148.9788</v>
       </c>
       <c r="G47" t="n">
-        <v>-1626195.68477787</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1997,19 @@
         <v>4000</v>
       </c>
       <c r="G48" t="n">
-        <v>-1622195.68477787</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2031,19 @@
         <v>57209.3129</v>
       </c>
       <c r="G49" t="n">
-        <v>-1564986.37187787</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2065,19 @@
         <v>3592.6591</v>
       </c>
       <c r="G50" t="n">
-        <v>-1561393.71277787</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2099,19 @@
         <v>32795</v>
       </c>
       <c r="G51" t="n">
-        <v>-1594188.71277787</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2133,19 @@
         <v>11903</v>
       </c>
       <c r="G52" t="n">
-        <v>-1594188.71277787</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2167,19 @@
         <v>112974.6993</v>
       </c>
       <c r="G53" t="n">
-        <v>-1481214.01347787</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2201,19 @@
         <v>11223.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>-1492438.01337787</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2235,19 @@
         <v>4659.5288</v>
       </c>
       <c r="G55" t="n">
-        <v>-1492438.01337787</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2269,19 @@
         <v>18172.051</v>
       </c>
       <c r="G56" t="n">
-        <v>-1510610.064377869</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2303,19 @@
         <v>84782.00659999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-1510610.064377869</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2337,19 @@
         <v>9367</v>
       </c>
       <c r="G58" t="n">
-        <v>-1510610.064377869</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2371,19 @@
         <v>20000</v>
       </c>
       <c r="G59" t="n">
-        <v>-1510610.064377869</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2405,19 @@
         <v>63.9168</v>
       </c>
       <c r="G60" t="n">
-        <v>-1510610.064377869</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2439,19 @@
         <v>37449.3351</v>
       </c>
       <c r="G61" t="n">
-        <v>-1548059.39947787</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2473,19 @@
         <v>20431.2968</v>
       </c>
       <c r="G62" t="n">
-        <v>-1568490.696277869</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2507,19 @@
         <v>18119.544</v>
       </c>
       <c r="G63" t="n">
-        <v>-1586610.240277869</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2541,19 @@
         <v>7692.7912</v>
       </c>
       <c r="G64" t="n">
-        <v>-1594303.031477869</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2575,19 @@
         <v>131989.5468</v>
       </c>
       <c r="G65" t="n">
-        <v>-1726292.57827787</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2609,19 @@
         <v>272259.4594</v>
       </c>
       <c r="G66" t="n">
-        <v>-1998552.03767787</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2643,21 @@
         <v>42567</v>
       </c>
       <c r="G67" t="n">
-        <v>-1955985.03767787</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2679,19 @@
         <v>105026.0693</v>
       </c>
       <c r="G68" t="n">
-        <v>-2061011.10697787</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2713,21 @@
         <v>43249.6918</v>
       </c>
       <c r="G69" t="n">
-        <v>-2061011.10697787</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2749,21 @@
         <v>72293.2795</v>
       </c>
       <c r="G70" t="n">
-        <v>-2061011.10697787</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,22 +2785,21 @@
         <v>30922.5</v>
       </c>
       <c r="G71" t="n">
-        <v>-2030088.60697787</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
         <v>3.93</v>
       </c>
-      <c r="J71" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2762,26 +2821,21 @@
         <v>4165.0173</v>
       </c>
       <c r="G72" t="n">
-        <v>-2025923.58967787</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
         <v>3.934</v>
       </c>
-      <c r="J72" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2803,26 +2857,21 @@
         <v>17660</v>
       </c>
       <c r="G73" t="n">
-        <v>-2043583.58967787</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
         <v>3.989</v>
       </c>
-      <c r="J73" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2844,26 +2893,21 @@
         <v>231.3694</v>
       </c>
       <c r="G74" t="n">
-        <v>-2043814.95907787</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
         <v>3.974</v>
       </c>
-      <c r="J74" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2885,26 +2929,21 @@
         <v>173260.3462</v>
       </c>
       <c r="G75" t="n">
-        <v>-2217075.30527787</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
         <v>3.921</v>
       </c>
-      <c r="J75" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2926,26 +2965,21 @@
         <v>695.9409000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-2217075.30527787</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
         <v>3.92</v>
       </c>
-      <c r="J76" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2967,26 +3001,21 @@
         <v>23403</v>
       </c>
       <c r="G77" t="n">
-        <v>-2217075.30527787</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
         <v>3.92</v>
       </c>
-      <c r="J77" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3008,26 +3037,21 @@
         <v>117757.7853</v>
       </c>
       <c r="G78" t="n">
-        <v>-2217075.30527787</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
         <v>3.92</v>
       </c>
-      <c r="J78" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3049,26 +3073,19 @@
         <v>4108.7612</v>
       </c>
       <c r="G79" t="n">
-        <v>-2217075.30527787</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3090,26 +3107,21 @@
         <v>126</v>
       </c>
       <c r="G80" t="n">
-        <v>-2216949.30527787</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
         <v>3.92</v>
       </c>
-      <c r="J80" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3131,26 +3143,19 @@
         <v>2516.3564</v>
       </c>
       <c r="G81" t="n">
-        <v>-2216949.30527787</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3172,26 +3177,19 @@
         <v>52703.4066</v>
       </c>
       <c r="G82" t="n">
-        <v>-2216949.30527787</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3213,26 +3211,19 @@
         <v>31875.7765</v>
       </c>
       <c r="G83" t="n">
-        <v>-2216949.30527787</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3254,26 +3245,19 @@
         <v>2516.3564</v>
       </c>
       <c r="G84" t="n">
-        <v>-2216949.30527787</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3295,26 +3279,19 @@
         <v>330895.5826</v>
       </c>
       <c r="G85" t="n">
-        <v>-2216949.30527787</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3336,26 +3313,19 @@
         <v>52425.3501</v>
       </c>
       <c r="G86" t="n">
-        <v>-2216949.30527787</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3377,26 +3347,19 @@
         <v>194174.4678</v>
       </c>
       <c r="G87" t="n">
-        <v>-2216949.30527787</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3418,26 +3381,19 @@
         <v>7800</v>
       </c>
       <c r="G88" t="n">
-        <v>-2209149.30527787</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3459,24 +3415,19 @@
         <v>150160.6053</v>
       </c>
       <c r="G89" t="n">
-        <v>-2058988.69997787</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3498,24 +3449,19 @@
         <v>164591.1476</v>
       </c>
       <c r="G90" t="n">
-        <v>-1894397.55237787</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3537,24 +3483,19 @@
         <v>881405.0784999999</v>
       </c>
       <c r="G91" t="n">
-        <v>-1894397.55237787</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3576,24 +3517,19 @@
         <v>996113.411</v>
       </c>
       <c r="G92" t="n">
-        <v>-898284.1413778696</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3615,24 +3551,19 @@
         <v>1655624.2741</v>
       </c>
       <c r="G93" t="n">
-        <v>-2553908.41547787</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3654,24 +3585,19 @@
         <v>140132</v>
       </c>
       <c r="G94" t="n">
-        <v>-2694040.41547787</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3693,24 +3619,19 @@
         <v>87950</v>
       </c>
       <c r="G95" t="n">
-        <v>-2606090.41547787</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3732,24 +3653,19 @@
         <v>25450</v>
       </c>
       <c r="G96" t="n">
-        <v>-2580640.41547787</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3771,24 +3687,19 @@
         <v>118000</v>
       </c>
       <c r="G97" t="n">
-        <v>-2462640.41547787</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3810,24 +3721,19 @@
         <v>55806.6596</v>
       </c>
       <c r="G98" t="n">
-        <v>-2406833.75587787</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3849,24 +3755,19 @@
         <v>5000</v>
       </c>
       <c r="G99" t="n">
-        <v>-2406833.75587787</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3888,24 +3789,19 @@
         <v>260718.6977</v>
       </c>
       <c r="G100" t="n">
-        <v>-2146115.05817787</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,24 +3823,19 @@
         <v>396347.8595</v>
       </c>
       <c r="G101" t="n">
-        <v>-2146115.05817787</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3966,24 +3857,19 @@
         <v>267717.1197</v>
       </c>
       <c r="G102" t="n">
-        <v>-1878397.93847787</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4005,24 +3891,19 @@
         <v>286271.57211208</v>
       </c>
       <c r="G103" t="n">
-        <v>-1592126.36636579</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4044,24 +3925,19 @@
         <v>35000</v>
       </c>
       <c r="G104" t="n">
-        <v>-1557126.36636579</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4083,24 +3959,19 @@
         <v>151121.74438792</v>
       </c>
       <c r="G105" t="n">
-        <v>-1557126.36636579</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4122,24 +3993,19 @@
         <v>177056.2762</v>
       </c>
       <c r="G106" t="n">
-        <v>-1557126.36636579</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4161,24 +4027,19 @@
         <v>534611.683</v>
       </c>
       <c r="G107" t="n">
-        <v>-1557126.36636579</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4200,24 +4061,19 @@
         <v>303516.52</v>
       </c>
       <c r="G108" t="n">
-        <v>-1860642.88636579</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4239,24 +4095,19 @@
         <v>17814.71</v>
       </c>
       <c r="G109" t="n">
-        <v>-1878457.59636579</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4278,24 +4129,19 @@
         <v>425068.5407</v>
       </c>
       <c r="G110" t="n">
-        <v>-2303526.13706579</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4317,24 +4163,19 @@
         <v>14665.7382</v>
       </c>
       <c r="G111" t="n">
-        <v>-2303526.13706579</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4356,24 +4197,19 @@
         <v>132349.12</v>
       </c>
       <c r="G112" t="n">
-        <v>-2435875.25706579</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4395,24 +4231,19 @@
         <v>7880.83</v>
       </c>
       <c r="G113" t="n">
-        <v>-2443756.08706579</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4434,24 +4265,19 @@
         <v>45876.19285012</v>
       </c>
       <c r="G114" t="n">
-        <v>-2443756.08706579</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4473,24 +4299,19 @@
         <v>282169.0601</v>
       </c>
       <c r="G115" t="n">
-        <v>-2725925.14716579</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4512,24 +4333,19 @@
         <v>19404.4996</v>
       </c>
       <c r="G116" t="n">
-        <v>-2725925.14716579</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4551,26 +4367,19 @@
         <v>2517.34</v>
       </c>
       <c r="G117" t="n">
-        <v>-2728442.48716579</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4592,26 +4401,19 @@
         <v>57726.2442</v>
       </c>
       <c r="G118" t="n">
-        <v>-2670716.24296579</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4633,26 +4435,19 @@
         <v>191329.4574</v>
       </c>
       <c r="G119" t="n">
-        <v>-2670716.24296579</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4674,26 +4469,19 @@
         <v>18217.733</v>
       </c>
       <c r="G120" t="n">
-        <v>-2688933.97596579</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4715,26 +4503,19 @@
         <v>54827.595</v>
       </c>
       <c r="G121" t="n">
-        <v>-2743761.57096579</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="J121" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4756,26 +4537,19 @@
         <v>774674.0736999999</v>
       </c>
       <c r="G122" t="n">
-        <v>-2743761.57096579</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>4</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4797,26 +4571,19 @@
         <v>1500</v>
       </c>
       <c r="G123" t="n">
-        <v>-2743761.57096579</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>4</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4838,24 +4605,19 @@
         <v>9120.2876</v>
       </c>
       <c r="G124" t="n">
-        <v>-2752881.85856579</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4877,26 +4639,19 @@
         <v>616000</v>
       </c>
       <c r="G125" t="n">
-        <v>-2136881.85856579</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4918,24 +4673,19 @@
         <v>5002</v>
       </c>
       <c r="G126" t="n">
-        <v>-2141883.85856579</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4957,24 +4707,19 @@
         <v>10000</v>
       </c>
       <c r="G127" t="n">
-        <v>-2131883.85856579</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4996,24 +4741,19 @@
         <v>172910.1324</v>
       </c>
       <c r="G128" t="n">
-        <v>-1958973.72616579</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5035,24 +4775,19 @@
         <v>10000</v>
       </c>
       <c r="G129" t="n">
-        <v>-1948973.72616579</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5074,24 +4809,19 @@
         <v>42437.6665</v>
       </c>
       <c r="G130" t="n">
-        <v>-1948973.72616579</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5113,24 +4843,19 @@
         <v>120443.70384988</v>
       </c>
       <c r="G131" t="n">
-        <v>-1948973.72616579</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5152,24 +4877,19 @@
         <v>2555.3124</v>
       </c>
       <c r="G132" t="n">
-        <v>-1946418.41376579</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5191,24 +4911,19 @@
         <v>838512.65175012</v>
       </c>
       <c r="G133" t="n">
-        <v>-2784931.06551591</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5230,24 +4945,19 @@
         <v>5069.9507</v>
       </c>
       <c r="G134" t="n">
-        <v>-2784931.06551591</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5269,24 +4979,19 @@
         <v>192720.4297</v>
       </c>
       <c r="G135" t="n">
-        <v>-2592210.63581591</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5308,24 +5013,19 @@
         <v>13555</v>
       </c>
       <c r="G136" t="n">
-        <v>-2578655.63581591</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5347,24 +5047,19 @@
         <v>13550</v>
       </c>
       <c r="G137" t="n">
-        <v>-2592205.63581591</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5386,24 +5081,19 @@
         <v>685050.97</v>
       </c>
       <c r="G138" t="n">
-        <v>-1907154.66581591</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5425,24 +5115,19 @@
         <v>226924.85</v>
       </c>
       <c r="G139" t="n">
-        <v>-2134079.515815909</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5464,24 +5149,19 @@
         <v>160540</v>
       </c>
       <c r="G140" t="n">
-        <v>-1973539.515815909</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5503,24 +5183,19 @@
         <v>318765.37</v>
       </c>
       <c r="G141" t="n">
-        <v>-1654774.145815909</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5542,24 +5217,19 @@
         <v>126953.1914</v>
       </c>
       <c r="G142" t="n">
-        <v>-1527820.954415909</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5581,24 +5251,19 @@
         <v>103953.5841</v>
       </c>
       <c r="G143" t="n">
-        <v>-1631774.53851591</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5620,24 +5285,19 @@
         <v>540.5925999999999</v>
       </c>
       <c r="G144" t="n">
-        <v>-1631774.53851591</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5659,24 +5319,19 @@
         <v>22688.4759</v>
       </c>
       <c r="G145" t="n">
-        <v>-1609086.06261591</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5698,24 +5353,19 @@
         <v>115000</v>
       </c>
       <c r="G146" t="n">
-        <v>-1494086.06261591</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5737,24 +5387,19 @@
         <v>11355.647</v>
       </c>
       <c r="G147" t="n">
-        <v>-1505441.70961591</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5776,24 +5421,19 @@
         <v>69838.4904</v>
       </c>
       <c r="G148" t="n">
-        <v>-1435603.21921591</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5815,24 +5455,19 @@
         <v>84059.48916904</v>
       </c>
       <c r="G149" t="n">
-        <v>-1435603.21921591</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5854,24 +5489,19 @@
         <v>10126.9539</v>
       </c>
       <c r="G150" t="n">
-        <v>-1445730.17311591</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5893,24 +5523,19 @@
         <v>22688.4759</v>
       </c>
       <c r="G151" t="n">
-        <v>-1445730.17311591</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5932,24 +5557,19 @@
         <v>145337.6857</v>
       </c>
       <c r="G152" t="n">
-        <v>-1591067.85881591</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5971,24 +5591,19 @@
         <v>200</v>
       </c>
       <c r="G153" t="n">
-        <v>-1590867.85881591</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6010,24 +5625,19 @@
         <v>56753.1777</v>
       </c>
       <c r="G154" t="n">
-        <v>-1647621.03651591</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6049,24 +5659,19 @@
         <v>54206.7523</v>
       </c>
       <c r="G155" t="n">
-        <v>-1647621.03651591</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6088,24 +5693,19 @@
         <v>460099.6455</v>
       </c>
       <c r="G156" t="n">
-        <v>-1647621.03651591</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6127,24 +5727,19 @@
         <v>41712.0959</v>
       </c>
       <c r="G157" t="n">
-        <v>-1647621.03651591</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6166,24 +5761,19 @@
         <v>39626.4911</v>
       </c>
       <c r="G158" t="n">
-        <v>-1647621.03651591</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6205,24 +5795,19 @@
         <v>41453.554</v>
       </c>
       <c r="G159" t="n">
-        <v>-1647621.03651591</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6244,24 +5829,19 @@
         <v>25938.7564</v>
       </c>
       <c r="G160" t="n">
-        <v>-1647621.03651591</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6283,24 +5863,19 @@
         <v>13635.57</v>
       </c>
       <c r="G161" t="n">
-        <v>-1647621.03651591</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6322,24 +5897,19 @@
         <v>8585.1996</v>
       </c>
       <c r="G162" t="n">
-        <v>-1639035.83691591</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6361,24 +5931,19 @@
         <v>2836.7608</v>
       </c>
       <c r="G163" t="n">
-        <v>-1639035.83691591</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6400,24 +5965,19 @@
         <v>138743.243</v>
       </c>
       <c r="G164" t="n">
-        <v>-1500292.59391591</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6439,24 +5999,19 @@
         <v>213626.5679</v>
       </c>
       <c r="G165" t="n">
-        <v>-1286666.02601591</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6478,24 +6033,19 @@
         <v>720.30835943</v>
       </c>
       <c r="G166" t="n">
-        <v>-1286666.02601591</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6517,24 +6067,19 @@
         <v>158851.81854057</v>
       </c>
       <c r="G167" t="n">
-        <v>-1127814.20747534</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6556,24 +6101,19 @@
         <v>47212.1727</v>
       </c>
       <c r="G168" t="n">
-        <v>-1080602.03477534</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6595,24 +6135,19 @@
         <v>54790.419</v>
       </c>
       <c r="G169" t="n">
-        <v>-1025811.61577534</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6634,24 +6169,19 @@
         <v>5000</v>
       </c>
       <c r="G170" t="n">
-        <v>-1025811.61577534</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6673,24 +6203,19 @@
         <v>8946</v>
       </c>
       <c r="G171" t="n">
-        <v>-1025811.61577534</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6712,24 +6237,19 @@
         <v>14703</v>
       </c>
       <c r="G172" t="n">
-        <v>-1011108.61577534</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6751,24 +6271,19 @@
         <v>388588.2511</v>
       </c>
       <c r="G173" t="n">
-        <v>-622520.3646753398</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6790,24 +6305,19 @@
         <v>47038.9971</v>
       </c>
       <c r="G174" t="n">
-        <v>-669559.3617753398</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6829,24 +6339,19 @@
         <v>163579.3796</v>
       </c>
       <c r="G175" t="n">
-        <v>-505979.9821753398</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6868,24 +6373,19 @@
         <v>71395.2248</v>
       </c>
       <c r="G176" t="n">
-        <v>-505979.9821753398</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6907,26 +6407,17 @@
         <v>85560</v>
       </c>
       <c r="G177" t="n">
-        <v>-420419.9821753398</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K177" t="inlineStr">
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1.069300254452926</v>
-      </c>
-      <c r="M177" t="n">
-        <v>1.030612244897959</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6948,18 +6439,15 @@
         <v>120.366</v>
       </c>
       <c r="G178" t="n">
-        <v>-420540.3481753398</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6981,18 +6469,15 @@
         <v>1503.7187</v>
       </c>
       <c r="G179" t="n">
-        <v>-419036.6294753398</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7014,18 +6499,15 @@
         <v>38849.0554</v>
       </c>
       <c r="G180" t="n">
-        <v>-457885.6848753398</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7047,18 +6529,15 @@
         <v>250000</v>
       </c>
       <c r="G181" t="n">
-        <v>-707885.6848753397</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7080,18 +6559,15 @@
         <v>270000</v>
       </c>
       <c r="G182" t="n">
-        <v>-707885.6848753397</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7113,18 +6589,15 @@
         <v>8285.230799999999</v>
       </c>
       <c r="G183" t="n">
-        <v>-699600.4540753397</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7146,18 +6619,15 @@
         <v>5000</v>
       </c>
       <c r="G184" t="n">
-        <v>-704600.4540753397</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7179,18 +6649,15 @@
         <v>155000</v>
       </c>
       <c r="G185" t="n">
-        <v>-859600.4540753397</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7212,18 +6679,15 @@
         <v>9491.094999999999</v>
       </c>
       <c r="G186" t="n">
-        <v>-869091.5490753397</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7245,18 +6709,15 @@
         <v>3877.804</v>
       </c>
       <c r="G187" t="n">
-        <v>-869091.5490753397</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7278,18 +6739,15 @@
         <v>304.3738</v>
       </c>
       <c r="G188" t="n">
-        <v>-869091.5490753397</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7311,18 +6769,15 @@
         <v>506.4118</v>
       </c>
       <c r="G189" t="n">
-        <v>-869091.5490753397</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7344,18 +6799,15 @@
         <v>57359</v>
       </c>
       <c r="G190" t="n">
-        <v>-926450.5490753397</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7377,18 +6829,15 @@
         <v>251226.5009</v>
       </c>
       <c r="G191" t="n">
-        <v>-675224.0481753397</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7410,18 +6859,15 @@
         <v>19660.5085</v>
       </c>
       <c r="G192" t="n">
-        <v>-655563.5396753397</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7443,18 +6889,15 @@
         <v>3776</v>
       </c>
       <c r="G193" t="n">
-        <v>-659339.5396753397</v>
-      </c>
-      <c r="H193" t="n">
         <v>2</v>
       </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7476,18 +6919,15 @@
         <v>35187.7988</v>
       </c>
       <c r="G194" t="n">
-        <v>-624151.7408753397</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7509,18 +6949,15 @@
         <v>126034.189</v>
       </c>
       <c r="G195" t="n">
-        <v>-750185.9298753397</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7542,18 +6979,15 @@
         <v>60967.5327</v>
       </c>
       <c r="G196" t="n">
-        <v>-689218.3971753397</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7575,18 +7009,15 @@
         <v>10025.7138</v>
       </c>
       <c r="G197" t="n">
-        <v>-689218.3971753397</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7608,18 +7039,15 @@
         <v>1000</v>
       </c>
       <c r="G198" t="n">
-        <v>-689218.3971753397</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7641,18 +7069,15 @@
         <v>143565.4328</v>
       </c>
       <c r="G199" t="n">
-        <v>-832783.8299753398</v>
-      </c>
-      <c r="H199" t="n">
         <v>2</v>
       </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7674,18 +7099,15 @@
         <v>637.9804</v>
       </c>
       <c r="G200" t="n">
-        <v>-832145.8495753398</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7707,18 +7129,15 @@
         <v>184549.05253058</v>
       </c>
       <c r="G201" t="n">
-        <v>-832145.8495753398</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7740,18 +7159,15 @@
         <v>2485.2648</v>
       </c>
       <c r="G202" t="n">
-        <v>-829660.5847753398</v>
-      </c>
-      <c r="H202" t="n">
         <v>2</v>
       </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7773,18 +7189,15 @@
         <v>1370</v>
       </c>
       <c r="G203" t="n">
-        <v>-831030.5847753398</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7806,18 +7219,15 @@
         <v>10666.0931</v>
       </c>
       <c r="G204" t="n">
-        <v>-841696.6778753399</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7839,18 +7249,15 @@
         <v>28402</v>
       </c>
       <c r="G205" t="n">
-        <v>-870098.6778753399</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7872,18 +7279,15 @@
         <v>187009.5905</v>
       </c>
       <c r="G206" t="n">
-        <v>-683089.0873753398</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7905,18 +7309,15 @@
         <v>220439</v>
       </c>
       <c r="G207" t="n">
-        <v>-903528.0873753398</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7938,18 +7339,15 @@
         <v>128706</v>
       </c>
       <c r="G208" t="n">
-        <v>-1032234.08737534</v>
-      </c>
-      <c r="H208" t="n">
         <v>2</v>
       </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7971,18 +7369,15 @@
         <v>80496</v>
       </c>
       <c r="G209" t="n">
-        <v>-1032234.08737534</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8004,18 +7399,15 @@
         <v>120640.2297</v>
       </c>
       <c r="G210" t="n">
-        <v>-1032234.08737534</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8037,18 +7429,15 @@
         <v>1855.3264</v>
       </c>
       <c r="G211" t="n">
-        <v>-1030378.76097534</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8070,18 +7459,15 @@
         <v>68676</v>
       </c>
       <c r="G212" t="n">
-        <v>-1030378.76097534</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8103,18 +7489,15 @@
         <v>78264.99460000001</v>
       </c>
       <c r="G213" t="n">
-        <v>-1030378.76097534</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8136,18 +7519,15 @@
         <v>1000</v>
       </c>
       <c r="G214" t="n">
-        <v>-1031378.76097534</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8169,18 +7549,15 @@
         <v>25644.6107</v>
       </c>
       <c r="G215" t="n">
-        <v>-1031378.76097534</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8202,18 +7579,15 @@
         <v>37136.7805</v>
       </c>
       <c r="G216" t="n">
-        <v>-1068515.54147534</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8235,18 +7609,15 @@
         <v>67850.7659</v>
       </c>
       <c r="G217" t="n">
-        <v>-1068515.54147534</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8268,18 +7639,15 @@
         <v>157241.2734</v>
       </c>
       <c r="G218" t="n">
-        <v>-1225756.81487534</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8301,18 +7669,15 @@
         <v>1301282.5034</v>
       </c>
       <c r="G219" t="n">
-        <v>75525.68852466019</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8334,18 +7699,15 @@
         <v>963345.7201</v>
       </c>
       <c r="G220" t="n">
-        <v>-887820.0315753398</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8367,18 +7729,15 @@
         <v>101579.7179</v>
       </c>
       <c r="G221" t="n">
-        <v>-989399.7494753399</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8400,18 +7759,15 @@
         <v>135297.0169</v>
       </c>
       <c r="G222" t="n">
-        <v>-1124696.76637534</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8433,18 +7789,15 @@
         <v>2500</v>
       </c>
       <c r="G223" t="n">
-        <v>-1122196.76637534</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8466,18 +7819,15 @@
         <v>123526.686</v>
       </c>
       <c r="G224" t="n">
-        <v>-1245723.45237534</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8499,18 +7849,15 @@
         <v>191329.4574</v>
       </c>
       <c r="G225" t="n">
-        <v>-1437052.90977534</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8532,18 +7879,15 @@
         <v>864042.4631000001</v>
       </c>
       <c r="G226" t="n">
-        <v>-573010.4466753397</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8565,18 +7909,15 @@
         <v>208980</v>
       </c>
       <c r="G227" t="n">
-        <v>-781990.4466753397</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8598,18 +7939,15 @@
         <v>117109.1942</v>
       </c>
       <c r="G228" t="n">
-        <v>-899099.6408753397</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8631,18 +7969,15 @@
         <v>200</v>
       </c>
       <c r="G229" t="n">
-        <v>-898899.6408753397</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8664,18 +7999,15 @@
         <v>3130</v>
       </c>
       <c r="G230" t="n">
-        <v>-902029.6408753397</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8697,18 +8029,15 @@
         <v>402.8403</v>
       </c>
       <c r="G231" t="n">
-        <v>-901626.8005753397</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8730,18 +8059,15 @@
         <v>57519.7677</v>
       </c>
       <c r="G232" t="n">
-        <v>-901626.8005753397</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8763,18 +8089,15 @@
         <v>118925.7672</v>
       </c>
       <c r="G233" t="n">
-        <v>-782701.0333753397</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8796,18 +8119,15 @@
         <v>1340258.6655</v>
       </c>
       <c r="G234" t="n">
-        <v>-2122959.69887534</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8829,18 +8149,15 @@
         <v>115908.05488561</v>
       </c>
       <c r="G235" t="n">
-        <v>-2007051.64398973</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8862,18 +8179,15 @@
         <v>88867.65021439</v>
       </c>
       <c r="G236" t="n">
-        <v>-2007051.64398973</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8895,18 +8209,15 @@
         <v>2355.3165</v>
       </c>
       <c r="G237" t="n">
-        <v>-2004696.32748973</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8928,18 +8239,15 @@
         <v>73833.8118</v>
       </c>
       <c r="G238" t="n">
-        <v>-2078530.13928973</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8961,18 +8269,15 @@
         <v>75054.26360000001</v>
       </c>
       <c r="G239" t="n">
-        <v>-2078530.13928973</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8994,18 +8299,15 @@
         <v>82344.38508561</v>
       </c>
       <c r="G240" t="n">
-        <v>-2078530.13928973</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9027,18 +8329,15 @@
         <v>4301</v>
       </c>
       <c r="G241" t="n">
-        <v>-2082831.13928973</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9060,18 +8359,15 @@
         <v>27883.7662</v>
       </c>
       <c r="G242" t="n">
-        <v>-2054947.37308973</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9093,18 +8389,15 @@
         <v>450585.2813</v>
       </c>
       <c r="G243" t="n">
-        <v>-2505532.65438973</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9126,18 +8419,15 @@
         <v>150870.1905</v>
       </c>
       <c r="G244" t="n">
-        <v>-2354662.46388973</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9159,18 +8449,15 @@
         <v>188.5263</v>
       </c>
       <c r="G245" t="n">
-        <v>-2354850.99018973</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9192,18 +8479,15 @@
         <v>18520</v>
       </c>
       <c r="G246" t="n">
-        <v>-2336330.99018973</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9225,18 +8509,15 @@
         <v>1032.4294</v>
       </c>
       <c r="G247" t="n">
-        <v>-2337363.41958973</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9258,18 +8539,15 @@
         <v>17334.2002</v>
       </c>
       <c r="G248" t="n">
-        <v>-2337363.41958973</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9291,18 +8569,15 @@
         <v>112370.5127</v>
       </c>
       <c r="G249" t="n">
-        <v>-2449733.932289729</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9324,18 +8599,15 @@
         <v>200</v>
       </c>
       <c r="G250" t="n">
-        <v>-2449533.932289729</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9357,18 +8629,15 @@
         <v>11815.7186</v>
       </c>
       <c r="G251" t="n">
-        <v>-2461349.650889729</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9390,18 +8659,15 @@
         <v>50000</v>
       </c>
       <c r="G252" t="n">
-        <v>-2511349.650889729</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9423,18 +8689,15 @@
         <v>124044.6807</v>
       </c>
       <c r="G253" t="n">
-        <v>-2387304.970189729</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9456,18 +8719,15 @@
         <v>7915</v>
       </c>
       <c r="G254" t="n">
-        <v>-2387304.970189729</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9489,18 +8749,15 @@
         <v>97295.26270000001</v>
       </c>
       <c r="G255" t="n">
-        <v>-2484600.232889729</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9522,18 +8779,15 @@
         <v>27000</v>
       </c>
       <c r="G256" t="n">
-        <v>-2457600.232889729</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9555,18 +8809,15 @@
         <v>1497</v>
       </c>
       <c r="G257" t="n">
-        <v>-2457600.232889729</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9588,18 +8839,15 @@
         <v>2054.2264</v>
       </c>
       <c r="G258" t="n">
-        <v>-2459654.459289729</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9621,18 +8869,15 @@
         <v>50000</v>
       </c>
       <c r="G259" t="n">
-        <v>-2509654.459289729</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9654,18 +8899,15 @@
         <v>305906.8413</v>
       </c>
       <c r="G260" t="n">
-        <v>-2203747.617989729</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9687,18 +8929,15 @@
         <v>133517.4486</v>
       </c>
       <c r="G261" t="n">
-        <v>-2203747.617989729</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9720,18 +8959,15 @@
         <v>133517.4486</v>
       </c>
       <c r="G262" t="n">
-        <v>-2337265.066589729</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9753,18 +8989,15 @@
         <v>118653.6968</v>
       </c>
       <c r="G263" t="n">
-        <v>-2455918.763389729</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9786,18 +9019,15 @@
         <v>400</v>
       </c>
       <c r="G264" t="n">
-        <v>-2455518.763389729</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9819,18 +9049,15 @@
         <v>66708</v>
       </c>
       <c r="G265" t="n">
-        <v>-2455518.763389729</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9852,18 +9079,15 @@
         <v>333.3728</v>
       </c>
       <c r="G266" t="n">
-        <v>-2455852.136189729</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9885,18 +9109,15 @@
         <v>18755</v>
       </c>
       <c r="G267" t="n">
-        <v>-2437097.136189729</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9918,18 +9139,15 @@
         <v>425755</v>
       </c>
       <c r="G268" t="n">
-        <v>-2011342.136189729</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9951,18 +9169,15 @@
         <v>557098.59677488</v>
       </c>
       <c r="G269" t="n">
-        <v>-2568440.732964609</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9984,18 +9199,15 @@
         <v>90020</v>
       </c>
       <c r="G270" t="n">
-        <v>-2478420.732964609</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10017,18 +9229,15 @@
         <v>75020</v>
       </c>
       <c r="G271" t="n">
-        <v>-2478420.732964609</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10050,18 +9259,15 @@
         <v>160040</v>
       </c>
       <c r="G272" t="n">
-        <v>-2478420.732964609</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10083,18 +9289,15 @@
         <v>82212</v>
       </c>
       <c r="G273" t="n">
-        <v>-2478420.732964609</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10116,18 +9319,15 @@
         <v>4590</v>
       </c>
       <c r="G274" t="n">
-        <v>-2478420.732964609</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10149,18 +9349,15 @@
         <v>146195</v>
       </c>
       <c r="G275" t="n">
-        <v>-2478420.732964609</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10182,18 +9379,15 @@
         <v>58147</v>
       </c>
       <c r="G276" t="n">
-        <v>-2420273.732964609</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10215,18 +9409,15 @@
         <v>29104</v>
       </c>
       <c r="G277" t="n">
-        <v>-2420273.732964609</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10248,18 +9439,15 @@
         <v>15000</v>
       </c>
       <c r="G278" t="n">
-        <v>-2420273.732964609</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10281,18 +9469,15 @@
         <v>6820</v>
       </c>
       <c r="G279" t="n">
-        <v>-2420273.732964609</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10314,18 +9499,15 @@
         <v>347157.84222512</v>
       </c>
       <c r="G280" t="n">
-        <v>-2420273.732964609</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10347,18 +9529,15 @@
         <v>45000</v>
       </c>
       <c r="G281" t="n">
-        <v>-2375273.732964609</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10380,18 +9559,15 @@
         <v>10000</v>
       </c>
       <c r="G282" t="n">
-        <v>-2365273.732964609</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10413,18 +9589,15 @@
         <v>5000</v>
       </c>
       <c r="G283" t="n">
-        <v>-2365273.732964609</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10446,18 +9619,15 @@
         <v>14873.1839</v>
       </c>
       <c r="G284" t="n">
-        <v>-2380146.916864609</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10479,18 +9649,15 @@
         <v>21000</v>
       </c>
       <c r="G285" t="n">
-        <v>-2359146.916864609</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10512,18 +9679,15 @@
         <v>51588.274</v>
       </c>
       <c r="G286" t="n">
-        <v>-2410735.190864609</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10545,18 +9709,15 @@
         <v>3202.4959</v>
       </c>
       <c r="G287" t="n">
-        <v>-2410735.190864609</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10578,18 +9739,15 @@
         <v>4881.62069807</v>
       </c>
       <c r="G288" t="n">
-        <v>-2410735.190864609</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10611,22 +9769,15 @@
         <v>132439</v>
       </c>
       <c r="G289" t="n">
-        <v>-2543174.190864609</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="J289" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10648,26 +9799,15 @@
         <v>18755</v>
       </c>
       <c r="G290" t="n">
-        <v>-2543174.190864609</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>4.087</v>
-      </c>
-      <c r="J290" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10689,26 +9829,15 @@
         <v>503871</v>
       </c>
       <c r="G291" t="n">
-        <v>-2039303.190864609</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>4.087</v>
-      </c>
-      <c r="J291" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10730,24 +9859,15 @@
         <v>100000</v>
       </c>
       <c r="G292" t="n">
-        <v>-1939303.190864609</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10769,24 +9889,15 @@
         <v>5000</v>
       </c>
       <c r="G293" t="n">
-        <v>-1939303.190864609</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10808,24 +9919,15 @@
         <v>580.7055</v>
       </c>
       <c r="G294" t="n">
-        <v>-1939303.190864609</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10847,26 +9949,15 @@
         <v>75376.50109999999</v>
       </c>
       <c r="G295" t="n">
-        <v>-1939303.190864609</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="J295" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10888,24 +9979,15 @@
         <v>2500</v>
       </c>
       <c r="G296" t="n">
-        <v>-1936803.190864609</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10927,24 +10009,15 @@
         <v>2500</v>
       </c>
       <c r="G297" t="n">
-        <v>-1934303.190864609</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10966,24 +10039,15 @@
         <v>22322.1814</v>
       </c>
       <c r="G298" t="n">
-        <v>-1956625.372264609</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11005,26 +10069,15 @@
         <v>11689.941</v>
       </c>
       <c r="G299" t="n">
-        <v>-1944935.431264609</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>4.084</v>
-      </c>
-      <c r="J299" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11046,24 +10099,15 @@
         <v>385.6821</v>
       </c>
       <c r="G300" t="n">
-        <v>-1944549.749164609</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11085,24 +10129,15 @@
         <v>37755.6163</v>
       </c>
       <c r="G301" t="n">
-        <v>-1944549.749164609</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11124,24 +10159,15 @@
         <v>35249.8962</v>
       </c>
       <c r="G302" t="n">
-        <v>-1944549.749164609</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11163,24 +10189,15 @@
         <v>185.3265</v>
       </c>
       <c r="G303" t="n">
-        <v>-1944364.422664609</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11202,24 +10219,15 @@
         <v>408.2735</v>
       </c>
       <c r="G304" t="n">
-        <v>-1944772.696164609</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11241,24 +10249,15 @@
         <v>80000</v>
       </c>
       <c r="G305" t="n">
-        <v>-1864772.696164609</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11280,24 +10279,15 @@
         <v>8903.0604</v>
       </c>
       <c r="G306" t="n">
-        <v>-1873675.756564609</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11319,24 +10309,15 @@
         <v>38639.6255</v>
       </c>
       <c r="G307" t="n">
-        <v>-1873675.756564609</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
